--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF50476-08F9-0B45-BA04-CEDD75E9B000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC47857C-1C7B-3249-8049-CB5DA96C4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14840" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="4640" yWindow="500" windowWidth="18620" windowHeight="13140" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -174,19 +175,129 @@
   </si>
   <si>
     <t>2022-12</t>
+  </si>
+  <si>
+    <t>Percentage %</t>
+  </si>
+  <si>
+    <t>Winter North</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Holidays North</t>
+  </si>
+  <si>
+    <t>Holidays Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local Rainy Season</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>International Flights</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="mmm/yyyy"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,9 +320,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,13 +647,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB7571-518D-374C-8FD9-00C835832375}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="18.1640625" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" customWidth="1"/>
+    <col min="28" max="28" width="21" customWidth="1"/>
+    <col min="29" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="14.5" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -639,8 +782,8 @@
       </c>
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
+      <c r="A2" s="7">
+        <v>44562</v>
       </c>
       <c r="B2" s="1">
         <v>7771.6388888888887</v>
@@ -743,8 +886,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
+      <c r="A3" s="7">
+        <v>44593</v>
       </c>
       <c r="B3" s="1">
         <v>5660</v>
@@ -847,8 +990,8 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
+      <c r="A4" s="7">
+        <v>44621</v>
       </c>
       <c r="B4" s="1">
         <v>5299.8611111111113</v>
@@ -951,8 +1094,8 @@
       </c>
     </row>
     <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
+      <c r="A5" s="7">
+        <v>44652</v>
       </c>
       <c r="B5" s="1">
         <v>11300.75</v>
@@ -1055,8 +1198,8 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
+      <c r="A6" s="7">
+        <v>44682</v>
       </c>
       <c r="B6" s="1">
         <v>5555.0099999999993</v>
@@ -1159,8 +1302,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
+      <c r="A7" s="7">
+        <v>44713</v>
       </c>
       <c r="B7" s="1">
         <v>2821.9919444444445</v>
@@ -1263,8 +1406,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
+      <c r="A8" s="7">
+        <v>44743</v>
       </c>
       <c r="B8" s="1">
         <v>6345.9894444444444</v>
@@ -1367,8 +1510,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
+      <c r="A9" s="7">
+        <v>44774</v>
       </c>
       <c r="B9" s="1">
         <v>5398.0031388888892</v>
@@ -1471,8 +1614,8 @@
       </c>
     </row>
     <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
+      <c r="A10" s="7">
+        <v>44805</v>
       </c>
       <c r="B10" s="1">
         <v>5495.2106666666668</v>
@@ -1575,8 +1718,8 @@
       </c>
     </row>
     <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
+      <c r="A11" s="7">
+        <v>44835</v>
       </c>
       <c r="B11" s="1">
         <v>3969.1485638888894</v>
@@ -1679,8 +1822,8 @@
       </c>
     </row>
     <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
+      <c r="A12" s="7">
+        <v>44866</v>
       </c>
       <c r="B12" s="1">
         <v>5675.9397222222215</v>
@@ -1783,8 +1926,8 @@
       </c>
     </row>
     <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
+      <c r="A13" s="7">
+        <v>44896</v>
       </c>
       <c r="B13" s="1">
         <v>8197.7705555555549</v>
@@ -1886,7 +2029,1010 @@
         <v>12391.600378027781</v>
       </c>
     </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>45261</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="23.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7771.6388888888887</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3972.5555555555557</v>
+      </c>
+      <c r="K2" s="8">
+        <v>13136.888888888889</v>
+      </c>
+      <c r="L2" s="8">
+        <v>24881.083333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5660</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3773.3333333333335</v>
+      </c>
+      <c r="K3" s="8">
+        <v>11430.527777777777</v>
+      </c>
+      <c r="L3" s="8">
+        <v>20863.861111111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5299.8611111111113</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3533.2222222222222</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9742.6111111111113</v>
+      </c>
+      <c r="L4" s="8">
+        <v>18575.694444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>246.05555555555554</v>
+      </c>
+      <c r="I5" s="8">
+        <v>11300.75</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7533.833333333333</v>
+      </c>
+      <c r="K5" s="8">
+        <v>15043.805555555555</v>
+      </c>
+      <c r="L5" s="8">
+        <v>33878.388888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>144.92038888888888</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5555.0099999999993</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3703.3399999999997</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8546.1691666666666</v>
+      </c>
+      <c r="L6" s="8">
+        <v>17804.519166666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>118.45822222222222</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2821.9919444444445</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1881.3280555555555</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7171.4191666666666</v>
+      </c>
+      <c r="L7" s="8">
+        <v>11874.739166666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>46.761375416666667</v>
+      </c>
+      <c r="I8" s="8">
+        <v>6345.9894444444444</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4230.6597222222226</v>
+      </c>
+      <c r="K8" s="8">
+        <v>15864.97388888889</v>
+      </c>
+      <c r="L8" s="8">
+        <v>26441.623055555556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>149.96791666666667</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5398.0031388888892</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3598.6686111111112</v>
+      </c>
+      <c r="K9" s="8">
+        <v>11925.820833333333</v>
+      </c>
+      <c r="L9" s="8">
+        <v>20922.492583333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>170.24083333333334</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5495.2106666666668</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3663.4737777777782</v>
+      </c>
+      <c r="K10" s="8">
+        <v>13738.026666666667</v>
+      </c>
+      <c r="L10" s="8">
+        <v>22896.711111111115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3969.1485638888894</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2646.0990422222221</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7765.7254499999999</v>
+      </c>
+      <c r="L11" s="8">
+        <v>14380.973056111112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5675.9397222222215</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3783.9597222222219</v>
+      </c>
+      <c r="K12" s="8">
+        <v>14796.252777777778</v>
+      </c>
+      <c r="L12" s="8">
+        <v>24256.152222222223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>196.63585922222222</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8197.7705555555549</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5465.1805555555557</v>
+      </c>
+      <c r="K13" s="8">
+        <v>16039.116388888888</v>
+      </c>
+      <c r="L13" s="8">
+        <v>29702.067499999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="I14" s="8">
+        <v>11362.223050000001</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4926.2308388888887</v>
+      </c>
+      <c r="K14" s="8">
+        <v>18609.989444444444</v>
+      </c>
+      <c r="L14" s="8">
+        <v>34898.443333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6112.6362361111114</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4075.0908250000002</v>
+      </c>
+      <c r="K15" s="8">
+        <v>16622.081111111111</v>
+      </c>
+      <c r="L15" s="8">
+        <v>26809.808172222223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="I16" s="8">
+        <v>7636.8269341522582</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5603.8833169390737</v>
+      </c>
+      <c r="K16" s="8">
+        <v>21306.423360019777</v>
+      </c>
+      <c r="L16" s="8">
+        <v>34547.133611111116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="I17" s="8">
+        <v>10182.808819444444</v>
+      </c>
+      <c r="J17" s="8">
+        <v>6788.5391666666665</v>
+      </c>
+      <c r="K17" s="8">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="L17" s="8">
+        <v>34010.717452777775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="I18" s="8">
+        <v>7338.333333333333</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5283.6402777777776</v>
+      </c>
+      <c r="K18" s="8">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="L18" s="8">
+        <v>29353.50138888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="I19" s="8">
+        <v>6458.8563888888884</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4085.951111111111</v>
+      </c>
+      <c r="K19" s="8">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="L19" s="8">
+        <v>25876.828333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I20" s="8">
+        <v>7797.3772222222224</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5928.2080555555549</v>
+      </c>
+      <c r="K20" s="8">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="L20" s="8">
+        <v>34472.032222222217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC47857C-1C7B-3249-8049-CB5DA96C4B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D974A011-0678-6148-8728-4B4A3CB74B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="500" windowWidth="18620" windowHeight="13140" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Holidays Local</t>
   </si>
   <si>
-    <t xml:space="preserve"> Local Rainy Season</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -241,6 +238,15 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Local Rainy Season</t>
+  </si>
+  <si>
+    <t>Average F&amp;B</t>
+  </si>
+  <si>
+    <t>ARR</t>
   </si>
 </sst>
 </file>
@@ -248,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +305,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -328,14 +342,16 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2097,11 +2113,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2112,13 +2126,15 @@
     <col min="6" max="6" width="25" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2135,28 +2151,34 @@
         <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -2182,19 +2204,25 @@
         <v>62.111111111111114</v>
       </c>
       <c r="I2" s="8">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8">
+        <v>75</v>
+      </c>
+      <c r="K2" s="8">
         <v>7771.6388888888887</v>
       </c>
-      <c r="J2" s="8">
+      <c r="L2" s="8">
         <v>3972.5555555555557</v>
       </c>
-      <c r="K2" s="8">
+      <c r="M2" s="8">
         <v>13136.888888888889</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>24881.083333333332</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -2220,19 +2248,25 @@
         <v>62.111111111111114</v>
       </c>
       <c r="I3" s="8">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8">
+        <v>75</v>
+      </c>
+      <c r="K3" s="8">
         <v>5660</v>
       </c>
-      <c r="J3" s="8">
+      <c r="L3" s="8">
         <v>3773.3333333333335</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="8">
         <v>11430.527777777777</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>20863.861111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -2258,19 +2292,25 @@
         <v>99.305555555555557</v>
       </c>
       <c r="I4" s="8">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8">
         <v>5299.8611111111113</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>3533.2222222222222</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
         <v>9742.6111111111113</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="8">
         <v>18575.694444444445</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -2296,19 +2336,25 @@
         <v>246.05555555555554</v>
       </c>
       <c r="I5" s="8">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8">
+        <v>75</v>
+      </c>
+      <c r="K5" s="8">
         <v>11300.75</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>7533.833333333333</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>15043.805555555555</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>33878.388888888891</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -2325,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -2334,19 +2380,25 @@
         <v>144.92038888888888</v>
       </c>
       <c r="I6" s="8">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8">
+        <v>75</v>
+      </c>
+      <c r="K6" s="8">
         <v>5555.0099999999993</v>
       </c>
-      <c r="J6" s="8">
+      <c r="L6" s="8">
         <v>3703.3399999999997</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>8546.1691666666666</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>17804.519166666665</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -2363,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -2372,19 +2424,25 @@
         <v>118.45822222222222</v>
       </c>
       <c r="I7" s="8">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8">
+        <v>75</v>
+      </c>
+      <c r="K7" s="8">
         <v>2821.9919444444445</v>
       </c>
-      <c r="J7" s="8">
+      <c r="L7" s="8">
         <v>1881.3280555555555</v>
       </c>
-      <c r="K7" s="8">
+      <c r="M7" s="8">
         <v>7171.4191666666666</v>
       </c>
-      <c r="L7" s="8">
+      <c r="N7" s="8">
         <v>11874.739166666666</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -2410,19 +2468,25 @@
         <v>46.761375416666667</v>
       </c>
       <c r="I8" s="8">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8">
+        <v>75</v>
+      </c>
+      <c r="K8" s="8">
         <v>6345.9894444444444</v>
       </c>
-      <c r="J8" s="8">
+      <c r="L8" s="8">
         <v>4230.6597222222226</v>
       </c>
-      <c r="K8" s="8">
+      <c r="M8" s="8">
         <v>15864.97388888889</v>
       </c>
-      <c r="L8" s="8">
+      <c r="N8" s="8">
         <v>26441.623055555556</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2448,19 +2512,25 @@
         <v>149.96791666666667</v>
       </c>
       <c r="I9" s="8">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8">
+        <v>77</v>
+      </c>
+      <c r="K9" s="8">
         <v>5398.0031388888892</v>
       </c>
-      <c r="J9" s="8">
+      <c r="L9" s="8">
         <v>3598.6686111111112</v>
       </c>
-      <c r="K9" s="8">
+      <c r="M9" s="8">
         <v>11925.820833333333</v>
       </c>
-      <c r="L9" s="8">
+      <c r="N9" s="8">
         <v>20922.492583333333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -2486,19 +2556,25 @@
         <v>170.24083333333334</v>
       </c>
       <c r="I10" s="8">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8">
+        <v>77</v>
+      </c>
+      <c r="K10" s="8">
         <v>5495.2106666666668</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="8">
         <v>3663.4737777777782</v>
       </c>
-      <c r="K10" s="8">
+      <c r="M10" s="8">
         <v>13738.026666666667</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
         <v>22896.711111111115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -2524,19 +2600,25 @@
         <v>176.07463058333332</v>
       </c>
       <c r="I11" s="8">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8">
+        <v>77</v>
+      </c>
+      <c r="K11" s="8">
         <v>3969.1485638888894</v>
       </c>
-      <c r="J11" s="8">
+      <c r="L11" s="8">
         <v>2646.0990422222221</v>
       </c>
-      <c r="K11" s="8">
+      <c r="M11" s="8">
         <v>7765.7254499999999</v>
       </c>
-      <c r="L11" s="8">
+      <c r="N11" s="8">
         <v>14380.973056111112</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
@@ -2562,19 +2644,25 @@
         <v>176.07463058333332</v>
       </c>
       <c r="I12" s="8">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8">
+        <v>77</v>
+      </c>
+      <c r="K12" s="8">
         <v>5675.9397222222215</v>
       </c>
-      <c r="J12" s="8">
+      <c r="L12" s="8">
         <v>3783.9597222222219</v>
       </c>
-      <c r="K12" s="8">
+      <c r="M12" s="8">
         <v>14796.252777777778</v>
       </c>
-      <c r="L12" s="8">
+      <c r="N12" s="8">
         <v>24256.152222222223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
@@ -2600,21 +2688,27 @@
         <v>196.63585922222222</v>
       </c>
       <c r="I13" s="8">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8">
+        <v>77</v>
+      </c>
+      <c r="K13" s="8">
         <v>8197.7705555555549</v>
       </c>
-      <c r="J13" s="8">
+      <c r="L13" s="8">
         <v>5465.1805555555557</v>
       </c>
-      <c r="K13" s="8">
+      <c r="M13" s="8">
         <v>16039.116388888888</v>
       </c>
-      <c r="L13" s="8">
+      <c r="N13" s="8">
         <v>29702.067499999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4">
         <v>0.81</v>
@@ -2638,21 +2732,27 @@
         <v>277.43523555555555</v>
       </c>
       <c r="I14" s="8">
+        <v>19</v>
+      </c>
+      <c r="J14" s="8">
+        <v>79</v>
+      </c>
+      <c r="K14" s="8">
         <v>11362.223050000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="L14" s="8">
         <v>4926.2308388888887</v>
       </c>
-      <c r="K14" s="8">
+      <c r="M14" s="8">
         <v>18609.989444444444</v>
       </c>
-      <c r="L14" s="8">
+      <c r="N14" s="8">
         <v>34898.443333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4">
         <v>0.82</v>
@@ -2676,21 +2776,27 @@
         <v>583.33333333333337</v>
       </c>
       <c r="I15" s="8">
+        <v>19</v>
+      </c>
+      <c r="J15" s="8">
+        <v>79</v>
+      </c>
+      <c r="K15" s="8">
         <v>6112.6362361111114</v>
       </c>
-      <c r="J15" s="8">
+      <c r="L15" s="8">
         <v>4075.0908250000002</v>
       </c>
-      <c r="K15" s="8">
+      <c r="M15" s="8">
         <v>16622.081111111111</v>
       </c>
-      <c r="L15" s="8">
+      <c r="N15" s="8">
         <v>26809.808172222223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="4">
         <v>0.73</v>
@@ -2714,21 +2820,27 @@
         <v>189.90263766666666</v>
       </c>
       <c r="I16" s="8">
+        <v>19</v>
+      </c>
+      <c r="J16" s="8">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8">
         <v>7636.8269341522582</v>
       </c>
-      <c r="J16" s="8">
+      <c r="L16" s="8">
         <v>5603.8833169390737</v>
       </c>
-      <c r="K16" s="8">
+      <c r="M16" s="8">
         <v>21306.423360019777</v>
       </c>
-      <c r="L16" s="8">
+      <c r="N16" s="8">
         <v>34547.133611111116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4">
         <v>0.78</v>
@@ -2752,21 +2864,27 @@
         <v>339.38964222222216</v>
       </c>
       <c r="I17" s="8">
+        <v>19</v>
+      </c>
+      <c r="J17" s="8">
+        <v>79</v>
+      </c>
+      <c r="K17" s="8">
         <v>10182.808819444444</v>
       </c>
-      <c r="J17" s="8">
+      <c r="L17" s="8">
         <v>6788.5391666666665</v>
       </c>
-      <c r="K17" s="8">
+      <c r="M17" s="8">
         <v>17039.369466666667</v>
       </c>
-      <c r="L17" s="8">
+      <c r="N17" s="8">
         <v>34010.717452777775</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="4">
         <v>0.6</v>
@@ -2781,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
@@ -2790,21 +2908,27 @@
         <v>366.89441874999994</v>
       </c>
       <c r="I18" s="8">
+        <v>19</v>
+      </c>
+      <c r="J18" s="8">
+        <v>79</v>
+      </c>
+      <c r="K18" s="8">
         <v>7338.333333333333</v>
       </c>
-      <c r="J18" s="8">
+      <c r="L18" s="8">
         <v>5283.6402777777776</v>
       </c>
-      <c r="K18" s="8">
+      <c r="M18" s="8">
         <v>16731.527777777777</v>
       </c>
-      <c r="L18" s="8">
+      <c r="N18" s="8">
         <v>29353.50138888889</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4">
         <v>0.52</v>
@@ -2819,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -2828,21 +2952,27 @@
         <v>289.95980819444441</v>
       </c>
       <c r="I19" s="8">
+        <v>19</v>
+      </c>
+      <c r="J19" s="8">
+        <v>79</v>
+      </c>
+      <c r="K19" s="8">
         <v>6458.8563888888884</v>
       </c>
-      <c r="J19" s="8">
+      <c r="L19" s="8">
         <v>4085.951111111111</v>
       </c>
-      <c r="K19" s="8">
+      <c r="M19" s="8">
         <v>15332.020833333334</v>
       </c>
-      <c r="L19" s="8">
+      <c r="N19" s="8">
         <v>25876.828333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="4">
         <v>0.83</v>
@@ -2857,7 +2987,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
@@ -2866,21 +2996,27 @@
         <v>319.48371291666666</v>
       </c>
       <c r="I20" s="8">
+        <v>19</v>
+      </c>
+      <c r="J20" s="8">
+        <v>79</v>
+      </c>
+      <c r="K20" s="8">
         <v>7797.3772222222224</v>
       </c>
-      <c r="J20" s="8">
+      <c r="L20" s="8">
         <v>5928.2080555555549</v>
       </c>
-      <c r="K20" s="8">
+      <c r="M20" s="8">
         <v>20746.446944444444</v>
       </c>
-      <c r="L20" s="8">
+      <c r="N20" s="8">
         <v>34472.032222222217</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2">
         <v>0.62</v>
@@ -2903,24 +3039,32 @@
       <c r="H21" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="8">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8">
+        <v>80</v>
+      </c>
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.7</v>
+      </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
@@ -2939,16 +3083,36 @@
       <c r="H22" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I22" s="8">
+        <v>20</v>
+      </c>
+      <c r="J22" s="8">
+        <v>80</v>
+      </c>
+      <c r="K22" s="8">
+        <f>K10*1.07</f>
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="L22" s="8">
+        <f>L10*1.07</f>
+        <v>3919.916942222223</v>
+      </c>
+      <c r="M22" s="8">
+        <f>M10*1.07</f>
+        <v>14699.688533333334</v>
+      </c>
+      <c r="N22" s="8">
+        <f>N10*1.07</f>
+        <v>24499.480888888895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.4</v>
+      </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
@@ -2967,16 +3131,36 @@
       <c r="H23" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I23" s="8">
+        <v>20</v>
+      </c>
+      <c r="J23" s="8">
+        <v>80</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" ref="K23:N25" si="0">K11*1.07</f>
+        <v>4246.9889633611119</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="0"/>
+        <v>2831.3259751777778</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>8309.3262315000011</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="0"/>
+        <v>15387.641170038891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.6</v>
+      </c>
       <c r="C24" s="3">
         <v>0</v>
       </c>
@@ -2990,21 +3174,41 @@
         <v>49</v>
       </c>
       <c r="G24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I24" s="8">
+        <v>20</v>
+      </c>
+      <c r="J24" s="8">
+        <v>80</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>6073.2555027777771</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="0"/>
+        <v>4048.8369027777776</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>15831.990472222224</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="0"/>
+        <v>25954.082877777779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.8</v>
+      </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
@@ -3018,17 +3222,35 @@
         <v>49</v>
       </c>
       <c r="G25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="8">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8">
+        <v>80</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>8771.6144944444441</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="0"/>
+        <v>5847.7431944444452</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>17161.85453611111</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="0"/>
+        <v>31781.212224999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
     </row>
   </sheetData>

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D974A011-0678-6148-8728-4B4A3CB74B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FCAF9-6589-FC4F-AE2A-3762CB976694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -177,9 +177,6 @@
     <t>2022-12</t>
   </si>
   <si>
-    <t>Percentage %</t>
-  </si>
-  <si>
     <t>Winter North</t>
   </si>
   <si>
@@ -243,10 +240,25 @@
     <t>Local Rainy Season</t>
   </si>
   <si>
-    <t>Average F&amp;B</t>
-  </si>
-  <si>
-    <t>ARR</t>
+    <t>Average Room Rate</t>
+  </si>
+  <si>
+    <t>Number of Rooms</t>
+  </si>
+  <si>
+    <t>Total F&amp;B</t>
+  </si>
+  <si>
+    <t>F&amp;B Revenue</t>
+  </si>
+  <si>
+    <t>Percentage Rooms Occ %</t>
+  </si>
+  <si>
+    <t>Percentage F&amp;B Occ %</t>
+  </si>
+  <si>
+    <t>Average Price F&amp;B</t>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,6 +324,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -348,6 +367,8 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,37 +684,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB7571-518D-374C-8FD9-00C835832375}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" customWidth="1"/>
-    <col min="27" max="27" width="19.1640625" customWidth="1"/>
-    <col min="28" max="28" width="21" customWidth="1"/>
-    <col min="29" max="30" width="15.6640625" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="14.5" customWidth="1"/>
-    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" customWidth="1"/>
+    <col min="28" max="28" width="19.1640625" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="30" max="31" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
+    <col min="34" max="34" width="14.5" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,100 +726,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -808,100 +833,104 @@
         <v>3972.5555555555557</v>
       </c>
       <c r="D2" s="1">
+        <f>SUM(C2+B2)</f>
+        <v>11744.194444444445</v>
+      </c>
+      <c r="E2" s="1">
         <v>13136.888888888889</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>24881.083333333332</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3696.5833333333335</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1551.3611111111111</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1471</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>6718.9444444444443</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>831.94444444444446</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
       <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>513.88888888888891</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2830.9722222222222</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>552.77777777777783</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>510.22222222222223</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>153.66666666666666</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>118.11111111111111</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>150</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>137.77777777777777</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>375.91666666666669</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>150.58333333333334</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>6.3055555555555554</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>379.13888888888891</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>145.75</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>98.722222222222229</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>597.30555555555554</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>55.722222222222221</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>23.333333333333332</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>62.111111111111114</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>123.22222222222223</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>819</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>8636.4722222222226</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>15355.416666666666</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>9525.6666666666661</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44593</v>
       </c>
@@ -912,100 +941,104 @@
         <v>3773.3333333333335</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ref="D3:D13" si="0">SUM(C3+B3)</f>
+        <v>9433.3333333333339</v>
+      </c>
+      <c r="E3" s="1">
         <v>11430.527777777777</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>20863.861111111109</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>3476.7777777777778</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2317.8611111111113</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>935.38888888888891</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>6730.0277777777774</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>864.02777777777783</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>3123.5833333333335</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>552.77777777777783</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>510.22222222222223</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>153.66666666666666</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>118.11111111111111</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>150</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>137.77777777777777</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>375.91666666666669</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>150.58333333333334</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>6.3055555555555554</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>379.13888888888891</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>145.75</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>98.722222222222229</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>117.66666666666667</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>55.722222222222221</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>23.333333333333332</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>62.111111111111114</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>123.22222222222223</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>519.44444444444446</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>7668.083333333333</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>14398.111111111111</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>6465.75</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44621</v>
       </c>
@@ -1016,100 +1049,104 @@
         <v>3533.2222222222222</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>8833.0833333333339</v>
+      </c>
+      <c r="E4" s="1">
         <v>9742.6111111111113</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>18575.694444444445</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2250</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1944.4444444444443</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1150.5555555555557</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>5345</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>555.13888888888891</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>89.722222222222229</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>2904.0555555555557</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>1761</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>640.02777777777783</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>153.66666666666666</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>118.11111111111111</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>88.611111111111114</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>209.13888888888889</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>261.44444444444446</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>150.58333333333334</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>379.58333333333331</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>202.94444444444446</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>209.13888888888889</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>627.38888888888891</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <v>56.027777777777779</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>30.194444444444443</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>99.305555555555557</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>118</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>370.30555555555554</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>9030.3333333333339</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>14375.333333333334</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>4200.3611111111113</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44652</v>
       </c>
@@ -1120,100 +1157,104 @@
         <v>7533.833333333333</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>18834.583333333332</v>
+      </c>
+      <c r="E5" s="1">
         <v>15043.805555555555</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>33878.388888888891</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>4243.1944444444443</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3128.9444444444443</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2108</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>9480.1388888888887</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1269.3333333333333</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>89.722222222222229</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>894.44444444444446</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2860.4166666666665</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>782.02777777777783</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>890.5</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>118.11111111111111</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>167.77777777777777</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>181.80555555555554</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>193.11111111111111</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>150.58333333333334</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>183.08333333333334</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>146.16666666666666</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>397.27777777777777</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>362.97222222222223</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB5" s="1">
         <v>162.47222222222223</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>35.694444444444443</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>246.05555555555554</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>118</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>700</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>10224.527777777777</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>19704.666666666668</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>14173.722222222223</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44682</v>
       </c>
@@ -1224,100 +1265,104 @@
         <v>3703.3399999999997</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>9258.3499999999985</v>
+      </c>
+      <c r="E6" s="1">
         <v>8546.1691666666666</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>17804.519166666665</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1666.6666666666667</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1336.3348218111112</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>861.11111111111109</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>3864.1125995888888</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>661.15277777777783</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>3120.8694444444445</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>878.68775533333326</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>972.22222222222217</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>118.11111111111111</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>102.22222222222223</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>203.9425</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>401.14444444444445</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>183.08333333333334</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>146.16666666666666</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>157.16666666666666</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>363.98655555555547</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
         <v>56.186111111111103</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>144.92038888888888</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>118</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>500</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>8610.8566442222218</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>12474.969243811111</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>5329.5499228555545</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44713</v>
       </c>
@@ -1328,100 +1373,104 @@
         <v>1881.3280555555555</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>4703.32</v>
+      </c>
+      <c r="E7" s="1">
         <v>7171.4191666666666</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>11874.739166666666</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1166.6666666666667</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>555.55555555555554</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>972.22222222222217</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>2694.4444444444443</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>227.08333333333334</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
       <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>99.444444444444443</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>2923.9430555555555</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1472.2222222222222</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>736.11111111111109</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>32.5</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>127.77777777777777</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>248.88888888888889</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>126.44999999999999</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>183.08333333333334</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>146.16666666666666</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>161.5</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>543.11583333333328</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
         <v>56.18611111111111</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <v>118.45822222222222</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>118</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>305.55555555555554</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>8109.4809999999998</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>10803.925444444445</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>1070.8137222222222</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44743</v>
       </c>
@@ -1432,100 +1481,104 @@
         <v>4230.6597222222226</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>10576.649166666666</v>
+      </c>
+      <c r="E8" s="1">
         <v>15864.97388888889</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>26441.623055555556</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2611.1111111111113</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1384.6763888888891</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2219.1705555555554</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>6214.9580555555549</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>629.72222222222217</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>3122.1569444444444</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>965.23636111111125</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>555.55555555555554</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>29.722222222222221</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>130</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>251.11111111111111</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>78.932500000000005</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>183.49611111111111</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>209.78703708333333</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>249.66222222222223</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>476.29729666666663</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB8" s="1">
         <v>56.393120833333327</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <v>46.761375416666667</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>118</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>617.97222222222217</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>8203.8007466666659</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>14418.758802222221</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>12022.864253333337</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44774</v>
       </c>
@@ -1536,100 +1589,104 @@
         <v>3598.6686111111112</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>8996.6717500000013</v>
+      </c>
+      <c r="E9" s="1">
         <v>11925.820833333333</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>20922.492583333333</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1861.1111111111111</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1206.3266111098887</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1249.3127776333333</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>4316.7504998543336</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>625.27777777777783</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>2952.0299722222221</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>952.54250000000013</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>833.33333333333337</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>58.388888888888886</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>90.555555555555557</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>285.55555555555554</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>70.694444444444443</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>164.55805555555557</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>147.39846636111113</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>151.66666666666666</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>239.13883991666665</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB9" s="1">
         <v>56.487915277777773</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="1">
         <v>149.96791666666667</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>118</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>527.77777777777783</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>7906.368110444444</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>12223.118610298778</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>8699.3739730345569</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>44805</v>
       </c>
@@ -1640,100 +1697,104 @@
         <v>3663.4737777777782</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>9158.684444444445</v>
+      </c>
+      <c r="E10" s="1">
         <v>13738.026666666667</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>22896.711111111115</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2138.8888888888887</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1808.1363392896662</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>431.60242055555557</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>4378.6276487341111</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>487.63888888888891</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
       <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>877.77777777777783</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>3128.1888750000007</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1758.9916666666668</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>747.45916666666665</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>40.722222222222221</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>104.44444444444444</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>277.77777777777777</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>144.0925</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>130.005</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>62.873881944444442</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>248.05555555555554</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>263.16228583333333</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AB10" s="1">
         <v>56.487915277777773</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="1">
         <v>170.24083333333334</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AE10" s="1">
         <v>118</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AF10" s="1">
         <v>515.02777777777783</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AG10" s="1">
         <v>9613.9410136111128</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AH10" s="1">
         <v>13992.568662345224</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AI10" s="1">
         <v>8904.1424487658896</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>44835</v>
       </c>
@@ -1744,100 +1805,104 @@
         <v>2646.0990422222221</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>6615.247606111112</v>
+      </c>
+      <c r="E11" s="1">
         <v>7765.7254499999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>14380.973056111112</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>1388.8888888888889</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>671.27221779777517</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>619.92006944444449</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>2680.0811761311084</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>420.83333333333331</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>3072.3894444444445</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>2557.0605555555549</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>722.22222222222217</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>40</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>80</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>296.66666666666669</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>173.31416666666667</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>172.22222222222223</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>5.9444444444444446</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>145.92555555555555</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <v>62.979300694444447</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>216.25</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AA11" s="1">
         <v>241.34652833333334</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>56.675306944444444</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AC11" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="1">
         <v>176.07463058333332</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <v>128.3269383611111</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>361.11111111111109</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <v>9234.170204916667</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <v>11914.251381047776</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AI11" s="1">
         <v>2466.7216750633361</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>44866</v>
       </c>
@@ -1848,100 +1913,104 @@
         <v>3783.9597222222219</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>9459.8994444444434</v>
+      </c>
+      <c r="E12" s="1">
         <v>14796.252777777778</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>24256.152222222223</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2172.2222222222222</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1723.8328678111111</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>787.54525466666666</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>4683.6003447000003</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>992.08333333333337</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>2990.1740925925833</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>4642.1928888888888</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>833.33333333333337</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>55.166666666666664</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>51.111111111111114</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>466.66666666666669</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>55.888888888888886</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>174.11111111111111</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>6.0277777777777777</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>146.14416666666665</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>433.32751041666666</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>329.72222222222223</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>183.96718194444441</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>56.767590277777771</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <v>36.170499999999997</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>176.07463058333332</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>128.53589069444445</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>541.66666666666663</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>12568.160007620361</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>17251.760352320362</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>7004.3918699018604</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>44896</v>
       </c>
@@ -1952,110 +2021,114 @@
         <v>5465.1805555555557</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>13662.95111111111</v>
+      </c>
+      <c r="E13" s="1">
         <v>16039.116388888888</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>29702.067499999997</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>3319.4444444444443</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2883.8784299999993</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>525.37747777777497</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>6728.7003522222185</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>1119.0277777777778</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>266.77777777777777</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>4006.0438888888884</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>940.01277777777773</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>627.94444444444446</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>269.02777777777777</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>68.888888888888886</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>116.11111111111111</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>472.22222222222223</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>406.01888888888891</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>174.11111111111111</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>6.0277777777777777</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>146.35694444444445</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>57.617990277777785</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>354.02777777777777</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>319.55088372222218</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>56.767590277777771</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <v>36.170499999999997</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>196.63585922222222</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>128.53589069444445</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>813.88888888888891</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>10581.766769749996</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>17310.467121972219</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>12391.600378027781</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>44927</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>44958</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -2113,1145 +2186,1274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="23.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="5" customWidth="1"/>
+    <col min="11" max="12" width="24.33203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="4">
         <v>0.61</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>62.111111111111114</v>
       </c>
-      <c r="I2" s="8">
-        <v>15</v>
-      </c>
       <c r="J2" s="8">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8">
         <v>75</v>
       </c>
-      <c r="K2" s="8">
-        <v>7771.6388888888887</v>
-      </c>
       <c r="L2" s="8">
-        <v>3972.5555555555557</v>
+        <v>9</v>
       </c>
       <c r="M2" s="8">
         <v>13136.888888888889</v>
       </c>
       <c r="N2" s="8">
+        <v>11744.194444444445</v>
+      </c>
+      <c r="O2" s="8">
         <v>24881.083333333332</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>0.62</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>62.111111111111114</v>
       </c>
-      <c r="I3" s="8">
-        <v>15</v>
-      </c>
       <c r="J3" s="8">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8">
         <v>75</v>
       </c>
-      <c r="K3" s="8">
-        <v>5660</v>
-      </c>
       <c r="L3" s="8">
-        <v>3773.3333333333335</v>
+        <v>9</v>
       </c>
       <c r="M3" s="8">
         <v>11430.527777777777</v>
       </c>
       <c r="N3" s="8">
+        <v>9433.3333333333339</v>
+      </c>
+      <c r="O3" s="8">
         <v>20863.861111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4">
         <v>0.39</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>99.305555555555557</v>
       </c>
-      <c r="I4" s="8">
-        <v>15</v>
-      </c>
       <c r="J4" s="8">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8">
         <v>75</v>
       </c>
-      <c r="K4" s="8">
-        <v>5299.8611111111113</v>
-      </c>
       <c r="L4" s="8">
-        <v>3533.2222222222222</v>
+        <v>9</v>
       </c>
       <c r="M4" s="8">
         <v>9742.6111111111113</v>
       </c>
       <c r="N4" s="8">
+        <v>8833.0833333333339</v>
+      </c>
+      <c r="O4" s="8">
         <v>18575.694444444445</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>0.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>246.05555555555554</v>
       </c>
-      <c r="I5" s="8">
-        <v>15</v>
-      </c>
       <c r="J5" s="8">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8">
         <v>75</v>
       </c>
-      <c r="K5" s="8">
-        <v>11300.75</v>
-      </c>
       <c r="L5" s="8">
-        <v>7533.833333333333</v>
+        <v>9</v>
       </c>
       <c r="M5" s="8">
         <v>15043.805555555555</v>
       </c>
       <c r="N5" s="8">
+        <v>18834.583333333332</v>
+      </c>
+      <c r="O5" s="8">
         <v>33878.388888888891</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="4">
         <v>0.47</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>144.92038888888888</v>
       </c>
-      <c r="I6" s="8">
-        <v>15</v>
-      </c>
       <c r="J6" s="8">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8">
         <v>75</v>
       </c>
-      <c r="K6" s="8">
-        <v>5555.0099999999993</v>
-      </c>
       <c r="L6" s="8">
-        <v>3703.3399999999997</v>
+        <v>9</v>
       </c>
       <c r="M6" s="8">
         <v>8546.1691666666666</v>
       </c>
       <c r="N6" s="8">
+        <v>9258.3499999999985</v>
+      </c>
+      <c r="O6" s="8">
         <v>17804.519166666665</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="4">
         <v>0.33</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>118.45822222222222</v>
       </c>
-      <c r="I7" s="8">
-        <v>15</v>
-      </c>
       <c r="J7" s="8">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8">
         <v>75</v>
       </c>
-      <c r="K7" s="8">
-        <v>2821.9919444444445</v>
-      </c>
       <c r="L7" s="8">
-        <v>1881.3280555555555</v>
+        <v>9</v>
       </c>
       <c r="M7" s="8">
         <v>7171.4191666666666</v>
       </c>
       <c r="N7" s="8">
+        <v>4703.32</v>
+      </c>
+      <c r="O7" s="8">
         <v>11874.739166666666</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="4">
         <v>0.67</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>46.761375416666667</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>17</v>
       </c>
-      <c r="J8" s="8">
+      <c r="K8" s="8">
         <v>75</v>
       </c>
-      <c r="K8" s="8">
-        <v>6345.9894444444444</v>
-      </c>
       <c r="L8" s="8">
-        <v>4230.6597222222226</v>
+        <v>9</v>
       </c>
       <c r="M8" s="8">
         <v>15864.97388888889</v>
       </c>
       <c r="N8" s="8">
+        <v>10576.649166666666</v>
+      </c>
+      <c r="O8" s="8">
         <v>26441.623055555556</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="4">
         <v>0.49</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>149.96791666666667</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>17</v>
       </c>
-      <c r="J9" s="8">
+      <c r="K9" s="8">
         <v>77</v>
       </c>
-      <c r="K9" s="8">
-        <v>5398.0031388888892</v>
-      </c>
       <c r="L9" s="8">
-        <v>3598.6686111111112</v>
+        <v>9</v>
       </c>
       <c r="M9" s="8">
         <v>11925.820833333333</v>
       </c>
       <c r="N9" s="8">
+        <v>8996.6717500000013</v>
+      </c>
+      <c r="O9" s="8">
         <v>20922.492583333333</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="4">
         <v>0.51</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>170.24083333333334</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>17</v>
       </c>
-      <c r="J10" s="8">
+      <c r="K10" s="8">
         <v>77</v>
       </c>
-      <c r="K10" s="8">
-        <v>5495.2106666666668</v>
-      </c>
       <c r="L10" s="8">
-        <v>3663.4737777777782</v>
+        <v>9</v>
       </c>
       <c r="M10" s="8">
         <v>13738.026666666667</v>
       </c>
       <c r="N10" s="8">
+        <v>9158.684444444445</v>
+      </c>
+      <c r="O10" s="8">
         <v>22896.711111111115</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="4">
         <v>0.4</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>176.07463058333332</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>17</v>
       </c>
-      <c r="J11" s="8">
+      <c r="K11" s="8">
         <v>77</v>
       </c>
-      <c r="K11" s="8">
-        <v>3969.1485638888894</v>
-      </c>
       <c r="L11" s="8">
-        <v>2646.0990422222221</v>
+        <v>9</v>
       </c>
       <c r="M11" s="8">
         <v>7765.7254499999999</v>
       </c>
       <c r="N11" s="8">
+        <v>6615.247606111112</v>
+      </c>
+      <c r="O11" s="8">
         <v>14380.973056111112</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>176.07463058333332</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>17</v>
       </c>
-      <c r="J12" s="8">
+      <c r="K12" s="8">
         <v>77</v>
       </c>
-      <c r="K12" s="8">
-        <v>5675.9397222222215</v>
-      </c>
       <c r="L12" s="8">
-        <v>3783.9597222222219</v>
+        <v>9</v>
       </c>
       <c r="M12" s="8">
         <v>14796.252777777778</v>
       </c>
       <c r="N12" s="8">
+        <v>9459.8994444444434</v>
+      </c>
+      <c r="O12" s="8">
         <v>24256.152222222223</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4">
         <v>0.79</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>196.63585922222222</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>17</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>77</v>
       </c>
-      <c r="K13" s="8">
-        <v>8197.7705555555549</v>
-      </c>
       <c r="L13" s="8">
-        <v>5465.1805555555557</v>
+        <v>9</v>
       </c>
       <c r="M13" s="8">
         <v>16039.116388888888</v>
       </c>
       <c r="N13" s="8">
+        <v>13662.95111111111</v>
+      </c>
+      <c r="O13" s="8">
         <v>29702.067499999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4">
         <v>0.81</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>277.43523555555555</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>19</v>
       </c>
-      <c r="J14" s="8">
-        <v>79</v>
-      </c>
       <c r="K14" s="8">
-        <v>11362.223050000001</v>
+        <v>80</v>
       </c>
       <c r="L14" s="8">
-        <v>4926.2308388888887</v>
+        <v>9</v>
       </c>
       <c r="M14" s="8">
         <v>18609.989444444444</v>
       </c>
       <c r="N14" s="8">
+        <v>16288.453888888889</v>
+      </c>
+      <c r="O14" s="8">
         <v>34898.443333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4">
         <v>0.82</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>583.33333333333337</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>19</v>
       </c>
-      <c r="J15" s="8">
-        <v>79</v>
-      </c>
       <c r="K15" s="8">
-        <v>6112.6362361111114</v>
+        <v>80</v>
       </c>
       <c r="L15" s="8">
-        <v>4075.0908250000002</v>
+        <v>9</v>
       </c>
       <c r="M15" s="8">
         <v>16622.081111111111</v>
       </c>
       <c r="N15" s="8">
+        <v>10187.727061111113</v>
+      </c>
+      <c r="O15" s="8">
         <v>26809.808172222223</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4">
         <v>0.73</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>189.90263766666666</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>19</v>
       </c>
-      <c r="J16" s="8">
-        <v>79</v>
-      </c>
       <c r="K16" s="8">
-        <v>7636.8269341522582</v>
+        <v>80</v>
       </c>
       <c r="L16" s="8">
-        <v>5603.8833169390737</v>
+        <v>9</v>
       </c>
       <c r="M16" s="8">
         <v>21306.423360019777</v>
       </c>
       <c r="N16" s="8">
+        <v>13240.710251091332</v>
+      </c>
+      <c r="O16" s="8">
         <v>34547.133611111116</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4">
         <v>0.78</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>339.38964222222216</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>19</v>
       </c>
-      <c r="J17" s="8">
-        <v>79</v>
-      </c>
       <c r="K17" s="8">
-        <v>10182.808819444444</v>
+        <v>80</v>
       </c>
       <c r="L17" s="8">
-        <v>6788.5391666666665</v>
+        <v>9</v>
       </c>
       <c r="M17" s="8">
         <v>17039.369466666667</v>
       </c>
       <c r="N17" s="8">
+        <v>16971.347986111112</v>
+      </c>
+      <c r="O17" s="8">
         <v>34010.717452777775</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="4">
         <v>0.6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>366.89441874999994</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>19</v>
       </c>
-      <c r="J18" s="8">
-        <v>79</v>
-      </c>
       <c r="K18" s="8">
-        <v>7338.333333333333</v>
+        <v>80</v>
       </c>
       <c r="L18" s="8">
-        <v>5283.6402777777776</v>
+        <v>9</v>
       </c>
       <c r="M18" s="8">
         <v>16731.527777777777</v>
       </c>
       <c r="N18" s="8">
+        <v>12621.973611111111</v>
+      </c>
+      <c r="O18" s="8">
         <v>29353.50138888889</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="4">
         <v>0.52</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="C19" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>289.95980819444441</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>19</v>
       </c>
-      <c r="J19" s="8">
-        <v>79</v>
-      </c>
       <c r="K19" s="8">
-        <v>6458.8563888888884</v>
+        <v>80</v>
       </c>
       <c r="L19" s="8">
-        <v>4085.951111111111</v>
+        <v>9</v>
       </c>
       <c r="M19" s="8">
         <v>15332.020833333334</v>
       </c>
       <c r="N19" s="8">
+        <v>10544.807499999999</v>
+      </c>
+      <c r="O19" s="8">
         <v>25876.828333333331</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4">
         <v>0.83</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>19</v>
       </c>
-      <c r="J20" s="8">
-        <v>79</v>
-      </c>
       <c r="K20" s="8">
-        <v>7797.3772222222224</v>
+        <v>80</v>
       </c>
       <c r="L20" s="8">
-        <v>5928.2080555555549</v>
+        <v>9</v>
       </c>
       <c r="M20" s="8">
         <v>20746.446944444444</v>
       </c>
       <c r="N20" s="8">
+        <v>13725.585277777776</v>
+      </c>
+      <c r="O20" s="8">
         <v>34472.032222222217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2">
         <v>0.62</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>20</v>
       </c>
-      <c r="J21" s="8">
-        <v>80</v>
-      </c>
-      <c r="K21" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>5000</v>
+      <c r="K21" s="8">
+        <v>84</v>
+      </c>
+      <c r="L21" s="8">
+        <v>9</v>
       </c>
       <c r="M21" s="3">
         <v>17000</v>
       </c>
       <c r="N21" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O21" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12">
         <v>0.7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="3">
         <v>4</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>20</v>
       </c>
-      <c r="J22" s="8">
-        <v>80</v>
-      </c>
       <c r="K22" s="8">
-        <f>K10*1.07</f>
-        <v>5879.8754133333341</v>
+        <v>84</v>
       </c>
       <c r="L22" s="8">
-        <f>L10*1.07</f>
-        <v>3919.916942222223</v>
+        <v>9</v>
       </c>
       <c r="M22" s="8">
         <f>M10*1.07</f>
         <v>14699.688533333334</v>
       </c>
       <c r="N22" s="8">
-        <f>N10*1.07</f>
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="O22" s="8">
+        <f>O10*1.07</f>
         <v>24499.480888888895</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12">
         <v>0.4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="C23" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>20</v>
       </c>
-      <c r="J23" s="8">
-        <v>80</v>
-      </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23:N25" si="0">K11*1.07</f>
-        <v>4246.9889633611119</v>
+        <v>84</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="0"/>
-        <v>2831.3259751777778</v>
+        <v>9</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="0"/>
+        <f>M11*1.07</f>
         <v>8309.3262315000011</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="0"/>
+        <v>7078.3149385388897</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" ref="O23" si="0">O11*1.07</f>
         <v>15387.641170038891</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="J24" s="8">
+        <v>20</v>
+      </c>
+      <c r="K24" s="8">
+        <v>84</v>
+      </c>
+      <c r="L24" s="8">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8">
+        <f>M12*1.1</f>
+        <v>16275.878055555557</v>
+      </c>
+      <c r="N24" s="8">
+        <v>10405.889388888889</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" ref="O24:O25" si="1">O12*1.1</f>
+        <v>26681.767444444446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B25" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H25" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I25" s="8">
         <v>319.48371291666666</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J25" s="8">
         <v>20</v>
       </c>
-      <c r="J24" s="8">
-        <v>80</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="0"/>
-        <v>6073.2555027777771</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="0"/>
-        <v>4048.8369027777776</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="0"/>
-        <v>15831.990472222224</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="0"/>
-        <v>25954.082877777779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5</v>
-      </c>
-      <c r="H25" s="8">
-        <v>319.48371291666666</v>
-      </c>
-      <c r="I25" s="8">
-        <v>20</v>
-      </c>
-      <c r="J25" s="8">
-        <v>80</v>
-      </c>
       <c r="K25" s="8">
-        <f t="shared" si="0"/>
-        <v>8771.6144944444441</v>
+        <v>84</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="0"/>
-        <v>5847.7431944444452</v>
+        <v>9</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="0"/>
-        <v>17161.85453611111</v>
+        <f>M13*1.1</f>
+        <v>17643.028027777778</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="0"/>
-        <v>31781.212224999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>15029.246222222224</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>32672.274249999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M42" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FCAF9-6589-FC4F-AE2A-3762CB976694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC23A0AC-B8B2-F548-B156-E804F64A8A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="6380" yWindow="500" windowWidth="18620" windowHeight="13140" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -177,9 +177,6 @@
     <t>2022-12</t>
   </si>
   <si>
-    <t>Winter North</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -259,6 +256,15 @@
   </si>
   <si>
     <t>Average Price F&amp;B</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2189,7 +2195,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -2214,43 +2220,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>4</v>
@@ -2270,13 +2276,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -2317,13 +2323,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -2364,13 +2370,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -2411,13 +2417,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -2458,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2505,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -2552,13 +2558,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -2599,13 +2605,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2646,13 +2652,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2693,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -2740,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H12" s="3">
         <v>3</v>
@@ -2787,13 +2793,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3">
         <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="3">
         <v>3</v>
@@ -2822,7 +2828,7 @@
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4">
         <v>0.81</v>
@@ -2834,13 +2840,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3">
         <v>4</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4">
         <v>0.82</v>
@@ -2881,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
@@ -2916,7 +2922,7 @@
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4">
         <v>0.73</v>
@@ -2928,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H16" s="3">
         <v>4</v>
@@ -2963,7 +2969,7 @@
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4">
         <v>0.78</v>
@@ -2975,13 +2981,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="3">
         <v>4</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4">
         <v>0.6</v>
@@ -3022,13 +3028,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3">
         <v>4</v>
@@ -3057,7 +3063,7 @@
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4">
         <v>0.52</v>
@@ -3069,13 +3075,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3">
         <v>4</v>
@@ -3104,7 +3110,7 @@
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4">
         <v>0.83</v>
@@ -3116,13 +3122,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
         <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3">
         <v>4</v>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2">
         <v>0.62</v>
@@ -3163,13 +3169,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="3">
         <v>4</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12">
         <v>0.7</v>
@@ -3210,13 +3216,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="3">
         <v>4</v>
@@ -3247,7 +3253,7 @@
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12">
         <v>0.4</v>
@@ -3259,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3">
         <v>4</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12">
         <v>0.63</v>
@@ -3308,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H24" s="3">
         <v>5</v>
@@ -3345,7 +3351,7 @@
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="12">
         <v>0.84</v>
@@ -3357,13 +3363,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3">
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="3">
         <v>5</v>
@@ -3458,5 +3464,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC23A0AC-B8B2-F548-B156-E804F64A8A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D29CD-A7E7-CA42-A260-DED2A2D40AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="500" windowWidth="18620" windowHeight="13140" activeTab="1" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue" sheetId="2" r:id="rId2"/>
+    <sheet name="Rooms Revenue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -2194,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3466,4 +3467,910 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="I2" s="8">
+        <v>75</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8">
+        <v>13136.888888888889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="I3" s="8">
+        <v>75</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8">
+        <v>11430.527777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="I4" s="8">
+        <v>75</v>
+      </c>
+      <c r="J4" s="8">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9742.6111111111113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>246.05555555555554</v>
+      </c>
+      <c r="I5" s="8">
+        <v>75</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8">
+        <v>15043.805555555555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>144.92038888888888</v>
+      </c>
+      <c r="I6" s="8">
+        <v>75</v>
+      </c>
+      <c r="J6" s="8">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8546.1691666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>118.45822222222222</v>
+      </c>
+      <c r="I7" s="8">
+        <v>75</v>
+      </c>
+      <c r="J7" s="8">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8">
+        <v>7171.4191666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>46.761375416666667</v>
+      </c>
+      <c r="I8" s="8">
+        <v>75</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9</v>
+      </c>
+      <c r="K8" s="8">
+        <v>15864.97388888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>149.96791666666667</v>
+      </c>
+      <c r="I9" s="8">
+        <v>77</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8">
+        <v>11925.820833333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>170.24083333333334</v>
+      </c>
+      <c r="I10" s="8">
+        <v>77</v>
+      </c>
+      <c r="J10" s="8">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8">
+        <v>13738.026666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="I11" s="8">
+        <v>77</v>
+      </c>
+      <c r="J11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7765.7254499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="I12" s="8">
+        <v>77</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9</v>
+      </c>
+      <c r="K12" s="8">
+        <v>14796.252777777778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>196.63585922222222</v>
+      </c>
+      <c r="I13" s="8">
+        <v>77</v>
+      </c>
+      <c r="J13" s="8">
+        <v>9</v>
+      </c>
+      <c r="K13" s="8">
+        <v>16039.116388888888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="I14" s="8">
+        <v>80</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9</v>
+      </c>
+      <c r="K14" s="8">
+        <v>18609.989444444444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="I15" s="8">
+        <v>80</v>
+      </c>
+      <c r="J15" s="8">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8">
+        <v>16622.081111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="I16" s="8">
+        <v>80</v>
+      </c>
+      <c r="J16" s="8">
+        <v>9</v>
+      </c>
+      <c r="K16" s="8">
+        <v>21306.423360019777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="I17" s="8">
+        <v>80</v>
+      </c>
+      <c r="J17" s="8">
+        <v>9</v>
+      </c>
+      <c r="K17" s="8">
+        <v>17039.369466666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="I18" s="8">
+        <v>80</v>
+      </c>
+      <c r="J18" s="8">
+        <v>9</v>
+      </c>
+      <c r="K18" s="8">
+        <v>16731.527777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="I19" s="8">
+        <v>80</v>
+      </c>
+      <c r="J19" s="8">
+        <v>9</v>
+      </c>
+      <c r="K19" s="8">
+        <v>15332.020833333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I20" s="8">
+        <v>80</v>
+      </c>
+      <c r="J20" s="8">
+        <v>9</v>
+      </c>
+      <c r="K20" s="8">
+        <v>20746.446944444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I21" s="8">
+        <v>84</v>
+      </c>
+      <c r="J21" s="8">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I22" s="8">
+        <v>84</v>
+      </c>
+      <c r="J22" s="8">
+        <v>9</v>
+      </c>
+      <c r="K22" s="8">
+        <f>K10*1.07</f>
+        <v>14699.688533333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I23" s="8">
+        <v>84</v>
+      </c>
+      <c r="J23" s="8">
+        <v>9</v>
+      </c>
+      <c r="K23" s="8">
+        <f>K11*1.07</f>
+        <v>8309.3262315000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I24" s="8">
+        <v>84</v>
+      </c>
+      <c r="J24" s="8">
+        <v>9</v>
+      </c>
+      <c r="K24" s="8">
+        <f>K12*1.1</f>
+        <v>16275.878055555557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I25" s="8">
+        <v>84</v>
+      </c>
+      <c r="J25" s="8">
+        <v>9</v>
+      </c>
+      <c r="K25" s="8">
+        <f>K13*1.1</f>
+        <v>17643.028027777778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D29CD-A7E7-CA42-A260-DED2A2D40AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7D517-3BD2-1F4B-BAAB-52018908D147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="-2040" yWindow="740" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,78 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>2025-11</t>
+  </si>
+  <si>
+    <t>2025-12</t>
   </si>
 </sst>
 </file>
@@ -275,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,10 +405,60 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -355,12 +477,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -375,7 +512,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +850,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2195,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+    <sheetView topLeftCell="G2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3471,14 +3627,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="24" style="15" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
@@ -3489,888 +3647,2004 @@
     <col min="9" max="9" width="24.83203125" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="17" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="31">
+        <v>1</v>
+      </c>
+      <c r="H2" s="31">
+        <v>10</v>
+      </c>
+      <c r="I2" s="31">
+        <v>70</v>
+      </c>
+      <c r="J2" s="31">
+        <v>9</v>
+      </c>
+      <c r="K2" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="31">
+        <v>10</v>
+      </c>
+      <c r="I3" s="31">
+        <v>70</v>
+      </c>
+      <c r="J3" s="31">
+        <v>9</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
+        <v>10</v>
+      </c>
+      <c r="I4" s="31">
+        <v>70</v>
+      </c>
+      <c r="J4" s="31">
+        <v>9</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B5" s="18">
         <v>0.61</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C5" s="19">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E5" s="19">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H5" s="20">
         <v>62.111111111111114</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I5" s="20">
         <v>75</v>
       </c>
-      <c r="J2" s="8">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J5" s="20">
+        <v>9</v>
+      </c>
+      <c r="K5" s="20">
         <v>13136.888888888889</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B6" s="18">
         <v>0.62</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G6" s="19">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H6" s="20">
         <v>62.111111111111114</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I6" s="20">
         <v>75</v>
       </c>
-      <c r="J3" s="8">
-        <v>9</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J6" s="20">
+        <v>9</v>
+      </c>
+      <c r="K6" s="20">
         <v>11430.527777777777</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B7" s="18">
         <v>0.39</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H7" s="20">
         <v>99.305555555555557</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I7" s="20">
         <v>75</v>
       </c>
-      <c r="J4" s="8">
-        <v>9</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J7" s="20">
+        <v>9</v>
+      </c>
+      <c r="K7" s="20">
         <v>9742.6111111111113</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B8" s="18">
         <v>0.7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H8" s="20">
         <v>246.05555555555554</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I8" s="20">
         <v>75</v>
       </c>
-      <c r="J5" s="8">
-        <v>9</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J8" s="20">
+        <v>9</v>
+      </c>
+      <c r="K8" s="20">
         <v>15043.805555555555</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B9" s="18">
         <v>0.47</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H9" s="20">
         <v>144.92038888888888</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I9" s="20">
         <v>75</v>
       </c>
-      <c r="J6" s="8">
-        <v>9</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J9" s="20">
+        <v>9</v>
+      </c>
+      <c r="K9" s="20">
         <v>8546.1691666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B10" s="18">
         <v>0.33</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G10" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H10" s="20">
         <v>118.45822222222222</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I10" s="20">
         <v>75</v>
       </c>
-      <c r="J7" s="8">
-        <v>9</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J10" s="20">
+        <v>9</v>
+      </c>
+      <c r="K10" s="20">
         <v>7171.4191666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B11" s="18">
         <v>0.67</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C11" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E11" s="19">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H11" s="20">
         <v>46.761375416666667</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I11" s="20">
         <v>75</v>
       </c>
-      <c r="J8" s="8">
-        <v>9</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="J11" s="20">
+        <v>9</v>
+      </c>
+      <c r="K11" s="20">
         <v>15864.97388888889</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B12" s="18">
         <v>0.49</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G12" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H12" s="20">
         <v>149.96791666666667</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I12" s="20">
         <v>77</v>
       </c>
-      <c r="J9" s="8">
-        <v>9</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J12" s="20">
+        <v>9</v>
+      </c>
+      <c r="K12" s="20">
         <v>11925.820833333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B13" s="18">
         <v>0.51</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C13" s="19">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H13" s="20">
         <v>170.24083333333334</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I13" s="20">
         <v>77</v>
       </c>
-      <c r="J10" s="8">
-        <v>9</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J13" s="20">
+        <v>9</v>
+      </c>
+      <c r="K13" s="20">
         <v>13738.026666666667</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B14" s="18">
         <v>0.4</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G14" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H14" s="20">
         <v>176.07463058333332</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I14" s="20">
         <v>77</v>
       </c>
-      <c r="J11" s="8">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J14" s="20">
+        <v>9</v>
+      </c>
+      <c r="K14" s="20">
         <v>7765.7254499999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B15" s="18">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G15" s="19">
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H15" s="20">
         <v>176.07463058333332</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I15" s="20">
         <v>77</v>
       </c>
-      <c r="J12" s="8">
-        <v>9</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J15" s="20">
+        <v>9</v>
+      </c>
+      <c r="K15" s="20">
         <v>14796.252777777778</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B16" s="18">
         <v>0.79</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C16" s="19">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E16" s="19">
         <v>10</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G16" s="19">
         <v>3</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H16" s="20">
         <v>196.63585922222222</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I16" s="20">
         <v>77</v>
       </c>
-      <c r="J13" s="8">
-        <v>9</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J16" s="20">
+        <v>9</v>
+      </c>
+      <c r="K16" s="20">
         <v>16039.116388888888</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B17" s="18">
         <v>0.81</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C17" s="19">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E17" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G17" s="19">
         <v>4</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H17" s="20">
         <v>277.43523555555555</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I17" s="20">
         <v>80</v>
       </c>
-      <c r="J14" s="8">
-        <v>9</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="J17" s="20">
+        <v>9</v>
+      </c>
+      <c r="K17" s="20">
         <v>18609.989444444444</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B18" s="18">
         <v>0.82</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G18" s="19">
         <v>4</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H18" s="20">
         <v>583.33333333333337</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I18" s="20">
         <v>80</v>
       </c>
-      <c r="J15" s="8">
-        <v>9</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="J18" s="20">
+        <v>9</v>
+      </c>
+      <c r="K18" s="20">
         <v>16622.081111111111</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B19" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="20">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="I19" s="20">
+        <v>83</v>
+      </c>
+      <c r="J19" s="20">
+        <v>9</v>
+      </c>
+      <c r="K19" s="20">
+        <v>21306.423360019777</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+    </row>
+    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="18">
         <v>0.73</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C20" s="19">
+        <v>5</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G20" s="19">
         <v>4</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H20" s="20">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="I20" s="20">
+        <v>80</v>
+      </c>
+      <c r="J20" s="20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="20">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4</v>
+      </c>
+      <c r="H21" s="20">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="I21" s="20">
+        <v>80</v>
+      </c>
+      <c r="J21" s="20">
+        <v>9</v>
+      </c>
+      <c r="K21" s="20">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4</v>
+      </c>
+      <c r="H22" s="20">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="I22" s="20">
+        <v>80</v>
+      </c>
+      <c r="J22" s="20">
+        <v>9</v>
+      </c>
+      <c r="K22" s="20">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="19">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4</v>
+      </c>
+      <c r="H23" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I23" s="20">
+        <v>80</v>
+      </c>
+      <c r="J23" s="20">
+        <v>9</v>
+      </c>
+      <c r="K23" s="20">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="19">
+        <v>10</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="19">
+        <v>4</v>
+      </c>
+      <c r="H24" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I24" s="20">
+        <v>84</v>
+      </c>
+      <c r="J24" s="20">
+        <v>9</v>
+      </c>
+      <c r="K24" s="19">
+        <v>17000</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+    </row>
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="19">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="19">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I25" s="20">
+        <v>84</v>
+      </c>
+      <c r="J25" s="20">
+        <v>9</v>
+      </c>
+      <c r="K25" s="20">
+        <f>K13*1.07</f>
+        <v>14699.688533333334</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="19">
+        <v>4</v>
+      </c>
+      <c r="H26" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I26" s="20">
+        <v>84</v>
+      </c>
+      <c r="J26" s="20">
+        <v>9</v>
+      </c>
+      <c r="K26" s="20">
+        <f>K14*1.07</f>
+        <v>8309.3262315000011</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="22">
+        <v>0.63</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I27" s="20">
+        <v>84</v>
+      </c>
+      <c r="J27" s="20">
+        <v>9</v>
+      </c>
+      <c r="K27" s="20">
+        <f>K15*1.1</f>
+        <v>16275.878055555557</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+    </row>
+    <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="19">
+        <v>10</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I28" s="20">
+        <v>84</v>
+      </c>
+      <c r="J28" s="20">
+        <v>9</v>
+      </c>
+      <c r="K28" s="20">
+        <f>K16*1.1</f>
+        <v>17643.028027777778</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="C29" s="19">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="19">
+        <v>7</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="19">
+        <v>4</v>
+      </c>
+      <c r="H29" s="20">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="I29" s="20">
+        <v>85</v>
+      </c>
+      <c r="J29" s="20">
+        <v>9</v>
+      </c>
+      <c r="K29" s="20">
+        <f>(B29*K17)/B17</f>
+        <v>19069.495356652948</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="19">
+        <v>4</v>
+      </c>
+      <c r="H30" s="20">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="I30" s="20">
+        <v>85</v>
+      </c>
+      <c r="J30" s="20">
+        <v>9</v>
+      </c>
+      <c r="K30" s="20">
+        <f>(B30*K18)/B18</f>
+        <v>17027.497723577235</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+    </row>
+    <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="19">
+        <v>4</v>
+      </c>
+      <c r="H31" s="20">
         <v>189.90263766666666</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I31" s="20">
+        <v>85</v>
+      </c>
+      <c r="J31" s="20">
+        <v>9</v>
+      </c>
+      <c r="K31" s="20">
+        <f>(B31*K19)/B19</f>
+        <v>20486.945538480555</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="C32" s="19">
+        <v>5</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="19">
+        <v>4</v>
+      </c>
+      <c r="H32" s="20">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="I32" s="20">
+        <v>85</v>
+      </c>
+      <c r="J32" s="20">
+        <v>9</v>
+      </c>
+      <c r="K32" s="20">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="8">
-        <v>9</v>
-      </c>
-      <c r="K16" s="8">
-        <v>21306.423360019777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="B33" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="19">
+        <v>4</v>
+      </c>
+      <c r="H33" s="20">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="I33" s="20">
+        <v>85</v>
+      </c>
+      <c r="J33" s="20">
+        <v>9</v>
+      </c>
+      <c r="K33" s="20">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="19">
+        <v>4</v>
+      </c>
+      <c r="H34" s="20">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="I34" s="20">
+        <v>85</v>
+      </c>
+      <c r="J34" s="20">
+        <v>9</v>
+      </c>
+      <c r="K34" s="20">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="18">
+        <v>0.83</v>
+      </c>
+      <c r="C35" s="19">
+        <v>3</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="19">
+        <v>20</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="19">
+        <v>4</v>
+      </c>
+      <c r="H35" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I35" s="20">
+        <v>85</v>
+      </c>
+      <c r="J35" s="20">
+        <v>9</v>
+      </c>
+      <c r="K35" s="20">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="C36" s="19">
+        <v>2</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="19">
+        <v>10</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="19">
+        <v>4</v>
+      </c>
+      <c r="H36" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I36" s="20">
+        <v>85</v>
+      </c>
+      <c r="J36" s="20">
+        <v>9</v>
+      </c>
+      <c r="K36" s="19">
+        <v>17000</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="19">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="19">
+        <v>4</v>
+      </c>
+      <c r="H37" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I37" s="20">
+        <v>85</v>
+      </c>
+      <c r="J37" s="20">
+        <v>9</v>
+      </c>
+      <c r="K37" s="20">
+        <f>K25*1.07</f>
+        <v>15728.666730666668</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="19">
+        <v>4</v>
+      </c>
+      <c r="H38" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I38" s="20">
+        <v>85</v>
+      </c>
+      <c r="J38" s="20">
+        <v>9</v>
+      </c>
+      <c r="K38" s="20">
+        <f>K26*1.07</f>
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="19">
+        <v>5</v>
+      </c>
+      <c r="H39" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I39" s="20">
+        <v>86</v>
+      </c>
+      <c r="J39" s="20">
+        <v>9</v>
+      </c>
+      <c r="K39" s="20">
+        <f>(B39*K27)/B27</f>
+        <v>16792.572597001767</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+    </row>
+    <row r="40" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="C40" s="19">
+        <v>5</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="19">
+        <v>10</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="19">
+        <v>5</v>
+      </c>
+      <c r="H40" s="20">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="I40" s="20">
+        <v>86</v>
+      </c>
+      <c r="J40" s="20">
+        <v>9</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" ref="K40:K52" si="0">(B40*K28)/B28</f>
+        <v>18063.10012367725</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="25">
+        <v>0.86</v>
+      </c>
+      <c r="C41" s="19">
+        <v>3</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="19">
+        <v>7</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="19">
+        <v>4</v>
+      </c>
+      <c r="H41" s="20">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="I41" s="20">
+        <v>86</v>
+      </c>
+      <c r="J41" s="20">
+        <v>9</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="0"/>
+        <v>19758.754224965702</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="19">
+        <v>4</v>
+      </c>
+      <c r="H42" s="20">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="I42" s="20">
+        <v>86</v>
+      </c>
+      <c r="J42" s="20">
+        <v>9</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" si="0"/>
+        <v>17635.622642276423</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="25">
         <v>0.78</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="19">
+        <v>4</v>
+      </c>
+      <c r="H43" s="20">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="I43" s="20">
+        <v>86</v>
+      </c>
+      <c r="J43" s="20">
+        <v>9</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" si="0"/>
+        <v>21306.42336001978</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="26">
+        <v>0.78</v>
+      </c>
+      <c r="C44" s="19">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D44" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G44" s="19">
         <v>4</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H44" s="20">
         <v>339.38964222222216</v>
       </c>
-      <c r="I17" s="8">
-        <v>80</v>
-      </c>
-      <c r="J17" s="8">
-        <v>9</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="I44" s="20">
+        <v>86</v>
+      </c>
+      <c r="J44" s="20">
+        <v>9</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="0"/>
         <v>17039.369466666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="26">
         <v>0.6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C45" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G45" s="19">
         <v>4</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H45" s="20">
         <v>366.89441874999994</v>
       </c>
-      <c r="I18" s="8">
-        <v>80</v>
-      </c>
-      <c r="J18" s="8">
-        <v>9</v>
-      </c>
-      <c r="K18" s="8">
-        <v>16731.527777777777</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="I45" s="20">
+        <v>86</v>
+      </c>
+      <c r="J45" s="20">
+        <v>9</v>
+      </c>
+      <c r="K45" s="20">
+        <f>(B45*K49)/B48</f>
+        <v>15221.290384516129</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+    </row>
+    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G46" s="19">
         <v>4</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H46" s="20">
         <v>289.95980819444441</v>
       </c>
-      <c r="I19" s="8">
-        <v>80</v>
-      </c>
-      <c r="J19" s="8">
-        <v>9</v>
-      </c>
-      <c r="K19" s="8">
-        <v>15332.020833333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="I46" s="20">
+        <v>86</v>
+      </c>
+      <c r="J46" s="20">
+        <v>9</v>
+      </c>
+      <c r="K46" s="20">
+        <f>(B46*K45)/B45</f>
+        <v>14460.225865290322</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="26">
         <v>0.83</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C47" s="19">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D47" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E47" s="19">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F47" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G47" s="19">
         <v>4</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H47" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I20" s="8">
-        <v>80</v>
-      </c>
-      <c r="J20" s="8">
-        <v>9</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="I47" s="20">
+        <v>86</v>
+      </c>
+      <c r="J47" s="20">
+        <v>9</v>
+      </c>
+      <c r="K47" s="20">
+        <f t="shared" si="0"/>
         <v>20746.446944444444</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="21">
         <v>0.62</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C48" s="19">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D48" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E48" s="19">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F48" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G48" s="19">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H48" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I21" s="8">
-        <v>84</v>
-      </c>
-      <c r="J21" s="8">
-        <v>9</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I48" s="20">
+        <v>86</v>
+      </c>
+      <c r="J48" s="20">
+        <v>9</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="27">
         <v>0.7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C49" s="19">
         <v>3</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E49" s="19">
+        <v>0</v>
+      </c>
+      <c r="F49" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G49" s="19">
         <v>4</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H49" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I22" s="8">
-        <v>84</v>
-      </c>
-      <c r="J22" s="8">
-        <v>9</v>
-      </c>
-      <c r="K22" s="8">
-        <f>K10*1.07</f>
-        <v>14699.688533333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="I49" s="20">
+        <v>86</v>
+      </c>
+      <c r="J49" s="20">
+        <v>9</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" si="0"/>
+        <v>15728.666730666668</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="27">
         <v>0.4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G50" s="19">
         <v>4</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H50" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I23" s="8">
-        <v>84</v>
-      </c>
-      <c r="J23" s="8">
-        <v>9</v>
-      </c>
-      <c r="K23" s="8">
-        <f>K11*1.07</f>
-        <v>8309.3262315000011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="I50" s="20">
+        <v>86</v>
+      </c>
+      <c r="J50" s="20">
+        <v>9</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="0"/>
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="28">
+        <v>0.68</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G51" s="19">
         <v>5</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H51" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I24" s="8">
-        <v>84</v>
-      </c>
-      <c r="J24" s="8">
-        <v>9</v>
-      </c>
-      <c r="K24" s="8">
-        <f>K12*1.1</f>
-        <v>16275.878055555557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="I51" s="20">
+        <v>87</v>
+      </c>
+      <c r="J51" s="20">
+        <v>9</v>
+      </c>
+      <c r="K51" s="20">
+        <f>(B51*K50)/B50</f>
+        <v>15114.664415098505</v>
+      </c>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="28">
+        <v>0.89</v>
+      </c>
+      <c r="C52" s="19">
         <v>5</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D52" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E52" s="19">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F52" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G52" s="19">
         <v>5</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H52" s="20">
         <v>319.48371291666666</v>
       </c>
-      <c r="I25" s="8">
-        <v>84</v>
-      </c>
-      <c r="J25" s="8">
-        <v>9</v>
-      </c>
-      <c r="K25" s="8">
-        <f>K13*1.1</f>
-        <v>17643.028027777778</v>
-      </c>
+      <c r="I52" s="20">
+        <v>87</v>
+      </c>
+      <c r="J52" s="20">
+        <v>9</v>
+      </c>
+      <c r="K52" s="20">
+        <f t="shared" si="0"/>
+        <v>18693.208267526457</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7D517-3BD2-1F4B-BAAB-52018908D147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177EDCA-4C33-CD4F-ABBE-A7D8921CE390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2040" yWindow="740" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue" sheetId="2" r:id="rId2"/>
     <sheet name="Rooms Revenue" sheetId="3" r:id="rId3"/>
+    <sheet name="F&amp;B Revenue" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -347,7 +348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,6 +461,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -531,7 +538,16 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:N20"/>
+    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3627,11 +3643,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3647,13 +3663,10 @@
     <col min="9" max="9" width="24.83203125" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
     <col min="17" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3687,11 +3700,8 @@
       <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>61</v>
       </c>
@@ -3726,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>62</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>63</v>
       </c>
@@ -3796,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
@@ -3830,11 +3840,8 @@
       <c r="K5" s="20">
         <v>13136.888888888889</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
@@ -3868,11 +3875,8 @@
       <c r="K6" s="20">
         <v>11430.527777777777</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>36</v>
       </c>
@@ -3906,11 +3910,8 @@
       <c r="K7" s="20">
         <v>9742.6111111111113</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>37</v>
       </c>
@@ -3944,11 +3945,8 @@
       <c r="K8" s="20">
         <v>15043.805555555555</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>38</v>
       </c>
@@ -3982,11 +3980,8 @@
       <c r="K9" s="20">
         <v>8546.1691666666666</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>39</v>
       </c>
@@ -4020,11 +4015,8 @@
       <c r="K10" s="20">
         <v>7171.4191666666666</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>40</v>
       </c>
@@ -4058,11 +4050,8 @@
       <c r="K11" s="20">
         <v>15864.97388888889</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>41</v>
       </c>
@@ -4096,11 +4085,8 @@
       <c r="K12" s="20">
         <v>11925.820833333333</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>42</v>
       </c>
@@ -4134,11 +4120,8 @@
       <c r="K13" s="20">
         <v>13738.026666666667</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>43</v>
       </c>
@@ -4172,11 +4155,8 @@
       <c r="K14" s="20">
         <v>7765.7254499999999</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>44</v>
       </c>
@@ -4210,11 +4190,8 @@
       <c r="K15" s="20">
         <v>14796.252777777778</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>45</v>
       </c>
@@ -4248,11 +4225,8 @@
       <c r="K16" s="20">
         <v>16039.116388888888</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>52</v>
       </c>
@@ -4286,11 +4260,8 @@
       <c r="K17" s="20">
         <v>18609.989444444444</v>
       </c>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>53</v>
       </c>
@@ -4324,11 +4295,8 @@
       <c r="K18" s="20">
         <v>16622.081111111111</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>54</v>
       </c>
@@ -4362,11 +4330,8 @@
       <c r="K19" s="20">
         <v>21306.423360019777</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>55</v>
       </c>
@@ -4400,11 +4365,8 @@
       <c r="K20" s="20">
         <v>17039.369466666667</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>56</v>
       </c>
@@ -4438,11 +4400,8 @@
       <c r="K21" s="20">
         <v>16731.527777777777</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>57</v>
       </c>
@@ -4476,11 +4435,8 @@
       <c r="K22" s="20">
         <v>15332.020833333334</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>58</v>
       </c>
@@ -4514,11 +4470,8 @@
       <c r="K23" s="20">
         <v>20746.446944444444</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>59</v>
       </c>
@@ -4552,11 +4505,8 @@
       <c r="K24" s="19">
         <v>17000</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-    </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>60</v>
       </c>
@@ -4591,11 +4541,8 @@
         <f>K13*1.07</f>
         <v>14699.688533333334</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-    </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>61</v>
       </c>
@@ -4630,11 +4577,8 @@
         <f>K14*1.07</f>
         <v>8309.3262315000011</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-    </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>62</v>
       </c>
@@ -4669,11 +4613,8 @@
         <f>K15*1.1</f>
         <v>16275.878055555557</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>63</v>
       </c>
@@ -4708,11 +4649,8 @@
         <f>K16*1.1</f>
         <v>17643.028027777778</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-    </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>76</v>
       </c>
@@ -4747,11 +4685,8 @@
         <f>(B29*K17)/B17</f>
         <v>19069.495356652948</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>77</v>
       </c>
@@ -4786,11 +4721,8 @@
         <f>(B30*K18)/B18</f>
         <v>17027.497723577235</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>78</v>
       </c>
@@ -4825,11 +4757,8 @@
         <f>(B31*K19)/B19</f>
         <v>20486.945538480555</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-    </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>79</v>
       </c>
@@ -4863,11 +4792,8 @@
       <c r="K32" s="20">
         <v>17039.369466666667</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-    </row>
-    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>80</v>
       </c>
@@ -4901,11 +4827,8 @@
       <c r="K33" s="20">
         <v>16731.527777777777</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>81</v>
       </c>
@@ -4939,11 +4862,8 @@
       <c r="K34" s="20">
         <v>15332.020833333334</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>82</v>
       </c>
@@ -4977,11 +4897,8 @@
       <c r="K35" s="20">
         <v>20746.446944444444</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>83</v>
       </c>
@@ -5015,11 +4932,8 @@
       <c r="K36" s="19">
         <v>17000</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-    </row>
-    <row r="37" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>84</v>
       </c>
@@ -5054,11 +4968,8 @@
         <f>K25*1.07</f>
         <v>15728.666730666668</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-    </row>
-    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>85</v>
       </c>
@@ -5093,11 +5004,8 @@
         <f>K26*1.07</f>
         <v>8890.9790677050023</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-    </row>
-    <row r="39" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>86</v>
       </c>
@@ -5132,11 +5040,8 @@
         <f>(B39*K27)/B27</f>
         <v>16792.572597001767</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>87</v>
       </c>
@@ -5168,14 +5073,11 @@
         <v>9</v>
       </c>
       <c r="K40" s="20">
-        <f t="shared" ref="K40:K52" si="0">(B40*K28)/B28</f>
+        <f>(B40*K28)/B28</f>
         <v>18063.10012367725</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-    </row>
-    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>88</v>
       </c>
@@ -5207,14 +5109,11 @@
         <v>9</v>
       </c>
       <c r="K41" s="20">
-        <f t="shared" si="0"/>
+        <f>(B41*K29)/B29</f>
         <v>19758.754224965702</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>89</v>
       </c>
@@ -5246,14 +5145,11 @@
         <v>9</v>
       </c>
       <c r="K42" s="20">
-        <f t="shared" si="0"/>
+        <f>(B42*K30)/B30</f>
         <v>17635.622642276423</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-    </row>
-    <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>90</v>
       </c>
@@ -5285,14 +5181,11 @@
         <v>9</v>
       </c>
       <c r="K43" s="20">
-        <f t="shared" si="0"/>
+        <f>(B43*K31)/B31</f>
         <v>21306.42336001978</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-    </row>
-    <row r="44" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>91</v>
       </c>
@@ -5324,14 +5217,11 @@
         <v>9</v>
       </c>
       <c r="K44" s="20">
-        <f t="shared" si="0"/>
+        <f>(B44*K32)/B32</f>
         <v>17039.369466666667</v>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-    </row>
-    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>92</v>
       </c>
@@ -5366,11 +5256,8 @@
         <f>(B45*K49)/B48</f>
         <v>15221.290384516129</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-    </row>
-    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>93</v>
       </c>
@@ -5405,11 +5292,8 @@
         <f>(B46*K45)/B45</f>
         <v>14460.225865290322</v>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-    </row>
-    <row r="47" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>94</v>
       </c>
@@ -5441,14 +5325,11 @@
         <v>9</v>
       </c>
       <c r="K47" s="20">
-        <f t="shared" si="0"/>
+        <f>(B47*K35)/B35</f>
         <v>20746.446944444444</v>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-    </row>
-    <row r="48" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
         <v>95</v>
       </c>
@@ -5480,14 +5361,11 @@
         <v>9</v>
       </c>
       <c r="K48" s="20">
-        <f t="shared" si="0"/>
+        <f>(B48*K36)/B36</f>
         <v>17000</v>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-    </row>
-    <row r="49" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>96</v>
       </c>
@@ -5519,14 +5397,11 @@
         <v>9</v>
       </c>
       <c r="K49" s="20">
-        <f t="shared" si="0"/>
+        <f>(B49*K37)/B37</f>
         <v>15728.666730666668</v>
       </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>97</v>
       </c>
@@ -5558,14 +5433,11 @@
         <v>9</v>
       </c>
       <c r="K50" s="20">
-        <f t="shared" si="0"/>
+        <f>(B50*K38)/B38</f>
         <v>8890.9790677050023</v>
       </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-    </row>
-    <row r="51" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>98</v>
       </c>
@@ -5600,11 +5472,8 @@
         <f>(B51*K50)/B50</f>
         <v>15114.664415098505</v>
       </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>99</v>
       </c>
@@ -5636,15 +5505,2044 @@
         <v>9</v>
       </c>
       <c r="K52" s="20">
-        <f t="shared" si="0"/>
+        <f>(B52*K40)/B40</f>
         <v>18693.208267526457</v>
       </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3125D8-EE63-4B43-9AC6-51D16219A8B2}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="32">
+        <v>10</v>
+      </c>
+      <c r="H2" s="32">
+        <v>9</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="37">
+        <v>16</v>
+      </c>
+      <c r="L2" s="35">
+        <f>SUM(J2*$L$5)/$J$5</f>
+        <v>1468.0243055555554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="32">
+        <v>10</v>
+      </c>
+      <c r="H3" s="32">
+        <v>9</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="37">
+        <v>16</v>
+      </c>
+      <c r="L3" s="35">
+        <f t="shared" ref="L3:L4" si="0">SUM(J3*$L$5)/$J$5</f>
+        <v>1468.0243055555554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="32">
+        <v>10</v>
+      </c>
+      <c r="H4" s="32">
+        <v>9</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="37">
+        <v>16</v>
+      </c>
+      <c r="L4" s="32">
+        <f t="shared" si="0"/>
+        <v>1468.0243055555554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0.61</v>
+      </c>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="32">
+        <v>7</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="32">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="H5" s="32">
+        <v>9</v>
+      </c>
+      <c r="I5" s="32">
+        <v>13136.888888888889</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="20">
+        <v>16</v>
+      </c>
+      <c r="L5" s="20">
+        <v>11744.194444444445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="32">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="H6" s="32">
+        <v>9</v>
+      </c>
+      <c r="I6" s="32">
+        <v>11430.527777777777</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="20">
+        <v>16</v>
+      </c>
+      <c r="L6" s="20">
+        <v>9433.3333333333339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0.39</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="32">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="H7" s="32">
+        <v>9</v>
+      </c>
+      <c r="I7" s="32">
+        <v>9742.6111111111113</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K7" s="20">
+        <v>16</v>
+      </c>
+      <c r="L7" s="20">
+        <v>8833.0833333333339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="32">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="32">
+        <v>246.05555555555554</v>
+      </c>
+      <c r="H8" s="32">
+        <v>9</v>
+      </c>
+      <c r="I8" s="32">
+        <v>15043.805555555555</v>
+      </c>
+      <c r="J8" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="20">
+        <v>16</v>
+      </c>
+      <c r="L8" s="20">
+        <v>18834.583333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="32">
+        <v>144.92038888888888</v>
+      </c>
+      <c r="H9" s="32">
+        <v>9</v>
+      </c>
+      <c r="I9" s="32">
+        <v>8546.1691666666666</v>
+      </c>
+      <c r="J9" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="20">
+        <v>16</v>
+      </c>
+      <c r="L9" s="20">
+        <v>9258.3499999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0.33</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="32">
+        <v>118.45822222222222</v>
+      </c>
+      <c r="H10" s="32">
+        <v>9</v>
+      </c>
+      <c r="I10" s="32">
+        <v>7171.4191666666666</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="20">
+        <v>16</v>
+      </c>
+      <c r="L10" s="20">
+        <v>4703.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="34">
+        <v>0.67</v>
+      </c>
+      <c r="C11" s="32">
+        <v>3</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="32">
+        <v>20</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="32">
+        <v>46.761375416666667</v>
+      </c>
+      <c r="H11" s="32">
+        <v>9</v>
+      </c>
+      <c r="I11" s="32">
+        <v>15864.97388888889</v>
+      </c>
+      <c r="J11" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="20">
+        <v>17</v>
+      </c>
+      <c r="L11" s="20">
+        <v>10576.649166666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="32">
+        <v>10</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="32">
+        <v>149.96791666666667</v>
+      </c>
+      <c r="H12" s="32">
+        <v>9</v>
+      </c>
+      <c r="I12" s="32">
+        <v>11925.820833333333</v>
+      </c>
+      <c r="J12" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="20">
+        <v>17</v>
+      </c>
+      <c r="L12" s="20">
+        <v>8996.6717500000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0.51</v>
+      </c>
+      <c r="C13" s="32">
+        <v>3</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="32">
+        <v>170.24083333333334</v>
+      </c>
+      <c r="H13" s="32">
+        <v>9</v>
+      </c>
+      <c r="I13" s="32">
+        <v>13738.026666666667</v>
+      </c>
+      <c r="J13" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="20">
+        <v>17</v>
+      </c>
+      <c r="L13" s="20">
+        <v>9158.684444444445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="32">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="H14" s="32">
+        <v>9</v>
+      </c>
+      <c r="I14" s="32">
+        <v>7765.7254499999999</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="20">
+        <v>17</v>
+      </c>
+      <c r="L14" s="20">
+        <v>6615.247606111112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="34">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="32">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="H15" s="32">
+        <v>9</v>
+      </c>
+      <c r="I15" s="32">
+        <v>14796.252777777778</v>
+      </c>
+      <c r="J15" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="20">
+        <v>17</v>
+      </c>
+      <c r="L15" s="20">
+        <v>9459.8994444444434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="C16" s="32">
+        <v>5</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="32">
+        <v>10</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="32">
+        <v>196.63585922222222</v>
+      </c>
+      <c r="H16" s="32">
+        <v>9</v>
+      </c>
+      <c r="I16" s="32">
+        <v>16039.116388888888</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="20">
+        <v>17</v>
+      </c>
+      <c r="L16" s="20">
+        <v>13662.95111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="34">
+        <v>0.81</v>
+      </c>
+      <c r="C17" s="32">
+        <v>3</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="32">
+        <v>7</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="32">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="H17" s="32">
+        <v>9</v>
+      </c>
+      <c r="I17" s="32">
+        <v>18609.989444444444</v>
+      </c>
+      <c r="J17" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="20">
+        <v>19</v>
+      </c>
+      <c r="L17" s="20">
+        <v>16288.453888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.82</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="32">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="H18" s="32">
+        <v>9</v>
+      </c>
+      <c r="I18" s="32">
+        <v>16622.081111111111</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K18" s="20">
+        <v>19</v>
+      </c>
+      <c r="L18" s="20">
+        <v>10187.727061111113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="32">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="H19" s="32">
+        <v>9</v>
+      </c>
+      <c r="I19" s="32">
+        <v>21306.423360019777</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="20">
+        <v>19</v>
+      </c>
+      <c r="L19" s="20">
+        <v>13240.710251091332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="C20" s="32">
+        <v>5</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="32">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="H20" s="32">
+        <v>9</v>
+      </c>
+      <c r="I20" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="J20" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K20" s="20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="20">
+        <v>16971.347986111112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="H21" s="32">
+        <v>9</v>
+      </c>
+      <c r="I21" s="32">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="J21" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K21" s="20">
+        <v>19</v>
+      </c>
+      <c r="L21" s="20">
+        <v>12621.973611111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="34">
+        <v>0.52</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="32">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="H22" s="32">
+        <v>9</v>
+      </c>
+      <c r="I22" s="32">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="J22" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K22" s="20">
+        <v>19</v>
+      </c>
+      <c r="L22" s="20">
+        <v>10544.807499999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="34">
+        <v>0.83</v>
+      </c>
+      <c r="C23" s="32">
+        <v>3</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="32">
+        <v>20</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H23" s="32">
+        <v>9</v>
+      </c>
+      <c r="I23" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="J23" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="20">
+        <v>19</v>
+      </c>
+      <c r="L23" s="20">
+        <v>13725.585277777776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="32">
+        <v>10</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H24" s="32">
+        <v>9</v>
+      </c>
+      <c r="I24" s="32">
+        <v>17000</v>
+      </c>
+      <c r="J24" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="20">
+        <v>20</v>
+      </c>
+      <c r="L24" s="19">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H25" s="32">
+        <v>9</v>
+      </c>
+      <c r="I25" s="32">
+        <v>14699.688533333334</v>
+      </c>
+      <c r="J25" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="20">
+        <v>20</v>
+      </c>
+      <c r="L25" s="20">
+        <v>9799.7923555555572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H26" s="32">
+        <v>9</v>
+      </c>
+      <c r="I26" s="32">
+        <v>8309.3262315000011</v>
+      </c>
+      <c r="J26" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="K26" s="20">
+        <v>20</v>
+      </c>
+      <c r="L26" s="20">
+        <v>7078.3149385388897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="34">
+        <v>0.63</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H27" s="32">
+        <v>9</v>
+      </c>
+      <c r="I27" s="32">
+        <v>16275.878055555557</v>
+      </c>
+      <c r="J27" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="20">
+        <v>20</v>
+      </c>
+      <c r="L27" s="20">
+        <v>10405.889388888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="34">
+        <v>0.84</v>
+      </c>
+      <c r="C28" s="32">
+        <v>5</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="32">
+        <v>10</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H28" s="32">
+        <v>9</v>
+      </c>
+      <c r="I28" s="32">
+        <v>17643.028027777778</v>
+      </c>
+      <c r="J28" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="K28" s="20">
+        <v>20</v>
+      </c>
+      <c r="L28" s="20">
+        <v>15029.246222222224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0.83</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="32">
+        <v>7</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="32">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="H29" s="32">
+        <v>9</v>
+      </c>
+      <c r="I29" s="32">
+        <v>19069.495356652948</v>
+      </c>
+      <c r="J29" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="K29" s="20">
+        <v>20</v>
+      </c>
+      <c r="L29" s="20">
+        <f>(J29*L17)/J17</f>
+        <v>16695.665236111108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="34">
+        <v>0.84</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="32">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="H30" s="32">
+        <v>9</v>
+      </c>
+      <c r="I30" s="32">
+        <v>17027.497723577235</v>
+      </c>
+      <c r="J30" s="40">
+        <v>0.67</v>
+      </c>
+      <c r="K30" s="20">
+        <v>20</v>
+      </c>
+      <c r="L30" s="20">
+        <f>(J30*L18)/J18</f>
+        <v>10501.195586068377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="32">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="H31" s="32">
+        <v>9</v>
+      </c>
+      <c r="I31" s="32">
+        <v>20486.945538480555</v>
+      </c>
+      <c r="J31" s="40">
+        <v>0.72</v>
+      </c>
+      <c r="K31" s="20">
+        <v>20</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" ref="L31:L52" si="1">(J31*L19)/J19</f>
+        <v>12711.081841047679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="C32" s="32">
+        <v>5</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="32">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="H32" s="32">
+        <v>9</v>
+      </c>
+      <c r="I32" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="J32" s="40">
+        <v>0.82</v>
+      </c>
+      <c r="K32" s="20">
+        <v>20</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="1"/>
+        <v>16372.35923366013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="C33" s="32">
+        <v>1</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="32">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="H33" s="32">
+        <v>9</v>
+      </c>
+      <c r="I33" s="32">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="J33" s="40">
+        <v>0.52</v>
+      </c>
+      <c r="K33" s="20">
+        <v>20</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="1"/>
+        <v>10097.578888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="34">
+        <v>0.54</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="32">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="H34" s="32">
+        <v>9</v>
+      </c>
+      <c r="I34" s="32">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="J34" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="K34" s="20">
+        <v>20</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="1"/>
+        <v>6489.1123076923068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="34">
+        <v>0.83</v>
+      </c>
+      <c r="C35" s="32">
+        <v>3</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="32">
+        <v>20</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H35" s="32">
+        <v>9</v>
+      </c>
+      <c r="I35" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="J35" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K35" s="20">
+        <v>20</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="1"/>
+        <v>11764.787380952381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="C36" s="32">
+        <v>2</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="32">
+        <v>10</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H36" s="32">
+        <v>9</v>
+      </c>
+      <c r="I36" s="32">
+        <v>17000</v>
+      </c>
+      <c r="J36" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="K36" s="20">
+        <v>20</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="1"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H37" s="32">
+        <v>9</v>
+      </c>
+      <c r="I37" s="32">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="J37" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="20">
+        <v>20</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="1"/>
+        <v>9799.7923555555572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="C38" s="32">
+        <v>0</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H38" s="32">
+        <v>9</v>
+      </c>
+      <c r="I38" s="32">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="J38" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="K38" s="20">
+        <v>20</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="1"/>
+        <v>8493.9779262466673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="C39" s="32">
+        <v>0</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H39" s="32">
+        <v>9</v>
+      </c>
+      <c r="I39" s="32">
+        <v>16792.572597001767</v>
+      </c>
+      <c r="J39" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="20">
+        <v>20</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="1"/>
+        <v>10405.889388888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="34">
+        <v>0.86</v>
+      </c>
+      <c r="C40" s="32">
+        <v>5</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="32">
+        <v>10</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H40" s="32">
+        <v>9</v>
+      </c>
+      <c r="I40" s="32">
+        <v>18063.10012367725</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="K40" s="20">
+        <v>20</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" si="1"/>
+        <v>14145.172915032683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="34">
+        <v>0.86</v>
+      </c>
+      <c r="C41" s="32">
+        <v>3</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="32">
+        <v>7</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="32">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="H41" s="32">
+        <v>9</v>
+      </c>
+      <c r="I41" s="32">
+        <v>19758.754224965702</v>
+      </c>
+      <c r="J41" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K41" s="20">
+        <v>20</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="1"/>
+        <v>17306.48225694444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="34">
+        <v>0.87</v>
+      </c>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="32">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="H42" s="32">
+        <v>9</v>
+      </c>
+      <c r="I42" s="32">
+        <v>17635.622642276423</v>
+      </c>
+      <c r="J42" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K42" s="20">
+        <v>20</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="1"/>
+        <v>10971.398373504273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="C43" s="32">
+        <v>0</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="32">
+        <v>0</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="32">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="H43" s="32">
+        <v>9</v>
+      </c>
+      <c r="I43" s="32">
+        <v>21306.42336001978</v>
+      </c>
+      <c r="J43" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="K43" s="20">
+        <v>20</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="1"/>
+        <v>13240.710251091332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="34">
+        <v>0.78</v>
+      </c>
+      <c r="C44" s="32">
+        <v>5</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="32">
+        <v>0</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="32">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="H44" s="32">
+        <v>9</v>
+      </c>
+      <c r="I44" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="J44" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="K44" s="20">
+        <v>20</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="1"/>
+        <v>16971.347986111112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="32">
+        <v>0</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="32">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="H45" s="32">
+        <v>9</v>
+      </c>
+      <c r="I45" s="32">
+        <v>15221.290384516129</v>
+      </c>
+      <c r="J45" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K45" s="20">
+        <v>20</v>
+      </c>
+      <c r="L45" s="20">
+        <f t="shared" si="1"/>
+        <v>12621.973611111112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C46" s="32">
+        <v>0</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="32">
+        <v>0</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="32">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="H46" s="32">
+        <v>9</v>
+      </c>
+      <c r="I46" s="32">
+        <v>14460.225865290322</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0.65</v>
+      </c>
+      <c r="K46" s="20">
+        <v>20</v>
+      </c>
+      <c r="L46" s="20">
+        <f t="shared" si="1"/>
+        <v>10544.807499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="34">
+        <v>0.83</v>
+      </c>
+      <c r="C47" s="32">
+        <v>3</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="32">
+        <v>20</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H47" s="32">
+        <v>9</v>
+      </c>
+      <c r="I47" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="J47" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="K47" s="20">
+        <v>20</v>
+      </c>
+      <c r="L47" s="20">
+        <f t="shared" si="1"/>
+        <v>13725.585277777776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="C48" s="32">
+        <v>2</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="32">
+        <v>10</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H48" s="32">
+        <v>9</v>
+      </c>
+      <c r="I48" s="32">
+        <v>17000</v>
+      </c>
+      <c r="J48" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="K48" s="20">
+        <v>20</v>
+      </c>
+      <c r="L48" s="20">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="C49" s="32">
+        <v>3</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="32">
+        <v>0</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H49" s="32">
+        <v>9</v>
+      </c>
+      <c r="I49" s="32">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="J49" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="K49" s="20">
+        <v>20</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" si="1"/>
+        <v>9799.7923555555572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="32">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H50" s="32">
+        <v>9</v>
+      </c>
+      <c r="I50" s="32">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="J50" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="K50" s="20">
+        <v>20</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="1"/>
+        <v>8493.9779262466673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="34">
+        <v>0.68</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="32">
+        <v>0</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H51" s="32">
+        <v>9</v>
+      </c>
+      <c r="I51" s="32">
+        <v>15114.664415098505</v>
+      </c>
+      <c r="J51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="20">
+        <v>20</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" si="1"/>
+        <v>10405.889388888889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="34">
+        <v>0.89</v>
+      </c>
+      <c r="C52" s="32">
+        <v>5</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="32">
+        <v>10</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="32">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="H52" s="32">
+        <v>9</v>
+      </c>
+      <c r="I52" s="32">
+        <v>18693.208267526457</v>
+      </c>
+      <c r="J52" s="42">
+        <v>0.85</v>
+      </c>
+      <c r="K52" s="20">
+        <v>20</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="1"/>
+        <v>15029.246222222224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177EDCA-4C33-CD4F-ABBE-A7D8921CE390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6724793-34E9-2A49-A8CD-999306C67C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue" sheetId="2" r:id="rId2"/>
     <sheet name="Rooms Revenue" sheetId="3" r:id="rId3"/>
     <sheet name="F&amp;B Revenue" sheetId="4" r:id="rId4"/>
+    <sheet name="Expenses" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -340,15 +341,25 @@
   <si>
     <t>2025-12</t>
   </si>
+  <si>
+    <t>Social Security</t>
+  </si>
+  <si>
+    <t>Total Wages</t>
+  </si>
+  <si>
+    <t>Admin Expenses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,13 +478,50 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -500,11 +548,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -538,6 +587,8 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -548,8 +599,28 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -865,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB7571-518D-374C-8FD9-00C835832375}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3645,9 +3716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1048576"/>
+    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24:K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5517,15 +5588,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3125D8-EE63-4B43-9AC6-51D16219A8B2}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD55"/>
+    <sheetView topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32" style="33" customWidth="1"/>
+    <col min="2" max="2" width="32" style="35" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
@@ -5566,7 +5637,7 @@
       <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="40" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -5577,10 +5648,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <v>0</v>
       </c>
       <c r="C2" s="32">
@@ -5604,22 +5675,22 @@
       <c r="I2" s="32">
         <v>0</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="41">
         <v>0.1</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="39">
         <v>16</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="37">
         <f>SUM(J2*$L$5)/$J$5</f>
         <v>1468.0243055555554</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="36">
         <v>0</v>
       </c>
       <c r="C3" s="32">
@@ -5643,22 +5714,22 @@
       <c r="I3" s="32">
         <v>0</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="41">
         <v>0.1</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="39">
         <v>16</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="37">
         <f t="shared" ref="L3:L4" si="0">SUM(J3*$L$5)/$J$5</f>
         <v>1468.0243055555554</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="36">
         <v>0</v>
       </c>
       <c r="C4" s="32">
@@ -5682,10 +5753,10 @@
       <c r="I4" s="32">
         <v>0</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="41">
         <v>0.1</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="39">
         <v>16</v>
       </c>
       <c r="L4" s="32">
@@ -5694,10 +5765,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="36">
         <v>0.61</v>
       </c>
       <c r="C5" s="32">
@@ -5721,7 +5792,7 @@
       <c r="I5" s="32">
         <v>13136.888888888889</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="42">
         <v>0.8</v>
       </c>
       <c r="K5" s="20">
@@ -5732,10 +5803,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <v>0.62</v>
       </c>
       <c r="C6" s="32">
@@ -5759,7 +5830,7 @@
       <c r="I6" s="32">
         <v>11430.527777777777</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="42">
         <v>0.6</v>
       </c>
       <c r="K6" s="20">
@@ -5770,10 +5841,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <v>0.39</v>
       </c>
       <c r="C7" s="32">
@@ -5797,7 +5868,7 @@
       <c r="I7" s="32">
         <v>9742.6111111111113</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="42">
         <v>0.7</v>
       </c>
       <c r="K7" s="20">
@@ -5808,10 +5879,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="36">
         <v>0.7</v>
       </c>
       <c r="C8" s="32">
@@ -5835,7 +5906,7 @@
       <c r="I8" s="32">
         <v>15043.805555555555</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="42">
         <v>0.8</v>
       </c>
       <c r="K8" s="20">
@@ -5846,10 +5917,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="36">
         <v>0.47</v>
       </c>
       <c r="C9" s="32">
@@ -5873,7 +5944,7 @@
       <c r="I9" s="32">
         <v>8546.1691666666666</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="42">
         <v>0.5</v>
       </c>
       <c r="K9" s="20">
@@ -5884,10 +5955,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="36">
         <v>0.33</v>
       </c>
       <c r="C10" s="32">
@@ -5911,7 +5982,7 @@
       <c r="I10" s="32">
         <v>7171.4191666666666</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="42">
         <v>0.2</v>
       </c>
       <c r="K10" s="20">
@@ -5922,10 +5993,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="36">
         <v>0.67</v>
       </c>
       <c r="C11" s="32">
@@ -5949,7 +6020,7 @@
       <c r="I11" s="32">
         <v>15864.97388888889</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="42">
         <v>0.6</v>
       </c>
       <c r="K11" s="20">
@@ -5960,10 +6031,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="36">
         <v>0.49</v>
       </c>
       <c r="C12" s="32">
@@ -5987,7 +6058,7 @@
       <c r="I12" s="32">
         <v>11925.820833333333</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="42">
         <v>0.6</v>
       </c>
       <c r="K12" s="20">
@@ -5998,10 +6069,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="36">
         <v>0.51</v>
       </c>
       <c r="C13" s="32">
@@ -6025,7 +6096,7 @@
       <c r="I13" s="32">
         <v>13738.026666666667</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="42">
         <v>0.75</v>
       </c>
       <c r="K13" s="20">
@@ -6036,10 +6107,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="36">
         <v>0.4</v>
       </c>
       <c r="C14" s="32">
@@ -6063,7 +6134,7 @@
       <c r="I14" s="32">
         <v>7765.7254499999999</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="42">
         <v>0.25</v>
       </c>
       <c r="K14" s="20">
@@ -6074,10 +6145,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="36">
         <v>0.56000000000000005</v>
       </c>
       <c r="C15" s="32">
@@ -6101,7 +6172,7 @@
       <c r="I15" s="32">
         <v>14796.252777777778</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="42">
         <v>0.4</v>
       </c>
       <c r="K15" s="20">
@@ -6112,10 +6183,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="36">
         <v>0.79</v>
       </c>
       <c r="C16" s="32">
@@ -6139,7 +6210,7 @@
       <c r="I16" s="32">
         <v>16039.116388888888</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="42">
         <v>0.8</v>
       </c>
       <c r="K16" s="20">
@@ -6149,11 +6220,11 @@
         <v>13662.95111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="36">
         <v>0.81</v>
       </c>
       <c r="C17" s="32">
@@ -6177,7 +6248,7 @@
       <c r="I17" s="32">
         <v>18609.989444444444</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="42">
         <v>0.8</v>
       </c>
       <c r="K17" s="20">
@@ -6187,11 +6258,11 @@
         <v>16288.453888888889</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="36">
         <v>0.82</v>
       </c>
       <c r="C18" s="32">
@@ -6215,7 +6286,7 @@
       <c r="I18" s="32">
         <v>16622.081111111111</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="42">
         <v>0.65</v>
       </c>
       <c r="K18" s="20">
@@ -6225,11 +6296,11 @@
         <v>10187.727061111113</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="36">
         <v>0.78</v>
       </c>
       <c r="C19" s="32">
@@ -6253,7 +6324,7 @@
       <c r="I19" s="32">
         <v>21306.423360019777</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="42">
         <v>0.75</v>
       </c>
       <c r="K19" s="20">
@@ -6263,11 +6334,11 @@
         <v>13240.710251091332</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="36">
         <v>0.73</v>
       </c>
       <c r="C20" s="32">
@@ -6291,7 +6362,7 @@
       <c r="I20" s="32">
         <v>17039.369466666667</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="42">
         <v>0.85</v>
       </c>
       <c r="K20" s="20">
@@ -6301,11 +6372,11 @@
         <v>16971.347986111112</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="36">
         <v>0.6</v>
       </c>
       <c r="C21" s="32">
@@ -6329,7 +6400,7 @@
       <c r="I21" s="32">
         <v>16731.527777777777</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="42">
         <v>0.65</v>
       </c>
       <c r="K21" s="20">
@@ -6339,11 +6410,11 @@
         <v>12621.973611111111</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="36">
         <v>0.52</v>
       </c>
       <c r="C22" s="32">
@@ -6367,7 +6438,7 @@
       <c r="I22" s="32">
         <v>15332.020833333334</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="42">
         <v>0.65</v>
       </c>
       <c r="K22" s="20">
@@ -6377,11 +6448,11 @@
         <v>10544.807499999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="36">
         <v>0.83</v>
       </c>
       <c r="C23" s="32">
@@ -6405,7 +6476,7 @@
       <c r="I23" s="32">
         <v>20746.446944444444</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="42">
         <v>0.7</v>
       </c>
       <c r="K23" s="20">
@@ -6415,11 +6486,11 @@
         <v>13725.585277777776</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="36">
         <v>0.62</v>
       </c>
       <c r="C24" s="32">
@@ -6443,7 +6514,7 @@
       <c r="I24" s="32">
         <v>17000</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="42">
         <v>0.4</v>
       </c>
       <c r="K24" s="20">
@@ -6452,12 +6523,20 @@
       <c r="L24" s="19">
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="M24">
+        <f>L24*60%</f>
+        <v>6600</v>
+      </c>
+      <c r="N24">
+        <f>L24*40%</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="36">
         <v>0.7</v>
       </c>
       <c r="C25" s="32">
@@ -6481,7 +6560,7 @@
       <c r="I25" s="32">
         <v>14699.688533333334</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="44">
         <v>0.75</v>
       </c>
       <c r="K25" s="20">
@@ -6490,12 +6569,20 @@
       <c r="L25" s="20">
         <v>9799.7923555555572</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="M25">
+        <f t="shared" ref="M25:M52" si="1">L25*60%</f>
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N52" si="2">L25*40%</f>
+        <v>3919.916942222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="36">
         <v>0.4</v>
       </c>
       <c r="C26" s="32">
@@ -6519,7 +6606,7 @@
       <c r="I26" s="32">
         <v>8309.3262315000011</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="44">
         <v>0.25</v>
       </c>
       <c r="K26" s="20">
@@ -6528,12 +6615,20 @@
       <c r="L26" s="20">
         <v>7078.3149385388897</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>4246.9889631233336</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>2831.3259754155561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="36">
         <v>0.63</v>
       </c>
       <c r="C27" s="32">
@@ -6557,7 +6652,7 @@
       <c r="I27" s="32">
         <v>16275.878055555557</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="44">
         <v>0.5</v>
       </c>
       <c r="K27" s="20">
@@ -6566,12 +6661,20 @@
       <c r="L27" s="20">
         <v>10405.889388888889</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>4162.3557555555553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="36">
         <v>0.84</v>
       </c>
       <c r="C28" s="32">
@@ -6595,7 +6698,7 @@
       <c r="I28" s="32">
         <v>17643.028027777778</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="44">
         <v>0.85</v>
       </c>
       <c r="K28" s="20">
@@ -6604,12 +6707,20 @@
       <c r="L28" s="20">
         <v>15029.246222222224</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>9017.5477333333347</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>6011.6984888888901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="36">
         <v>0.83</v>
       </c>
       <c r="C29" s="32">
@@ -6633,7 +6744,7 @@
       <c r="I29" s="32">
         <v>19069.495356652948</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="42">
         <v>0.82</v>
       </c>
       <c r="K29" s="20">
@@ -6643,12 +6754,20 @@
         <f>(J29*L17)/J17</f>
         <v>16695.665236111108</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>10017.399141666665</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>6678.2660944444433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="36">
         <v>0.84</v>
       </c>
       <c r="C30" s="32">
@@ -6672,7 +6791,7 @@
       <c r="I30" s="32">
         <v>17027.497723577235</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="42">
         <v>0.67</v>
       </c>
       <c r="K30" s="20">
@@ -6682,12 +6801,20 @@
         <f>(J30*L18)/J18</f>
         <v>10501.195586068377</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>6300.7173516410267</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>4200.4782344273508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="36">
         <v>0.75</v>
       </c>
       <c r="C31" s="32">
@@ -6711,22 +6838,30 @@
       <c r="I31" s="32">
         <v>20486.945538480555</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="42">
         <v>0.72</v>
       </c>
       <c r="K31" s="20">
         <v>20</v>
       </c>
       <c r="L31" s="20">
-        <f t="shared" ref="L31:L52" si="1">(J31*L19)/J19</f>
+        <f t="shared" ref="L31:L52" si="3">(J31*L19)/J19</f>
         <v>12711.081841047679</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>7626.6491046286064</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>5084.4327364190722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="36">
         <v>0.78</v>
       </c>
       <c r="C32" s="32">
@@ -6750,22 +6885,30 @@
       <c r="I32" s="32">
         <v>17039.369466666667</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="42">
         <v>0.82</v>
       </c>
       <c r="K32" s="20">
         <v>20</v>
       </c>
       <c r="L32" s="20">
+        <f t="shared" si="3"/>
+        <v>16372.35923366013</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="1"/>
-        <v>16372.35923366013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+        <v>9823.4155401960779</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>6548.9436934640526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="36">
         <v>0.6</v>
       </c>
       <c r="C33" s="32">
@@ -6789,22 +6932,30 @@
       <c r="I33" s="32">
         <v>16731.527777777777</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="42">
         <v>0.52</v>
       </c>
       <c r="K33" s="20">
         <v>20</v>
       </c>
       <c r="L33" s="20">
+        <f t="shared" si="3"/>
+        <v>10097.578888888889</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="1"/>
-        <v>10097.578888888889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+        <v>6058.547333333333</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>4039.0315555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="36">
         <v>0.54</v>
       </c>
       <c r="C34" s="32">
@@ -6828,22 +6979,30 @@
       <c r="I34" s="32">
         <v>15332.020833333334</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="42">
         <v>0.4</v>
       </c>
       <c r="K34" s="20">
         <v>20</v>
       </c>
       <c r="L34" s="20">
+        <f t="shared" si="3"/>
+        <v>6489.1123076923068</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="1"/>
-        <v>6489.1123076923068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+        <v>3893.4673846153837</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>2595.6449230769231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="36">
         <v>0.83</v>
       </c>
       <c r="C35" s="32">
@@ -6867,22 +7026,30 @@
       <c r="I35" s="32">
         <v>20746.446944444444</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="42">
         <v>0.6</v>
       </c>
       <c r="K35" s="20">
         <v>20</v>
       </c>
       <c r="L35" s="20">
+        <f t="shared" si="3"/>
+        <v>11764.787380952381</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="1"/>
-        <v>11764.787380952381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+        <v>7058.8724285714279</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>4705.9149523809529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="36">
         <v>0.62</v>
       </c>
       <c r="C36" s="32">
@@ -6906,22 +7073,30 @@
       <c r="I36" s="32">
         <v>17000</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="42">
         <v>0.6</v>
       </c>
       <c r="K36" s="20">
         <v>20</v>
       </c>
       <c r="L36" s="20">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="1"/>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+        <v>9900</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="36">
         <v>0.7</v>
       </c>
       <c r="C37" s="32">
@@ -6945,22 +7120,30 @@
       <c r="I37" s="32">
         <v>15728.666730666668</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="42">
         <v>0.75</v>
       </c>
       <c r="K37" s="20">
         <v>20</v>
       </c>
       <c r="L37" s="20">
+        <f t="shared" si="3"/>
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="1"/>
-        <v>9799.7923555555572</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>3919.916942222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="36">
         <v>0.4</v>
       </c>
       <c r="C38" s="32">
@@ -6984,22 +7167,30 @@
       <c r="I38" s="32">
         <v>8890.9790677050023</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="42">
         <v>0.3</v>
       </c>
       <c r="K38" s="20">
         <v>20</v>
       </c>
       <c r="L38" s="20">
+        <f t="shared" si="3"/>
+        <v>8493.9779262466673</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="1"/>
-        <v>8493.9779262466673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+        <v>5096.3867557479998</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>3397.591170498667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="36">
         <v>0.65</v>
       </c>
       <c r="C39" s="32">
@@ -7023,22 +7214,30 @@
       <c r="I39" s="32">
         <v>16792.572597001767</v>
       </c>
-      <c r="J39" s="40">
+      <c r="J39" s="42">
         <v>0.5</v>
       </c>
       <c r="K39" s="20">
         <v>20</v>
       </c>
       <c r="L39" s="20">
+        <f t="shared" si="3"/>
+        <v>10405.889388888889</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="1"/>
-        <v>10405.889388888889</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>4162.3557555555553</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="36">
         <v>0.86</v>
       </c>
       <c r="C40" s="32">
@@ -7062,22 +7261,30 @@
       <c r="I40" s="32">
         <v>18063.10012367725</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="42">
         <v>0.8</v>
       </c>
       <c r="K40" s="20">
         <v>20</v>
       </c>
       <c r="L40" s="20">
+        <f t="shared" si="3"/>
+        <v>14145.172915032683</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="1"/>
-        <v>14145.172915032683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+        <v>8487.1037490196086</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>5658.0691660130733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="36">
         <v>0.86</v>
       </c>
       <c r="C41" s="32">
@@ -7101,22 +7308,30 @@
       <c r="I41" s="32">
         <v>19758.754224965702</v>
       </c>
-      <c r="J41" s="40">
+      <c r="J41" s="42">
         <v>0.85</v>
       </c>
       <c r="K41" s="20">
         <v>20</v>
       </c>
       <c r="L41" s="20">
+        <f t="shared" si="3"/>
+        <v>17306.48225694444</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="1"/>
-        <v>17306.48225694444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+        <v>10383.889354166664</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>6922.5929027777765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="36">
         <v>0.87</v>
       </c>
       <c r="C42" s="32">
@@ -7140,22 +7355,30 @@
       <c r="I42" s="32">
         <v>17635.622642276423</v>
       </c>
-      <c r="J42" s="40">
+      <c r="J42" s="42">
         <v>0.7</v>
       </c>
       <c r="K42" s="20">
         <v>20</v>
       </c>
       <c r="L42" s="20">
+        <f t="shared" si="3"/>
+        <v>10971.398373504273</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="1"/>
-        <v>10971.398373504273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+        <v>6582.8390241025636</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>4388.5593494017094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="36">
         <v>0.78</v>
       </c>
       <c r="C43" s="32">
@@ -7179,22 +7402,30 @@
       <c r="I43" s="32">
         <v>21306.42336001978</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43" s="42">
         <v>0.75</v>
       </c>
       <c r="K43" s="20">
         <v>20</v>
       </c>
       <c r="L43" s="20">
+        <f t="shared" si="3"/>
+        <v>13240.710251091332</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="1"/>
-        <v>13240.710251091332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+        <v>7944.4261506547991</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>5296.2841004365328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="36">
         <v>0.78</v>
       </c>
       <c r="C44" s="32">
@@ -7218,22 +7449,30 @@
       <c r="I44" s="32">
         <v>17039.369466666667</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="42">
         <v>0.85</v>
       </c>
       <c r="K44" s="20">
         <v>20</v>
       </c>
       <c r="L44" s="20">
+        <f t="shared" si="3"/>
+        <v>16971.347986111112</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="1"/>
-        <v>16971.347986111112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+        <v>10182.808791666666</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>6788.5391944444455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="36">
         <v>0.6</v>
       </c>
       <c r="C45" s="32">
@@ -7257,22 +7496,30 @@
       <c r="I45" s="32">
         <v>15221.290384516129</v>
       </c>
-      <c r="J45" s="40">
+      <c r="J45" s="42">
         <v>0.65</v>
       </c>
       <c r="K45" s="20">
         <v>20</v>
       </c>
       <c r="L45" s="20">
+        <f t="shared" si="3"/>
+        <v>12621.973611111112</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="1"/>
-        <v>12621.973611111112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+        <v>7573.1841666666669</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>5048.7894444444455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="36">
         <v>0.56999999999999995</v>
       </c>
       <c r="C46" s="32">
@@ -7296,22 +7543,30 @@
       <c r="I46" s="32">
         <v>14460.225865290322</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="42">
         <v>0.65</v>
       </c>
       <c r="K46" s="20">
         <v>20</v>
       </c>
       <c r="L46" s="20">
+        <f t="shared" si="3"/>
+        <v>10544.807499999999</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="1"/>
-        <v>10544.807499999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+        <v>6326.8844999999992</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>4217.9229999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="36">
         <v>0.83</v>
       </c>
       <c r="C47" s="32">
@@ -7335,22 +7590,30 @@
       <c r="I47" s="32">
         <v>20746.446944444444</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="42">
         <v>0.7</v>
       </c>
       <c r="K47" s="20">
         <v>20</v>
       </c>
       <c r="L47" s="20">
+        <f t="shared" si="3"/>
+        <v>13725.585277777776</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="1"/>
-        <v>13725.585277777776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+        <v>8235.3511666666654</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>5490.2341111111109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="36">
         <v>0.62</v>
       </c>
       <c r="C48" s="32">
@@ -7374,22 +7637,30 @@
       <c r="I48" s="32">
         <v>17000</v>
       </c>
-      <c r="J48" s="41">
+      <c r="J48" s="43">
         <v>0.4</v>
       </c>
       <c r="K48" s="20">
         <v>20</v>
       </c>
       <c r="L48" s="20">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="1"/>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+        <v>6600</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B49" s="36">
         <v>0.7</v>
       </c>
       <c r="C49" s="32">
@@ -7413,22 +7684,30 @@
       <c r="I49" s="32">
         <v>15728.666730666668</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="44">
         <v>0.75</v>
       </c>
       <c r="K49" s="20">
         <v>20</v>
       </c>
       <c r="L49" s="20">
+        <f t="shared" si="3"/>
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="1"/>
-        <v>9799.7923555555572</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>3919.916942222223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="36">
         <v>0.4</v>
       </c>
       <c r="C50" s="32">
@@ -7452,22 +7731,30 @@
       <c r="I50" s="32">
         <v>8890.9790677050023</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="44">
         <v>0.3</v>
       </c>
       <c r="K50" s="20">
         <v>20</v>
       </c>
       <c r="L50" s="20">
+        <f t="shared" si="3"/>
+        <v>8493.9779262466673</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="1"/>
-        <v>8493.9779262466673</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+        <v>5096.3867557479998</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>3397.591170498667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="34">
+      <c r="B51" s="36">
         <v>0.68</v>
       </c>
       <c r="C51" s="32">
@@ -7491,22 +7778,30 @@
       <c r="I51" s="32">
         <v>15114.664415098505</v>
       </c>
-      <c r="J51" s="42">
+      <c r="J51" s="44">
         <v>0.5</v>
       </c>
       <c r="K51" s="20">
         <v>20</v>
       </c>
       <c r="L51" s="20">
+        <f t="shared" si="3"/>
+        <v>10405.889388888889</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="1"/>
-        <v>10405.889388888889</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>4162.3557555555553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="36">
         <v>0.89</v>
       </c>
       <c r="C52" s="32">
@@ -7530,19 +7825,5922 @@
       <c r="I52" s="32">
         <v>18693.208267526457</v>
       </c>
-      <c r="J52" s="42">
+      <c r="J52" s="44">
         <v>0.85</v>
       </c>
       <c r="K52" s="20">
         <v>20</v>
       </c>
       <c r="L52" s="20">
+        <f t="shared" si="3"/>
+        <v>15029.246222222224</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="1"/>
-        <v>15029.246222222224</v>
+        <v>9017.5477333333347</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>6011.6984888888901</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9504A73-9966-3545-8B78-F9F0B99BA560}">
+  <dimension ref="A1:AJ49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="R21" sqref="R21:R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="34"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
+    <col min="24" max="27" width="10.83203125" style="1"/>
+    <col min="28" max="28" width="13.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="19.1640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.33203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="54">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="33">
+        <v>7771.6388888888887</v>
+      </c>
+      <c r="C2" s="33">
+        <v>3972.5555555555557</v>
+      </c>
+      <c r="D2" s="33">
+        <v>13136.888888888889</v>
+      </c>
+      <c r="E2" s="33">
+        <v>24881.083333333332</v>
+      </c>
+      <c r="F2" s="33">
+        <v>3696.5833333333335</v>
+      </c>
+      <c r="G2" s="33">
+        <v>1551.3611111111111</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1471</v>
+      </c>
+      <c r="I2" s="33">
+        <f>SUM(F2:H2)</f>
+        <v>6718.9444444444443</v>
+      </c>
+      <c r="J2" s="33">
+        <v>820.83333333333337</v>
+      </c>
+      <c r="K2" s="33">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>513.88888888888891</v>
+      </c>
+      <c r="M2" s="33">
+        <f>N2*24%</f>
+        <v>679.43333333333328</v>
+      </c>
+      <c r="N2" s="33">
+        <v>2830.9722222222222</v>
+      </c>
+      <c r="O2" s="33">
+        <v>137.77777777777777</v>
+      </c>
+      <c r="P2" s="33">
+        <f>SUM(J2:O2)</f>
+        <v>4982.9055555555551</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>552.77777777777783</v>
+      </c>
+      <c r="R2" s="33">
+        <v>510.22222222222223</v>
+      </c>
+      <c r="S2" s="33">
+        <v>153.66666666666666</v>
+      </c>
+      <c r="T2" s="33">
+        <v>118.11111111111111</v>
+      </c>
+      <c r="U2" s="33">
+        <v>150</v>
+      </c>
+      <c r="V2" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W2" s="33">
+        <v>150.58333333333334</v>
+      </c>
+      <c r="X2" s="33">
+        <v>6.3055555555555554</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>379.13888888888891</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>145.75</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>98.722222222222229</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>597.30555555555554</v>
+      </c>
+      <c r="AC2" s="33">
+        <v>55.722222222222221</v>
+      </c>
+      <c r="AD2" s="33">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="AE2" s="33">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="AF2" s="33">
+        <v>123.22222222222223</v>
+      </c>
+      <c r="AG2" s="33">
+        <v>819</v>
+      </c>
+      <c r="AH2" s="33">
+        <f>SUM(P2:AG2)</f>
+        <v>9304.7944444444456</v>
+      </c>
+      <c r="AI2" s="33">
+        <f>AH2+I2</f>
+        <v>16023.738888888889</v>
+      </c>
+      <c r="AJ2" s="33">
+        <f>E2-AI2</f>
+        <v>8857.3444444444431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="54">
+        <v>44593</v>
+      </c>
+      <c r="B3" s="33">
+        <v>5660</v>
+      </c>
+      <c r="C3" s="33">
+        <v>3773.3333333333335</v>
+      </c>
+      <c r="D3" s="33">
+        <v>11430.527777777777</v>
+      </c>
+      <c r="E3" s="33">
+        <v>20863.861111111109</v>
+      </c>
+      <c r="F3" s="33">
+        <v>3476.7777777777778</v>
+      </c>
+      <c r="G3" s="33">
+        <v>2317.8611111111113</v>
+      </c>
+      <c r="H3" s="33">
+        <v>935.38888888888891</v>
+      </c>
+      <c r="I3" s="33">
+        <f t="shared" ref="I3:I49" si="0">SUM(F3:H3)</f>
+        <v>6730.0277777777774</v>
+      </c>
+      <c r="J3" s="33">
+        <v>864.02777777777783</v>
+      </c>
+      <c r="K3" s="33">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33">
+        <f t="shared" ref="M3:M12" si="1">N3*24%</f>
+        <v>749.66</v>
+      </c>
+      <c r="N3" s="33">
+        <v>3123.5833333333335</v>
+      </c>
+      <c r="O3" s="33">
+        <v>137.77777777777777</v>
+      </c>
+      <c r="P3" s="33">
+        <f>SUM(J3:O3)</f>
+        <v>4875.0488888888885</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>552.77777777777783</v>
+      </c>
+      <c r="R3" s="33">
+        <v>510.22222222222223</v>
+      </c>
+      <c r="S3" s="33">
+        <v>153.66666666666666</v>
+      </c>
+      <c r="T3" s="33">
+        <v>118.11111111111111</v>
+      </c>
+      <c r="U3" s="33">
+        <v>150</v>
+      </c>
+      <c r="V3" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W3" s="33">
+        <v>150.58333333333334</v>
+      </c>
+      <c r="X3" s="33">
+        <v>6.3055555555555554</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>379.13888888888891</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>145.75</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>98.722222222222229</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>117.66666666666667</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>55.722222222222221</v>
+      </c>
+      <c r="AD3" s="33">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>62.111111111111114</v>
+      </c>
+      <c r="AF3" s="33">
+        <v>123.22222222222223</v>
+      </c>
+      <c r="AG3" s="33">
+        <v>519.44444444444446</v>
+      </c>
+      <c r="AH3" s="33">
+        <f t="shared" ref="AH3:AH49" si="2">SUM(P3:AG3)</f>
+        <v>8417.7433333333356</v>
+      </c>
+      <c r="AI3" s="33">
+        <f t="shared" ref="AI3:AI49" si="3">AH3+I3</f>
+        <v>15147.771111111113</v>
+      </c>
+      <c r="AJ3" s="33">
+        <f>E3-AI3</f>
+        <v>5716.0899999999965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="54">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="33">
+        <v>5299.8611111111113</v>
+      </c>
+      <c r="C4" s="33">
+        <v>3533.2222222222222</v>
+      </c>
+      <c r="D4" s="33">
+        <v>9742.6111111111113</v>
+      </c>
+      <c r="E4" s="33">
+        <v>18575.694444444445</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2250</v>
+      </c>
+      <c r="G4" s="33">
+        <v>1944.4444444444443</v>
+      </c>
+      <c r="H4" s="33">
+        <v>1150.5555555555557</v>
+      </c>
+      <c r="I4" s="33">
+        <f t="shared" si="0"/>
+        <v>5345</v>
+      </c>
+      <c r="J4" s="33">
+        <v>555.13888888888891</v>
+      </c>
+      <c r="K4" s="33">
+        <v>89.722222222222229</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33">
+        <f t="shared" si="1"/>
+        <v>696.97333333333336</v>
+      </c>
+      <c r="N4" s="33">
+        <v>2904.0555555555557</v>
+      </c>
+      <c r="O4" s="33">
+        <v>209.13888888888889</v>
+      </c>
+      <c r="P4" s="33">
+        <f t="shared" ref="P4:P49" si="4">SUM(J4:O4)</f>
+        <v>4455.028888888889</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>1761</v>
+      </c>
+      <c r="R4" s="33">
+        <v>640.02777777777783</v>
+      </c>
+      <c r="S4" s="33">
+        <v>153.66666666666666</v>
+      </c>
+      <c r="T4" s="33">
+        <v>118.11111111111111</v>
+      </c>
+      <c r="U4" s="33">
+        <v>88.611111111111114</v>
+      </c>
+      <c r="V4" s="33">
+        <v>261.44444444444446</v>
+      </c>
+      <c r="W4" s="33">
+        <v>150.58333333333334</v>
+      </c>
+      <c r="X4" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>379.58333333333331</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>202.94444444444446</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>209.13888888888889</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>627.38888888888891</v>
+      </c>
+      <c r="AC4" s="33">
+        <v>56.027777777777779</v>
+      </c>
+      <c r="AD4" s="33">
+        <v>30.194444444444443</v>
+      </c>
+      <c r="AE4" s="33">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="AF4" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="33">
+        <v>370.30555555555554</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" si="2"/>
+        <v>9727.3066666666655</v>
+      </c>
+      <c r="AI4" s="33">
+        <f t="shared" si="3"/>
+        <v>15072.306666666665</v>
+      </c>
+      <c r="AJ4" s="33">
+        <f>E4-AI4</f>
+        <v>3503.3877777777798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="54">
+        <v>44652</v>
+      </c>
+      <c r="B5" s="33">
+        <v>11300.75</v>
+      </c>
+      <c r="C5" s="33">
+        <v>7533.833333333333</v>
+      </c>
+      <c r="D5" s="33">
+        <v>15043.805555555555</v>
+      </c>
+      <c r="E5" s="33">
+        <v>33878.388888888891</v>
+      </c>
+      <c r="F5" s="33">
+        <v>4243.1944444444443</v>
+      </c>
+      <c r="G5" s="33">
+        <v>3128.9444444444443</v>
+      </c>
+      <c r="H5" s="33">
+        <v>2108</v>
+      </c>
+      <c r="I5" s="33">
+        <f t="shared" si="0"/>
+        <v>9480.1388888888887</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1269.3333333333333</v>
+      </c>
+      <c r="K5" s="33">
+        <v>89.722222222222229</v>
+      </c>
+      <c r="L5" s="33">
+        <v>894.44444444444446</v>
+      </c>
+      <c r="M5" s="33">
+        <f t="shared" si="1"/>
+        <v>686.49999999999989</v>
+      </c>
+      <c r="N5" s="33">
+        <v>2860.4166666666665</v>
+      </c>
+      <c r="O5" s="33">
+        <v>181.80555555555554</v>
+      </c>
+      <c r="P5" s="33">
+        <f t="shared" si="4"/>
+        <v>5982.2222222222217</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>782.02777777777783</v>
+      </c>
+      <c r="R5" s="33">
+        <v>890.5</v>
+      </c>
+      <c r="S5" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T5" s="33">
+        <v>118.11111111111111</v>
+      </c>
+      <c r="U5" s="33">
+        <v>167.77777777777777</v>
+      </c>
+      <c r="V5" s="33">
+        <v>193.11111111111111</v>
+      </c>
+      <c r="W5" s="33">
+        <v>150.58333333333334</v>
+      </c>
+      <c r="X5" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>183.08333333333334</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>146.16666666666666</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>397.27777777777777</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>362.97222222222223</v>
+      </c>
+      <c r="AC5" s="33">
+        <v>162.47222222222223</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>35.694444444444443</v>
+      </c>
+      <c r="AE5" s="33">
+        <v>246.05555555555554</v>
+      </c>
+      <c r="AF5" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG5" s="33">
+        <v>700</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" si="2"/>
+        <v>10911.027777777779</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" si="3"/>
+        <v>20391.166666666668</v>
+      </c>
+      <c r="AJ5" s="33">
+        <f>E5-AI5</f>
+        <v>13487.222222222223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="54">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="45">
+        <v>5555.0099999999993</v>
+      </c>
+      <c r="C6" s="45">
+        <v>3703.3399999999997</v>
+      </c>
+      <c r="D6" s="46">
+        <v>8546.1691666666666</v>
+      </c>
+      <c r="E6" s="33">
+        <v>17804.519166666665</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="G6" s="48">
+        <v>1336.3348218111112</v>
+      </c>
+      <c r="H6" s="48">
+        <v>861.11111111111109</v>
+      </c>
+      <c r="I6" s="33">
+        <f t="shared" si="0"/>
+        <v>3864.1125995888888</v>
+      </c>
+      <c r="J6" s="49">
+        <v>661.15277777777783</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33">
+        <f t="shared" si="1"/>
+        <v>749.00866666666661</v>
+      </c>
+      <c r="N6" s="49">
+        <v>3120.8694444444445</v>
+      </c>
+      <c r="O6" s="50">
+        <v>203.9425</v>
+      </c>
+      <c r="P6" s="33">
+        <f t="shared" si="4"/>
+        <v>4734.9733888888886</v>
+      </c>
+      <c r="Q6" s="51">
+        <v>878.68775533333326</v>
+      </c>
+      <c r="R6" s="49">
+        <v>972.22222222222217</v>
+      </c>
+      <c r="S6" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T6" s="33">
+        <v>118.11111111111111</v>
+      </c>
+      <c r="U6" s="49">
+        <v>102.22222222222223</v>
+      </c>
+      <c r="V6" s="51">
+        <v>401.14444444444445</v>
+      </c>
+      <c r="W6" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X6" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>183.08333333333334</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>146.16666666666666</v>
+      </c>
+      <c r="AA6" s="49">
+        <v>157.16666666666666</v>
+      </c>
+      <c r="AB6" s="50">
+        <v>363.98655555555547</v>
+      </c>
+      <c r="AC6" s="49">
+        <v>56.186111111111103</v>
+      </c>
+      <c r="AD6" s="49">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE6" s="49">
+        <v>144.92038888888888</v>
+      </c>
+      <c r="AF6" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG6" s="49">
+        <v>500</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" si="2"/>
+        <v>9359.8653108888884</v>
+      </c>
+      <c r="AI6" s="33">
+        <f t="shared" si="3"/>
+        <v>13223.977910477777</v>
+      </c>
+      <c r="AJ6" s="33">
+        <f>E6-AI6</f>
+        <v>4580.5412561888879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="54">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="52">
+        <v>2821.9919444444445</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1881.3280555555555</v>
+      </c>
+      <c r="D7" s="51">
+        <v>7171.4191666666666</v>
+      </c>
+      <c r="E7" s="33">
+        <v>11874.739166666666</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="G7" s="48">
+        <v>555.55555555555554</v>
+      </c>
+      <c r="H7" s="48">
+        <v>972.22222222222217</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>2694.4444444444443</v>
+      </c>
+      <c r="J7" s="53">
+        <v>227.08333333333334</v>
+      </c>
+      <c r="K7" s="53">
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
+        <v>99.444444444444443</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="1"/>
+        <v>701.74633333333327</v>
+      </c>
+      <c r="N7" s="53">
+        <v>2923.9430555555555</v>
+      </c>
+      <c r="O7" s="50">
+        <v>248.88888888888889</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="4"/>
+        <v>4201.106055555555</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>1472.2222222222222</v>
+      </c>
+      <c r="R7" s="53">
+        <v>736.11111111111109</v>
+      </c>
+      <c r="S7" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T7" s="53">
+        <v>32.5</v>
+      </c>
+      <c r="U7" s="53">
+        <v>127.77777777777777</v>
+      </c>
+      <c r="V7" s="51">
+        <v>126.44999999999999</v>
+      </c>
+      <c r="W7" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X7" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>183.08333333333334</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>146.16666666666666</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>161.5</v>
+      </c>
+      <c r="AB7" s="50">
+        <v>543.11583333333328</v>
+      </c>
+      <c r="AC7" s="53">
+        <v>56.18611111111111</v>
+      </c>
+      <c r="AD7" s="53">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE7" s="53">
+        <v>118.45822222222222</v>
+      </c>
+      <c r="AF7" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG7" s="33">
+        <v>305.55555555555554</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="2"/>
+        <v>8811.2273333333287</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" si="3"/>
+        <v>11505.671777777774</v>
+      </c>
+      <c r="AJ7" s="33">
+        <f>E7-AI7</f>
+        <v>369.06738888889231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="54">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="33">
+        <v>6345.9894444444444</v>
+      </c>
+      <c r="C8" s="33">
+        <v>4230.6597222222226</v>
+      </c>
+      <c r="D8" s="33">
+        <v>15864.97388888889</v>
+      </c>
+      <c r="E8" s="33">
+        <v>26441.623055555556</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2611.1111111111113</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1384.6763888888891</v>
+      </c>
+      <c r="H8" s="33">
+        <v>2219.1705555555554</v>
+      </c>
+      <c r="I8" s="33">
+        <f t="shared" si="0"/>
+        <v>6214.9580555555558</v>
+      </c>
+      <c r="J8" s="33">
+        <v>629.72222222222217</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" si="1"/>
+        <v>749.31766666666658</v>
+      </c>
+      <c r="N8" s="33">
+        <v>3122.1569444444444</v>
+      </c>
+      <c r="O8" s="33">
+        <v>251.11111111111111</v>
+      </c>
+      <c r="P8" s="33">
+        <f t="shared" si="4"/>
+        <v>4752.3079444444447</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>965.23636111111125</v>
+      </c>
+      <c r="R8" s="33">
+        <v>555.55555555555554</v>
+      </c>
+      <c r="S8" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T8" s="33">
+        <v>29.722222222222221</v>
+      </c>
+      <c r="U8" s="33">
+        <v>130</v>
+      </c>
+      <c r="V8" s="33">
+        <v>78.932500000000005</v>
+      </c>
+      <c r="W8" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X8" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>183.49611111111111</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>209.78703708333333</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>249.66222222222223</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>476.29729666666663</v>
+      </c>
+      <c r="AC8" s="33">
+        <v>56.393120833333327</v>
+      </c>
+      <c r="AD8" s="53">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE8" s="33">
+        <v>46.761375416666667</v>
+      </c>
+      <c r="AF8" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG8" s="33">
+        <v>617.97222222222217</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" si="2"/>
+        <v>8953.1184133333354</v>
+      </c>
+      <c r="AI8" s="33">
+        <f t="shared" si="3"/>
+        <v>15168.076468888892</v>
+      </c>
+      <c r="AJ8" s="33">
+        <f>E8-AI8</f>
+        <v>11273.546586666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="54">
+        <v>44774</v>
+      </c>
+      <c r="B9" s="33">
+        <v>5398.0031388888892</v>
+      </c>
+      <c r="C9" s="33">
+        <v>3598.6686111111112</v>
+      </c>
+      <c r="D9" s="33">
+        <v>11925.820833333333</v>
+      </c>
+      <c r="E9" s="33">
+        <v>20922.492583333333</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1861.1111111111111</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1206.3266111098887</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1249.3127776333333</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="0"/>
+        <v>4316.7504998543327</v>
+      </c>
+      <c r="J9" s="33">
+        <v>625.27777777777783</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <f t="shared" si="1"/>
+        <v>708.48719333333327</v>
+      </c>
+      <c r="N9" s="33">
+        <v>2952.0299722222221</v>
+      </c>
+      <c r="O9" s="33">
+        <v>285.55555555555554</v>
+      </c>
+      <c r="P9" s="33">
+        <f t="shared" si="4"/>
+        <v>4571.350498888889</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>952.54250000000013</v>
+      </c>
+      <c r="R9" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="S9" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T9" s="33">
+        <v>58.388888888888886</v>
+      </c>
+      <c r="U9" s="33">
+        <v>90.555555555555557</v>
+      </c>
+      <c r="V9" s="33">
+        <v>70.694444444444443</v>
+      </c>
+      <c r="W9" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X9" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>164.55805555555557</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>147.39846636111113</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>151.66666666666666</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>239.13883991666665</v>
+      </c>
+      <c r="AC9" s="33">
+        <v>56.487915277777773</v>
+      </c>
+      <c r="AD9" s="53">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE9" s="33">
+        <v>149.96791666666667</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG9" s="33">
+        <v>527.77777777777783</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" si="2"/>
+        <v>8614.8553037777765</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" si="3"/>
+        <v>12931.605803632108</v>
+      </c>
+      <c r="AJ9" s="33">
+        <f>E9-AI9</f>
+        <v>7990.8867797012244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="54">
+        <v>44805</v>
+      </c>
+      <c r="B10" s="33">
+        <v>5495.2106666666668</v>
+      </c>
+      <c r="C10" s="33">
+        <v>3663.4737777777782</v>
+      </c>
+      <c r="D10" s="33">
+        <v>13738.026666666667</v>
+      </c>
+      <c r="E10" s="33">
+        <v>22896.711111111115</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2138.8888888888887</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1808.1363392896662</v>
+      </c>
+      <c r="H10" s="33">
+        <v>431.60242055555557</v>
+      </c>
+      <c r="I10" s="33">
+        <f t="shared" si="0"/>
+        <v>4378.6276487341111</v>
+      </c>
+      <c r="J10" s="33">
+        <v>487.63888888888891</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>877.77777777777783</v>
+      </c>
+      <c r="M10" s="33">
+        <f t="shared" si="1"/>
+        <v>750.76533000000018</v>
+      </c>
+      <c r="N10" s="33">
+        <v>3128.1888750000007</v>
+      </c>
+      <c r="O10" s="33">
+        <v>277.77777777777777</v>
+      </c>
+      <c r="P10" s="33">
+        <f t="shared" si="4"/>
+        <v>5522.1486494444453</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>1758.9916666666668</v>
+      </c>
+      <c r="R10" s="33">
+        <v>747.45916666666665</v>
+      </c>
+      <c r="S10" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T10" s="33">
+        <v>40.722222222222221</v>
+      </c>
+      <c r="U10" s="33">
+        <v>104.44444444444444</v>
+      </c>
+      <c r="V10" s="33">
+        <v>144.0925</v>
+      </c>
+      <c r="W10" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X10" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>130.005</v>
+      </c>
+      <c r="Z10" s="33">
+        <v>62.873881944444442</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>248.05555555555554</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>263.16228583333333</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>56.487915277777773</v>
+      </c>
+      <c r="AD10" s="53">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>170.24083333333334</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>118</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>515.02777777777783</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" si="2"/>
+        <v>10364.706343611113</v>
+      </c>
+      <c r="AI10" s="33">
+        <f>AH10+I10</f>
+        <v>14743.333992345224</v>
+      </c>
+      <c r="AJ10" s="33">
+        <f>E10-AI10</f>
+        <v>8153.3771187658913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="54">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3969.1485638888894</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2646.0990422222221</v>
+      </c>
+      <c r="D11" s="33">
+        <v>7765.7254499999999</v>
+      </c>
+      <c r="E11" s="33">
+        <v>14380.973056111112</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="G11" s="33">
+        <v>671.27221779777517</v>
+      </c>
+      <c r="H11" s="33">
+        <v>619.92006944444449</v>
+      </c>
+      <c r="I11" s="33">
+        <f t="shared" si="0"/>
+        <v>2680.0811761311084</v>
+      </c>
+      <c r="J11" s="33">
+        <v>420.83333333333331</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="1"/>
+        <v>737.37346666666667</v>
+      </c>
+      <c r="N11" s="33">
+        <v>3072.3894444444445</v>
+      </c>
+      <c r="O11" s="33">
+        <v>296.66666666666669</v>
+      </c>
+      <c r="P11" s="33">
+        <f t="shared" si="4"/>
+        <v>4527.2629111111119</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>2557.0605555555549</v>
+      </c>
+      <c r="R11" s="33">
+        <v>722.22222222222217</v>
+      </c>
+      <c r="S11" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T11" s="33">
+        <v>40</v>
+      </c>
+      <c r="U11" s="33">
+        <v>80</v>
+      </c>
+      <c r="V11" s="33">
+        <v>173.31416666666667</v>
+      </c>
+      <c r="W11" s="33">
+        <v>172.22222222222223</v>
+      </c>
+      <c r="X11" s="33">
+        <v>5.9444444444444446</v>
+      </c>
+      <c r="Y11" s="33">
+        <v>145.92555555555555</v>
+      </c>
+      <c r="Z11" s="33">
+        <v>62.979300694444447</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>216.25</v>
+      </c>
+      <c r="AB11" s="33">
+        <v>241.34652833333334</v>
+      </c>
+      <c r="AC11" s="33">
+        <v>56.675306944444444</v>
+      </c>
+      <c r="AD11" s="53">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AE11" s="33">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>128.3269383611111</v>
+      </c>
+      <c r="AG11" s="33">
+        <v>361.11111111111109</v>
+      </c>
+      <c r="AH11" s="33">
+        <f t="shared" si="2"/>
+        <v>9971.543671583333</v>
+      </c>
+      <c r="AI11" s="33">
+        <f t="shared" si="3"/>
+        <v>12651.624847714442</v>
+      </c>
+      <c r="AJ11" s="33">
+        <f>E11-AI11</f>
+        <v>1729.3482083966701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="54">
+        <v>44866</v>
+      </c>
+      <c r="B12" s="33">
+        <v>5675.9397222222215</v>
+      </c>
+      <c r="C12" s="33">
+        <v>3783.9597222222219</v>
+      </c>
+      <c r="D12" s="33">
+        <v>14796.252777777778</v>
+      </c>
+      <c r="E12" s="33">
+        <v>24256.152222222223</v>
+      </c>
+      <c r="F12" s="33">
+        <v>2172.2222222222222</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1723.8328678111111</v>
+      </c>
+      <c r="H12" s="33">
+        <v>787.54525466666666</v>
+      </c>
+      <c r="I12" s="33">
+        <f t="shared" si="0"/>
+        <v>4683.6003447000003</v>
+      </c>
+      <c r="J12" s="33">
+        <v>992.08333333333337</v>
+      </c>
+      <c r="K12" s="33">
+        <v>0</v>
+      </c>
+      <c r="L12" s="33">
+        <v>0</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" si="1"/>
+        <v>717.64178222221994</v>
+      </c>
+      <c r="N12" s="33">
+        <v>2990.1740925925833</v>
+      </c>
+      <c r="O12" s="33">
+        <v>466.66666666666669</v>
+      </c>
+      <c r="P12" s="33">
+        <f t="shared" si="4"/>
+        <v>5166.5658748148035</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>4642.1928888888888</v>
+      </c>
+      <c r="R12" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="S12" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T12" s="33">
+        <v>55.166666666666664</v>
+      </c>
+      <c r="U12" s="33">
+        <v>51.111111111111114</v>
+      </c>
+      <c r="V12" s="33">
+        <v>55.888888888888886</v>
+      </c>
+      <c r="W12" s="33">
+        <v>174.11111111111111</v>
+      </c>
+      <c r="X12" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>146.14416666666665</v>
+      </c>
+      <c r="Z12" s="33">
+        <v>433.32751041666666</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>329.72222222222223</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>183.96718194444441</v>
+      </c>
+      <c r="AC12" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD12" s="33">
+        <v>36.170499999999997</v>
+      </c>
+      <c r="AE12" s="33">
+        <v>176.07463058333332</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG12" s="33">
+        <v>541.66666666666663</v>
+      </c>
+      <c r="AH12" s="33">
+        <f t="shared" si="2"/>
+        <v>13285.801789842579</v>
+      </c>
+      <c r="AI12" s="33">
+        <f t="shared" si="3"/>
+        <v>17969.402134542579</v>
+      </c>
+      <c r="AJ12" s="33">
+        <f>E12-AI12</f>
+        <v>6286.7500876796439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="54">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="33">
+        <v>8197.7705555555549</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5465.1805555555557</v>
+      </c>
+      <c r="D13" s="33">
+        <v>16039.116388888888</v>
+      </c>
+      <c r="E13" s="33">
+        <v>29702.067499999997</v>
+      </c>
+      <c r="F13" s="33">
+        <v>3319.4444444444443</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2883.8784299999993</v>
+      </c>
+      <c r="H13" s="33">
+        <v>525.37747777777497</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="0"/>
+        <v>6728.7003522222194</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1119.0277777777778</v>
+      </c>
+      <c r="K13" s="33">
+        <v>266.77777777777777</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>888.88888888888891</v>
+      </c>
+      <c r="N13" s="33">
+        <v>4006.0438888888884</v>
+      </c>
+      <c r="O13" s="33">
+        <v>472.22222222222223</v>
+      </c>
+      <c r="P13" s="33">
+        <f t="shared" si="4"/>
+        <v>6752.9605555555554</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>940.01277777777773</v>
+      </c>
+      <c r="R13" s="33">
+        <v>627.94444444444446</v>
+      </c>
+      <c r="S13" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T13" s="33">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="U13" s="33">
+        <v>116.11111111111111</v>
+      </c>
+      <c r="V13" s="33">
+        <v>406.01888888888891</v>
+      </c>
+      <c r="W13" s="33">
+        <v>174.11111111111111</v>
+      </c>
+      <c r="X13" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>146.35694444444445</v>
+      </c>
+      <c r="Z13" s="33">
+        <v>57.617990277777785</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>354.02777777777777</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>319.55088372222218</v>
+      </c>
+      <c r="AC13" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD13" s="33">
+        <v>36.170499999999997</v>
+      </c>
+      <c r="AE13" s="33">
+        <v>196.63585922222222</v>
+      </c>
+      <c r="AF13" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG13" s="33">
+        <v>813.88888888888891</v>
+      </c>
+      <c r="AH13" s="33">
+        <f t="shared" si="2"/>
+        <v>11470.655658638889</v>
+      </c>
+      <c r="AI13" s="33">
+        <f t="shared" si="3"/>
+        <v>18199.356010861109</v>
+      </c>
+      <c r="AJ13" s="33">
+        <f>E13-AI13</f>
+        <v>11502.711489138888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="54">
+        <v>44927</v>
+      </c>
+      <c r="B14" s="45">
+        <v>11362.223050000001</v>
+      </c>
+      <c r="C14" s="45">
+        <v>4926.2308388888887</v>
+      </c>
+      <c r="D14" s="46">
+        <v>18609.989444444444</v>
+      </c>
+      <c r="E14" s="33">
+        <v>34898.443333333329</v>
+      </c>
+      <c r="F14" s="33">
+        <v>4152.7777777777774</v>
+      </c>
+      <c r="G14" s="55">
+        <v>2244.0219444444442</v>
+      </c>
+      <c r="H14" s="55">
+        <v>2203.6549999999997</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="0"/>
+        <v>8600.4547222222209</v>
+      </c>
+      <c r="J14" s="56">
+        <v>1020.1388888888889</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0</v>
+      </c>
+      <c r="L14" s="56">
+        <v>1183.3333333333333</v>
+      </c>
+      <c r="M14" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="N14" s="56">
+        <v>4358.3862222222215</v>
+      </c>
+      <c r="O14" s="57">
+        <v>565.13888888888891</v>
+      </c>
+      <c r="P14" s="33">
+        <f t="shared" si="4"/>
+        <v>7960.3306666666658</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>1306.2641666666668</v>
+      </c>
+      <c r="R14" s="33">
+        <v>805.55555555555554</v>
+      </c>
+      <c r="S14" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T14" s="56">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U14" s="56">
+        <v>118.88888888888889</v>
+      </c>
+      <c r="V14" s="46">
+        <v>202.78861111111112</v>
+      </c>
+      <c r="W14" s="33">
+        <v>174.11111111111111</v>
+      </c>
+      <c r="X14" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>146.35694444444445</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>63.27055277777778</v>
+      </c>
+      <c r="AA14" s="56">
+        <v>289.5</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>445.77148422222223</v>
+      </c>
+      <c r="AC14" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD14" s="33">
+        <v>36.170499999999997</v>
+      </c>
+      <c r="AE14" s="56">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="AF14" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG14" s="33">
+        <v>805.55555555555554</v>
+      </c>
+      <c r="AH14" s="33">
+        <f t="shared" si="2"/>
+        <v>13246.46942019444</v>
+      </c>
+      <c r="AI14" s="33">
+        <f t="shared" si="3"/>
+        <v>21846.924142416661</v>
+      </c>
+      <c r="AJ14" s="33">
+        <f>E14-AI14</f>
+        <v>13051.519190916668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="54">
+        <v>44958</v>
+      </c>
+      <c r="B15" s="33">
+        <v>6112.6362361111114</v>
+      </c>
+      <c r="C15" s="33">
+        <v>4075.0908250000002</v>
+      </c>
+      <c r="D15" s="33">
+        <v>16622.081111111111</v>
+      </c>
+      <c r="E15" s="33">
+        <v>26809.808172222223</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="33">
+        <v>1636.1069444444447</v>
+      </c>
+      <c r="H15" s="33">
+        <v>1691.2816666666668</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="0"/>
+        <v>5827.3886111111115</v>
+      </c>
+      <c r="J15" s="33">
+        <v>834.30416666666667</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="N15" s="33">
+        <v>4018.081930555556</v>
+      </c>
+      <c r="O15" s="33">
+        <v>515.13888888888891</v>
+      </c>
+      <c r="P15" s="33">
+        <f t="shared" si="4"/>
+        <v>6478.6360972222228</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>916.66666666666663</v>
+      </c>
+      <c r="R15" s="33">
+        <v>861.11111111111109</v>
+      </c>
+      <c r="S15" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T15" s="33">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U15" s="33">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="V15" s="33">
+        <v>325.30555555555554</v>
+      </c>
+      <c r="W15" s="33">
+        <v>174.11111111111111</v>
+      </c>
+      <c r="X15" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>173.10527777777779</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>63.27055277777778</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>182.5</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>894.44444444444446</v>
+      </c>
+      <c r="AC15" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD15" s="33">
+        <v>80.247243166666664</v>
+      </c>
+      <c r="AE15" s="33">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="AF15" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG15" s="33">
+        <v>777.77777777777783</v>
+      </c>
+      <c r="AH15" s="33">
+        <f t="shared" si="2"/>
+        <v>12216.090429694445</v>
+      </c>
+      <c r="AI15" s="33">
+        <f t="shared" si="3"/>
+        <v>18043.479040805556</v>
+      </c>
+      <c r="AJ15" s="33">
+        <f>E15-AI15</f>
+        <v>8766.3291314166672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="54">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="33">
+        <v>7636.8269341522582</v>
+      </c>
+      <c r="C16" s="33">
+        <v>5603.8833169390737</v>
+      </c>
+      <c r="D16" s="33">
+        <v>21306.423360019777</v>
+      </c>
+      <c r="E16" s="33">
+        <v>34547.133611111116</v>
+      </c>
+      <c r="F16" s="33">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1684.3272222222224</v>
+      </c>
+      <c r="H16" s="33">
+        <v>1902.1211111111106</v>
+      </c>
+      <c r="I16" s="33">
+        <f t="shared" si="0"/>
+        <v>6919.7816666666668</v>
+      </c>
+      <c r="J16" s="33">
+        <v>844.61111111111109</v>
+      </c>
+      <c r="K16" s="33">
+        <v>44.916666666666664</v>
+      </c>
+      <c r="L16" s="33">
+        <v>1029.5833333333333</v>
+      </c>
+      <c r="M16" s="33">
+        <v>1055.5555555555557</v>
+      </c>
+      <c r="N16" s="33">
+        <v>4245.8366444842586</v>
+      </c>
+      <c r="O16" s="33">
+        <v>498.88888888888891</v>
+      </c>
+      <c r="P16" s="33">
+        <f t="shared" si="4"/>
+        <v>7719.3922000398143</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>1444.4444444444443</v>
+      </c>
+      <c r="R16" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="S16" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T16" s="33">
+        <v>128.83333333333334</v>
+      </c>
+      <c r="U16" s="33">
+        <v>128.47222222222223</v>
+      </c>
+      <c r="V16" s="33">
+        <v>712.96624999999995</v>
+      </c>
+      <c r="W16" s="33">
+        <v>174.11111111111111</v>
+      </c>
+      <c r="X16" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>173.10527777777779</v>
+      </c>
+      <c r="Z16" s="33">
+        <v>212.23531166666669</v>
+      </c>
+      <c r="AA16" s="33">
+        <v>318.13888888888891</v>
+      </c>
+      <c r="AB16" s="33">
+        <v>926.89491277777779</v>
+      </c>
+      <c r="AC16" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>80.247243166666664</v>
+      </c>
+      <c r="AE16" s="33">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="AF16" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG16" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="AH16" s="33">
+        <f t="shared" si="2"/>
+        <v>14335.769536289814</v>
+      </c>
+      <c r="AI16" s="33">
+        <f t="shared" si="3"/>
+        <v>21255.551202956482</v>
+      </c>
+      <c r="AJ16" s="33">
+        <f>E16-AI16</f>
+        <v>13291.582408154634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="54">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="33">
+        <v>10182.808819444444</v>
+      </c>
+      <c r="C17" s="33">
+        <v>6788.5391666666665</v>
+      </c>
+      <c r="D17" s="33">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="E17" s="33">
+        <v>34010.717452777775</v>
+      </c>
+      <c r="F17" s="33">
+        <v>4055.5555555555557</v>
+      </c>
+      <c r="G17" s="33">
+        <v>3226.6750277777778</v>
+      </c>
+      <c r="H17" s="33">
+        <v>2049.2951111111111</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="0"/>
+        <v>9331.5256944444445</v>
+      </c>
+      <c r="J17" s="33">
+        <v>889.99833333333333</v>
+      </c>
+      <c r="K17" s="33">
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <v>0</v>
+      </c>
+      <c r="M17" s="33">
+        <v>1250</v>
+      </c>
+      <c r="N17" s="33">
+        <v>4731.0797836620368</v>
+      </c>
+      <c r="O17" s="33">
+        <v>486.66666666666669</v>
+      </c>
+      <c r="P17" s="33">
+        <f t="shared" si="4"/>
+        <v>7357.7447836620368</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>1418.7798666666665</v>
+      </c>
+      <c r="R17" s="33">
+        <v>958.33333333333337</v>
+      </c>
+      <c r="S17" s="33">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T17" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U17" s="33">
+        <v>127.94444444444444</v>
+      </c>
+      <c r="V17" s="33">
+        <v>210.5</v>
+      </c>
+      <c r="W17" s="33">
+        <v>216.66666666666666</v>
+      </c>
+      <c r="X17" s="33">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y17" s="33">
+        <v>173.31777777777776</v>
+      </c>
+      <c r="Z17" s="33">
+        <v>212.40887013888889</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>323.63888888888891</v>
+      </c>
+      <c r="AB17" s="33">
+        <v>840.4097613888888</v>
+      </c>
+      <c r="AC17" s="33">
+        <v>56.767590277777771</v>
+      </c>
+      <c r="AD17" s="33">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE17" s="33">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="AF17" s="33">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG17" s="33">
+        <v>861.11111111111109</v>
+      </c>
+      <c r="AH17" s="33">
+        <f t="shared" si="2"/>
+        <v>13708.110988384256</v>
+      </c>
+      <c r="AI17" s="33">
+        <f t="shared" si="3"/>
+        <v>23039.636682828699</v>
+      </c>
+      <c r="AJ17" s="33">
+        <f>E17-AI17</f>
+        <v>10971.080769949076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="54">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="58">
+        <v>7338.333333333333</v>
+      </c>
+      <c r="C18" s="58">
+        <v>5283.6402777777776</v>
+      </c>
+      <c r="D18" s="58">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="E18" s="58">
+        <v>29353.50138888889</v>
+      </c>
+      <c r="F18" s="58">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="58">
+        <v>1708.2878916666668</v>
+      </c>
+      <c r="H18" s="58">
+        <v>1519.95955</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="0"/>
+        <v>6228.2474416666664</v>
+      </c>
+      <c r="J18" s="58">
+        <v>758.76333333333343</v>
+      </c>
+      <c r="K18" s="58">
+        <v>224.58333333333334</v>
+      </c>
+      <c r="L18" s="58">
+        <v>202.22222222222223</v>
+      </c>
+      <c r="M18" s="58">
+        <v>1180.5555555555557</v>
+      </c>
+      <c r="N18" s="58">
+        <v>5018.4994444444446</v>
+      </c>
+      <c r="O18" s="58">
+        <v>471.11111111111109</v>
+      </c>
+      <c r="P18" s="33">
+        <f t="shared" si="4"/>
+        <v>7855.7350000000006</v>
+      </c>
+      <c r="Q18" s="58">
+        <v>930.55555555555554</v>
+      </c>
+      <c r="R18" s="58">
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="S18" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T18" s="58">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U18" s="58">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="V18" s="58">
+        <v>399.33749999999998</v>
+      </c>
+      <c r="W18" s="58">
+        <v>187.5</v>
+      </c>
+      <c r="X18" s="58">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>173.31777777777776</v>
+      </c>
+      <c r="Z18" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA18" s="58">
+        <v>220.83333333333334</v>
+      </c>
+      <c r="AB18" s="58">
+        <v>648.72799499999985</v>
+      </c>
+      <c r="AC18" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD18" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE18" s="58">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="AF18" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG18" s="58">
+        <v>702.77777777777783</v>
+      </c>
+      <c r="AH18" s="33">
+        <f t="shared" si="2"/>
+        <v>13649.845137638884</v>
+      </c>
+      <c r="AI18" s="33">
+        <f t="shared" si="3"/>
+        <v>19878.09257930555</v>
+      </c>
+      <c r="AJ18" s="33">
+        <f>E18-AI18</f>
+        <v>9475.4088095833395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="54">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="33">
+        <v>6458.8563888888884</v>
+      </c>
+      <c r="C19" s="33">
+        <v>4085.951111111111</v>
+      </c>
+      <c r="D19" s="33">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="E19" s="58">
+        <v>25876.828333333331</v>
+      </c>
+      <c r="F19" s="33">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="33">
+        <v>2011.0556569444441</v>
+      </c>
+      <c r="H19" s="33">
+        <v>1344.8148138888889</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="0"/>
+        <v>5855.8704708333335</v>
+      </c>
+      <c r="J19" s="33">
+        <v>110</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>944.44444444444446</v>
+      </c>
+      <c r="M19" s="33">
+        <v>1319.4444444444443</v>
+      </c>
+      <c r="N19" s="33">
+        <v>5082.6446755231482</v>
+      </c>
+      <c r="O19" s="33">
+        <v>457.77777777777777</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" si="4"/>
+        <v>7914.3113421898142</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>698.5430555555555</v>
+      </c>
+      <c r="R19" s="33">
+        <v>876.66777777777781</v>
+      </c>
+      <c r="S19" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T19" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U19" s="33">
+        <v>115</v>
+      </c>
+      <c r="V19" s="33">
+        <v>128.65333333333331</v>
+      </c>
+      <c r="W19" s="58">
+        <v>187.5</v>
+      </c>
+      <c r="X19" s="58">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y19" s="58">
+        <v>173.31777777777776</v>
+      </c>
+      <c r="Z19" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>264.80555555555554</v>
+      </c>
+      <c r="AB19" s="33">
+        <v>954.57461449999994</v>
+      </c>
+      <c r="AC19" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD19" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE19" s="33">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="AF19" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG19" s="33">
+        <v>675</v>
+      </c>
+      <c r="AH19" s="33">
+        <f t="shared" si="2"/>
+        <v>13159.165710995367</v>
+      </c>
+      <c r="AI19" s="33">
+        <f t="shared" si="3"/>
+        <v>19015.036181828698</v>
+      </c>
+      <c r="AJ19" s="33">
+        <f>E19-AI19</f>
+        <v>6861.7921515046328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="54">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="33">
+        <v>7797.3772222222224</v>
+      </c>
+      <c r="C20" s="33">
+        <v>5928.2080555555549</v>
+      </c>
+      <c r="D20" s="33">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="E20" s="58">
+        <v>34472.032222222217</v>
+      </c>
+      <c r="F20" s="33">
+        <v>3250</v>
+      </c>
+      <c r="G20" s="33">
+        <v>2152.806863888889</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1833.3412722222222</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="0"/>
+        <v>7236.1481361111109</v>
+      </c>
+      <c r="J20" s="33">
+        <v>207.22083333333333</v>
+      </c>
+      <c r="K20" s="33">
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="M20" s="33">
+        <v>1319.4444444444443</v>
+      </c>
+      <c r="N20" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O20" s="33">
+        <v>500</v>
+      </c>
+      <c r="P20" s="33">
+        <f t="shared" si="4"/>
+        <v>7660.6802561824079</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>1500</v>
+      </c>
+      <c r="R20" s="33">
+        <v>1049.9158333333335</v>
+      </c>
+      <c r="S20" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T20" s="33">
+        <v>159.44444444444446</v>
+      </c>
+      <c r="U20" s="33">
+        <v>170</v>
+      </c>
+      <c r="V20" s="33">
+        <v>702.27555555555557</v>
+      </c>
+      <c r="W20" s="58">
+        <v>187.5</v>
+      </c>
+      <c r="X20" s="58">
+        <v>6.0277777777777777</v>
+      </c>
+      <c r="Y20" s="58">
+        <v>173.31777777777776</v>
+      </c>
+      <c r="Z20" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA20" s="33">
+        <v>452.11111111111109</v>
+      </c>
+      <c r="AB20" s="33">
+        <v>649.80768499999999</v>
+      </c>
+      <c r="AC20" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD20" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE20" s="33">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="AF20" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG20" s="33">
+        <v>933.33333333333337</v>
+      </c>
+      <c r="AH20" s="33">
+        <f t="shared" si="2"/>
+        <v>14722.146600210184</v>
+      </c>
+      <c r="AI20" s="33">
+        <f t="shared" si="3"/>
+        <v>21958.294736321295</v>
+      </c>
+      <c r="AJ20" s="33">
+        <f>E20-AI20</f>
+        <v>12513.737485900921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="54">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="33">
+        <v>6600</v>
+      </c>
+      <c r="C21" s="33">
+        <v>4400</v>
+      </c>
+      <c r="D21" s="33">
+        <v>17000</v>
+      </c>
+      <c r="E21" s="33">
+        <f>SUM(B21:D21)</f>
+        <v>28000</v>
+      </c>
+      <c r="F21" s="33">
+        <f>B21*39%</f>
+        <v>2574</v>
+      </c>
+      <c r="G21" s="33">
+        <f>C21*39%</f>
+        <v>1716</v>
+      </c>
+      <c r="H21" s="33">
+        <f>D21*10%</f>
+        <v>1700</v>
+      </c>
+      <c r="I21" s="33">
+        <f t="shared" si="0"/>
+        <v>5990</v>
+      </c>
+      <c r="J21" s="33">
+        <v>300</v>
+      </c>
+      <c r="K21" s="33">
+        <v>0</v>
+      </c>
+      <c r="L21" s="33">
+        <v>0</v>
+      </c>
+      <c r="M21" s="33">
+        <f>N21*24%</f>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N21" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O21" s="33">
+        <v>500</v>
+      </c>
+      <c r="P21" s="33">
+        <f t="shared" si="4"/>
+        <v>7613.9563509995187</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>1200</v>
+      </c>
+      <c r="R21" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S21" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T21" s="33">
+        <v>159</v>
+      </c>
+      <c r="U21" s="33">
+        <v>90.555555555555557</v>
+      </c>
+      <c r="V21" s="33">
+        <v>70.694444444444443</v>
+      </c>
+      <c r="W21" s="33">
+        <v>190</v>
+      </c>
+      <c r="X21" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z21" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>250</v>
+      </c>
+      <c r="AB21" s="33">
+        <f>D21*4%</f>
+        <v>680</v>
+      </c>
+      <c r="AC21" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD21" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF21" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG21" s="33">
+        <f>E21*3%</f>
+        <v>840</v>
+      </c>
+      <c r="AH21" s="33">
+        <f t="shared" si="2"/>
+        <v>13439.455463777294</v>
+      </c>
+      <c r="AI21" s="33">
+        <f t="shared" si="3"/>
+        <v>19429.455463777296</v>
+      </c>
+      <c r="AJ21" s="33">
+        <f t="shared" ref="AJ21:AJ49" si="5">E21-AI21</f>
+        <v>8570.5445362227038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="54">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="33">
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="C22" s="33">
+        <v>3919.916942222223</v>
+      </c>
+      <c r="D22" s="33">
+        <v>14699.688533333334</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" ref="E22:E49" si="6">SUM(B22:D22)</f>
+        <v>24499.480888888891</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" ref="F22:F49" si="7">B22*39%</f>
+        <v>2293.1514112000004</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" ref="G22:G49" si="8">C22*39%</f>
+        <v>1528.767607466667</v>
+      </c>
+      <c r="H22" s="33">
+        <f t="shared" ref="H22:H48" si="9">D22*10%</f>
+        <v>1469.9688533333335</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="0"/>
+        <v>5291.8878720000012</v>
+      </c>
+      <c r="J22" s="33">
+        <v>300</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1200</v>
+      </c>
+      <c r="M22" s="33">
+        <f t="shared" ref="M22:M49" si="10">N22*24%</f>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N22" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O22" s="33">
+        <v>500</v>
+      </c>
+      <c r="P22" s="33">
+        <f t="shared" si="4"/>
+        <v>8813.9563509995187</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>1200</v>
+      </c>
+      <c r="R22" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S22" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T22" s="33">
+        <v>140</v>
+      </c>
+      <c r="U22" s="33">
+        <v>104.44444444444444</v>
+      </c>
+      <c r="V22" s="33">
+        <v>144.0925</v>
+      </c>
+      <c r="W22" s="33">
+        <v>190</v>
+      </c>
+      <c r="X22" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z22" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA22" s="33">
+        <v>250</v>
+      </c>
+      <c r="AB22" s="33">
+        <f t="shared" ref="AB22:AB49" si="11">D22*4%</f>
+        <v>587.98754133333341</v>
+      </c>
+      <c r="AC22" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD22" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE22" s="33">
+        <v>240</v>
+      </c>
+      <c r="AF22" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG22" s="33">
+        <f t="shared" ref="AG22:AG49" si="12">E22*3%</f>
+        <v>734.98442666666665</v>
+      </c>
+      <c r="AH22" s="33">
+        <f t="shared" si="2"/>
+        <v>14550.71437622174</v>
+      </c>
+      <c r="AI22" s="33">
+        <f t="shared" si="3"/>
+        <v>19842.602248221741</v>
+      </c>
+      <c r="AJ22" s="33">
+        <f t="shared" si="5"/>
+        <v>4656.8786406671497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="54">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="33">
+        <v>4246.9889631233336</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2831.3259754155561</v>
+      </c>
+      <c r="D23" s="33">
+        <v>8309.3262315000011</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="6"/>
+        <v>15387.641170038891</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="7"/>
+        <v>1656.3256956181001</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="8"/>
+        <v>1104.2171304120668</v>
+      </c>
+      <c r="H23" s="33">
+        <f t="shared" si="9"/>
+        <v>830.93262315000015</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" si="0"/>
+        <v>3591.4754491801668</v>
+      </c>
+      <c r="J23" s="33">
+        <v>300</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N23" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O23" s="33">
+        <v>500</v>
+      </c>
+      <c r="P23" s="33">
+        <f t="shared" si="4"/>
+        <v>7613.9563509995187</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>1400</v>
+      </c>
+      <c r="R23" s="33">
+        <v>850</v>
+      </c>
+      <c r="S23" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T23" s="33">
+        <v>65</v>
+      </c>
+      <c r="U23" s="33">
+        <v>80</v>
+      </c>
+      <c r="V23" s="33">
+        <v>173.31416666666667</v>
+      </c>
+      <c r="W23" s="33">
+        <v>190</v>
+      </c>
+      <c r="X23" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z23" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>250</v>
+      </c>
+      <c r="AB23" s="33">
+        <f t="shared" si="11"/>
+        <v>332.37304926000007</v>
+      </c>
+      <c r="AC23" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD23" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE23" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF23" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG23" s="33">
+        <f t="shared" si="12"/>
+        <v>461.62923510116673</v>
+      </c>
+      <c r="AH23" s="33">
+        <f t="shared" si="2"/>
+        <v>12561.521914805129</v>
+      </c>
+      <c r="AI23" s="33">
+        <f t="shared" si="3"/>
+        <v>16152.997363985296</v>
+      </c>
+      <c r="AJ23" s="33">
+        <f t="shared" si="5"/>
+        <v>-765.35619394640526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="54">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="33">
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="C24" s="33">
+        <v>4162.3557555555553</v>
+      </c>
+      <c r="D24" s="33">
+        <v>16275.878055555557</v>
+      </c>
+      <c r="E24" s="33">
+        <f t="shared" si="6"/>
+        <v>26681.767444444446</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="7"/>
+        <v>2434.9781170000001</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" si="8"/>
+        <v>1623.3187446666666</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" si="9"/>
+        <v>1627.5878055555559</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" si="0"/>
+        <v>5685.8846672222226</v>
+      </c>
+      <c r="J24" s="33">
+        <v>300</v>
+      </c>
+      <c r="K24" s="33">
+        <v>0</v>
+      </c>
+      <c r="L24" s="33">
+        <v>0</v>
+      </c>
+      <c r="M24" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N24" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O24" s="33">
+        <v>500</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" si="4"/>
+        <v>7613.9563509995187</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>1400</v>
+      </c>
+      <c r="R24" s="33">
+        <v>950</v>
+      </c>
+      <c r="S24" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T24" s="33">
+        <v>75</v>
+      </c>
+      <c r="U24" s="33">
+        <v>51.111111111111114</v>
+      </c>
+      <c r="V24" s="33">
+        <v>55.888888888888886</v>
+      </c>
+      <c r="W24" s="33">
+        <v>190</v>
+      </c>
+      <c r="X24" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z24" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA24" s="33">
+        <v>275</v>
+      </c>
+      <c r="AB24" s="33">
+        <f t="shared" si="11"/>
+        <v>651.0351222222223</v>
+      </c>
+      <c r="AC24" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD24" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE24" s="33">
+        <v>290</v>
+      </c>
+      <c r="AF24" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG24" s="33">
+        <f t="shared" si="12"/>
+        <v>800.45302333333336</v>
+      </c>
+      <c r="AH24" s="33">
+        <f t="shared" si="2"/>
+        <v>13297.69360933285</v>
+      </c>
+      <c r="AI24" s="33">
+        <f t="shared" si="3"/>
+        <v>18983.578276555072</v>
+      </c>
+      <c r="AJ24" s="33">
+        <f t="shared" si="5"/>
+        <v>7698.1891678893735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="54">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="33">
+        <v>9017.5477333333347</v>
+      </c>
+      <c r="C25" s="33">
+        <v>6011.6984888888901</v>
+      </c>
+      <c r="D25" s="33">
+        <v>17643.028027777778</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="6"/>
+        <v>32672.274250000002</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="7"/>
+        <v>3516.8436160000006</v>
+      </c>
+      <c r="G25" s="33">
+        <f t="shared" si="8"/>
+        <v>2344.5624106666673</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="9"/>
+        <v>1764.302802777778</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="0"/>
+        <v>7625.7088294444457</v>
+      </c>
+      <c r="J25" s="33">
+        <v>300</v>
+      </c>
+      <c r="K25" s="33">
+        <v>300</v>
+      </c>
+      <c r="L25" s="33">
+        <v>0</v>
+      </c>
+      <c r="M25" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N25" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O25" s="33">
+        <v>500</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="4"/>
+        <v>7913.9563509995187</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R25" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S25" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T25" s="33">
+        <v>160</v>
+      </c>
+      <c r="U25" s="33">
+        <v>116.11111111111111</v>
+      </c>
+      <c r="V25" s="33">
+        <v>406.01888888888891</v>
+      </c>
+      <c r="W25" s="33">
+        <v>190</v>
+      </c>
+      <c r="X25" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z25" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA25" s="33">
+        <v>275</v>
+      </c>
+      <c r="AB25" s="33">
+        <f t="shared" si="11"/>
+        <v>705.72112111111119</v>
+      </c>
+      <c r="AC25" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD25" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE25" s="33">
+        <v>300</v>
+      </c>
+      <c r="AF25" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG25" s="33">
+        <f t="shared" si="12"/>
+        <v>980.16822750000006</v>
+      </c>
+      <c r="AH25" s="33">
+        <f t="shared" si="2"/>
+        <v>14492.224812388407</v>
+      </c>
+      <c r="AI25" s="33">
+        <f t="shared" si="3"/>
+        <v>22117.933641832853</v>
+      </c>
+      <c r="AJ25" s="33">
+        <f t="shared" si="5"/>
+        <v>10554.340608167149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="54">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="33">
+        <v>10017.399141666665</v>
+      </c>
+      <c r="C26" s="33">
+        <v>6678.2660944444433</v>
+      </c>
+      <c r="D26" s="33">
+        <v>19069.495356652948</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="6"/>
+        <v>35765.160592764056</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="7"/>
+        <v>3906.7856652499995</v>
+      </c>
+      <c r="G26" s="33">
+        <f t="shared" si="8"/>
+        <v>2604.5237768333332</v>
+      </c>
+      <c r="H26" s="33">
+        <f t="shared" si="9"/>
+        <v>1906.9495356652949</v>
+      </c>
+      <c r="I26" s="33">
+        <f t="shared" si="0"/>
+        <v>8418.2589777486282</v>
+      </c>
+      <c r="J26" s="33">
+        <v>300</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0</v>
+      </c>
+      <c r="L26" s="56">
+        <v>1183.3333333333333</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N26" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O26" s="33">
+        <v>500</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="4"/>
+        <v>8797.2896843328526</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="33">
+        <v>850</v>
+      </c>
+      <c r="S26" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T26" s="56">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U26" s="56">
+        <v>118.88888888888889</v>
+      </c>
+      <c r="V26" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W26" s="33">
+        <v>190</v>
+      </c>
+      <c r="X26" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z26" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA26" s="33">
+        <v>275</v>
+      </c>
+      <c r="AB26" s="33">
+        <f t="shared" si="11"/>
+        <v>762.77981426611791</v>
+      </c>
+      <c r="AC26" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD26" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE26" s="56">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="AF26" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG26" s="33">
+        <f t="shared" si="12"/>
+        <v>1072.9548177829217</v>
+      </c>
+      <c r="AH26" s="33">
+        <f t="shared" si="2"/>
+        <v>14819.625331381889</v>
+      </c>
+      <c r="AI26" s="33">
+        <f t="shared" si="3"/>
+        <v>23237.884309130517</v>
+      </c>
+      <c r="AJ26" s="33">
+        <f t="shared" si="5"/>
+        <v>12527.276283633539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="54">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="33">
+        <v>6300.7173516410267</v>
+      </c>
+      <c r="C27" s="33">
+        <v>4200.4782344273508</v>
+      </c>
+      <c r="D27" s="33">
+        <v>17027.497723577235</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="6"/>
+        <v>27528.693309645612</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" si="7"/>
+        <v>2457.2797671400003</v>
+      </c>
+      <c r="G27" s="33">
+        <f t="shared" si="8"/>
+        <v>1638.1865114266668</v>
+      </c>
+      <c r="H27" s="33">
+        <f t="shared" si="9"/>
+        <v>1702.7497723577235</v>
+      </c>
+      <c r="I27" s="33">
+        <f t="shared" si="0"/>
+        <v>5798.2160509243904</v>
+      </c>
+      <c r="J27" s="33">
+        <v>300</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0</v>
+      </c>
+      <c r="L27" s="33">
+        <v>0</v>
+      </c>
+      <c r="M27" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N27" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O27" s="33">
+        <v>500</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="4"/>
+        <v>7613.9563509995187</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>900</v>
+      </c>
+      <c r="R27" s="33">
+        <v>870</v>
+      </c>
+      <c r="S27" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T27" s="33">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U27" s="33">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="V27" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W27" s="33">
+        <v>190</v>
+      </c>
+      <c r="X27" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z27" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>275</v>
+      </c>
+      <c r="AB27" s="33">
+        <f t="shared" si="11"/>
+        <v>681.09990894308942</v>
+      </c>
+      <c r="AC27" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD27" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE27" s="33">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="AF27" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG27" s="33">
+        <f t="shared" si="12"/>
+        <v>825.86079928936829</v>
+      </c>
+      <c r="AH27" s="33">
+        <f t="shared" si="2"/>
+        <v>13505.638394231975</v>
+      </c>
+      <c r="AI27" s="33">
+        <f t="shared" si="3"/>
+        <v>19303.854445156365</v>
+      </c>
+      <c r="AJ27" s="33">
+        <f t="shared" si="5"/>
+        <v>8224.8388644892475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="54">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="33">
+        <v>7626.6491046286064</v>
+      </c>
+      <c r="C28" s="33">
+        <v>5084.4327364190722</v>
+      </c>
+      <c r="D28" s="33">
+        <v>20486.945538480555</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="6"/>
+        <v>33198.027379528234</v>
+      </c>
+      <c r="F28" s="33">
+        <f t="shared" si="7"/>
+        <v>2974.3931508051564</v>
+      </c>
+      <c r="G28" s="33">
+        <f t="shared" si="8"/>
+        <v>1982.9287672034382</v>
+      </c>
+      <c r="H28" s="33">
+        <f t="shared" si="9"/>
+        <v>2048.6945538480554</v>
+      </c>
+      <c r="I28" s="33">
+        <f t="shared" si="0"/>
+        <v>7006.0164718566502</v>
+      </c>
+      <c r="J28" s="33">
+        <v>300</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33">
+        <v>1029.5833333333333</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N28" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O28" s="33">
+        <v>500</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="4"/>
+        <v>8643.5396843328526</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>900</v>
+      </c>
+      <c r="R28" s="33">
+        <v>860</v>
+      </c>
+      <c r="S28" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T28" s="33">
+        <v>128.83333333333334</v>
+      </c>
+      <c r="U28" s="33">
+        <v>128.47222222222223</v>
+      </c>
+      <c r="V28" s="33">
+        <v>261.44444444444446</v>
+      </c>
+      <c r="W28" s="33">
+        <v>190</v>
+      </c>
+      <c r="X28" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z28" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA28" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB28" s="33">
+        <f t="shared" si="11"/>
+        <v>819.47782153922219</v>
+      </c>
+      <c r="AC28" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD28" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE28" s="33">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="AF28" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG28" s="33">
+        <f t="shared" si="12"/>
+        <v>995.94082138584702</v>
+      </c>
+      <c r="AH28" s="33">
+        <f t="shared" si="2"/>
+        <v>14362.860077702366</v>
+      </c>
+      <c r="AI28" s="33">
+        <f t="shared" si="3"/>
+        <v>21368.876549559016</v>
+      </c>
+      <c r="AJ28" s="33">
+        <f t="shared" si="5"/>
+        <v>11829.150829969218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="54">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="33">
+        <v>9823.4155401960779</v>
+      </c>
+      <c r="C29" s="33">
+        <v>6548.9436934640526</v>
+      </c>
+      <c r="D29" s="33">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="E29" s="33">
+        <f t="shared" si="6"/>
+        <v>33411.728700326799</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="7"/>
+        <v>3831.1320606764707</v>
+      </c>
+      <c r="G29" s="33">
+        <f t="shared" si="8"/>
+        <v>2554.0880404509808</v>
+      </c>
+      <c r="H29" s="33">
+        <f t="shared" si="9"/>
+        <v>1703.9369466666667</v>
+      </c>
+      <c r="I29" s="33">
+        <f t="shared" si="0"/>
+        <v>8089.1570477941186</v>
+      </c>
+      <c r="J29" s="33">
+        <v>300</v>
+      </c>
+      <c r="K29" s="33">
+        <v>0</v>
+      </c>
+      <c r="L29" s="33">
+        <v>0</v>
+      </c>
+      <c r="M29" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N29" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O29" s="33">
+        <v>500</v>
+      </c>
+      <c r="P29" s="33">
+        <f t="shared" si="4"/>
+        <v>7613.9563509995187</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>900</v>
+      </c>
+      <c r="R29" s="33">
+        <v>1000</v>
+      </c>
+      <c r="S29" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T29" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U29" s="33">
+        <v>127.94444444444444</v>
+      </c>
+      <c r="V29" s="33">
+        <v>193.11111111111111</v>
+      </c>
+      <c r="W29" s="33">
+        <v>190</v>
+      </c>
+      <c r="X29" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z29" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB29" s="33">
+        <f t="shared" si="11"/>
+        <v>681.5747786666667</v>
+      </c>
+      <c r="AC29" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD29" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE29" s="33">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="AF29" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG29" s="33">
+        <f t="shared" si="12"/>
+        <v>1002.351861009804</v>
+      </c>
+      <c r="AH29" s="33">
+        <f t="shared" si="2"/>
+        <v>13410.132856787099</v>
+      </c>
+      <c r="AI29" s="33">
+        <f t="shared" si="3"/>
+        <v>21499.289904581216</v>
+      </c>
+      <c r="AJ29" s="33">
+        <f t="shared" si="5"/>
+        <v>11912.438795745584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="54">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="33">
+        <v>6058.547333333333</v>
+      </c>
+      <c r="C30" s="33">
+        <v>4039.0315555555558</v>
+      </c>
+      <c r="D30" s="33">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="6"/>
+        <v>26829.106666666667</v>
+      </c>
+      <c r="F30" s="33">
+        <f t="shared" si="7"/>
+        <v>2362.8334599999998</v>
+      </c>
+      <c r="G30" s="33">
+        <f t="shared" si="8"/>
+        <v>1575.2223066666668</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="9"/>
+        <v>1673.1527777777778</v>
+      </c>
+      <c r="I30" s="33">
+        <f t="shared" si="0"/>
+        <v>5611.2085444444438</v>
+      </c>
+      <c r="J30" s="33">
+        <v>300</v>
+      </c>
+      <c r="K30" s="33">
+        <v>0</v>
+      </c>
+      <c r="L30" s="58">
+        <v>202.22222222222223</v>
+      </c>
+      <c r="M30" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N30" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O30" s="33">
+        <v>500</v>
+      </c>
+      <c r="P30" s="33">
+        <f t="shared" si="4"/>
+        <v>7816.1785732217413</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R30" s="58">
+        <v>1200</v>
+      </c>
+      <c r="S30" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T30" s="58">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U30" s="58">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="V30" s="51">
+        <v>401.14444444444445</v>
+      </c>
+      <c r="W30" s="33">
+        <v>190</v>
+      </c>
+      <c r="X30" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z30" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA30" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB30" s="33">
+        <f t="shared" si="11"/>
+        <v>669.26111111111106</v>
+      </c>
+      <c r="AC30" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD30" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE30" s="58">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="AF30" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG30" s="33">
+        <f t="shared" si="12"/>
+        <v>804.8732</v>
+      </c>
+      <c r="AH30" s="33">
+        <f t="shared" si="2"/>
+        <v>14226.823082527293</v>
+      </c>
+      <c r="AI30" s="33">
+        <f t="shared" si="3"/>
+        <v>19838.031626971737</v>
+      </c>
+      <c r="AJ30" s="33">
+        <f t="shared" si="5"/>
+        <v>6991.0750396949297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="54">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="33">
+        <v>3893.4673846153837</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2595.6449230769231</v>
+      </c>
+      <c r="D31" s="33">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="6"/>
+        <v>21821.133141025639</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="7"/>
+        <v>1518.4522799999997</v>
+      </c>
+      <c r="G31" s="33">
+        <f t="shared" si="8"/>
+        <v>1012.30152</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" si="9"/>
+        <v>1533.2020833333336</v>
+      </c>
+      <c r="I31" s="33">
+        <f t="shared" si="0"/>
+        <v>4063.9558833333331</v>
+      </c>
+      <c r="J31" s="33">
+        <v>300</v>
+      </c>
+      <c r="K31" s="33">
+        <v>300</v>
+      </c>
+      <c r="L31" s="33">
+        <v>944.44444444444446</v>
+      </c>
+      <c r="M31" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N31" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O31" s="33">
+        <v>500</v>
+      </c>
+      <c r="P31" s="33">
+        <f t="shared" si="4"/>
+        <v>8858.4007954439621</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>1400</v>
+      </c>
+      <c r="R31" s="33">
+        <v>900</v>
+      </c>
+      <c r="S31" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T31" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U31" s="33">
+        <v>115</v>
+      </c>
+      <c r="V31" s="51">
+        <v>126.44999999999999</v>
+      </c>
+      <c r="W31" s="33">
+        <v>190</v>
+      </c>
+      <c r="X31" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z31" s="58">
+        <v>212.58868180555552</v>
+      </c>
+      <c r="AA31" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB31" s="33">
+        <f t="shared" si="11"/>
+        <v>613.28083333333336</v>
+      </c>
+      <c r="AC31" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD31" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE31" s="33">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="AF31" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG31" s="33">
+        <f t="shared" si="12"/>
+        <v>654.63399423076919</v>
+      </c>
+      <c r="AH31" s="33">
+        <f t="shared" si="2"/>
+        <v>14509.530099535841</v>
+      </c>
+      <c r="AI31" s="33">
+        <f t="shared" si="3"/>
+        <v>18573.485982869173</v>
+      </c>
+      <c r="AJ31" s="33">
+        <f t="shared" si="5"/>
+        <v>3247.6471581564656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" s="54">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="33">
+        <v>7058.8724285714279</v>
+      </c>
+      <c r="C32" s="33">
+        <v>4705.9149523809529</v>
+      </c>
+      <c r="D32" s="33">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" si="6"/>
+        <v>32511.234325396825</v>
+      </c>
+      <c r="F32" s="33">
+        <f t="shared" si="7"/>
+        <v>2752.960247142857</v>
+      </c>
+      <c r="G32" s="33">
+        <f t="shared" si="8"/>
+        <v>1835.3068314285717</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" si="9"/>
+        <v>2074.6446944444447</v>
+      </c>
+      <c r="I32" s="33">
+        <f t="shared" si="0"/>
+        <v>6662.9117730158741</v>
+      </c>
+      <c r="J32" s="33">
+        <v>300</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0</v>
+      </c>
+      <c r="L32" s="33">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="M32" s="33">
+        <f t="shared" si="10"/>
+        <v>1318.8302614837778</v>
+      </c>
+      <c r="N32" s="33">
+        <v>5495.1260895157411</v>
+      </c>
+      <c r="O32" s="33">
+        <v>500</v>
+      </c>
+      <c r="P32" s="33">
+        <f t="shared" si="4"/>
+        <v>7752.8452398884074</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R32" s="33">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T32" s="33">
+        <v>159.44444444444446</v>
+      </c>
+      <c r="U32" s="33">
+        <v>170</v>
+      </c>
+      <c r="V32" s="33">
+        <v>78.932500000000005</v>
+      </c>
+      <c r="W32" s="33">
+        <v>190</v>
+      </c>
+      <c r="X32" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z32" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB32" s="33">
+        <f t="shared" si="11"/>
+        <v>829.85787777777773</v>
+      </c>
+      <c r="AC32" s="58">
+        <v>57.145512499999995</v>
+      </c>
+      <c r="AD32" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE32" s="33">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="AF32" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG32" s="33">
+        <f t="shared" si="12"/>
+        <v>975.33702976190466</v>
+      </c>
+      <c r="AH32" s="33">
+        <f t="shared" si="2"/>
+        <v>14138.561235761423</v>
+      </c>
+      <c r="AI32" s="33">
+        <f t="shared" si="3"/>
+        <v>20801.473008777299</v>
+      </c>
+      <c r="AJ32" s="33">
+        <f t="shared" si="5"/>
+        <v>11709.761316619526</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="54">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="33">
+        <v>9900</v>
+      </c>
+      <c r="C33" s="33">
+        <v>6600</v>
+      </c>
+      <c r="D33" s="33">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" si="6"/>
+        <v>33500</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="7"/>
+        <v>3861</v>
+      </c>
+      <c r="G33" s="33">
+        <f t="shared" si="8"/>
+        <v>2574</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="9"/>
+        <v>1700</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" si="0"/>
+        <v>8135</v>
+      </c>
+      <c r="J33" s="33">
+        <v>300</v>
+      </c>
+      <c r="K33" s="33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="33">
+        <f>N33*24%</f>
+        <v>1356</v>
+      </c>
+      <c r="N33" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O33" s="33">
+        <v>500</v>
+      </c>
+      <c r="P33" s="33">
+        <f t="shared" si="4"/>
+        <v>7806</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S33" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T33" s="33">
+        <v>159</v>
+      </c>
+      <c r="U33" s="33">
+        <v>90.555555555555557</v>
+      </c>
+      <c r="V33" s="33">
+        <v>70.694444444444443</v>
+      </c>
+      <c r="W33" s="33">
+        <v>190</v>
+      </c>
+      <c r="X33" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z33" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB33" s="33">
+        <f t="shared" si="11"/>
+        <v>680</v>
+      </c>
+      <c r="AC33" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD33" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE33" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF33" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG33" s="33">
+        <f t="shared" si="12"/>
+        <v>1005</v>
+      </c>
+      <c r="AH33" s="33">
+        <f t="shared" si="2"/>
+        <v>13666.764918472221</v>
+      </c>
+      <c r="AI33" s="33">
+        <f t="shared" si="3"/>
+        <v>21801.764918472221</v>
+      </c>
+      <c r="AJ33" s="33">
+        <f t="shared" si="5"/>
+        <v>11698.235081527779</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A34" s="54">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="33">
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="C34" s="33">
+        <v>3919.916942222223</v>
+      </c>
+      <c r="D34" s="33">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="E34" s="33">
+        <f t="shared" si="6"/>
+        <v>25528.459086222225</v>
+      </c>
+      <c r="F34" s="33">
+        <f t="shared" si="7"/>
+        <v>2293.1514112000004</v>
+      </c>
+      <c r="G34" s="33">
+        <f t="shared" si="8"/>
+        <v>1528.767607466667</v>
+      </c>
+      <c r="H34" s="33">
+        <f t="shared" si="9"/>
+        <v>1572.8666730666669</v>
+      </c>
+      <c r="I34" s="33">
+        <f t="shared" si="0"/>
+        <v>5394.7856917333338</v>
+      </c>
+      <c r="J34" s="33">
+        <v>300</v>
+      </c>
+      <c r="K34" s="33">
+        <v>0</v>
+      </c>
+      <c r="L34" s="33">
+        <v>1200</v>
+      </c>
+      <c r="M34" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N34" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O34" s="33">
+        <v>530</v>
+      </c>
+      <c r="P34" s="33">
+        <f t="shared" si="4"/>
+        <v>9036</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R34" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S34" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T34" s="33">
+        <v>140</v>
+      </c>
+      <c r="U34" s="33">
+        <v>104.44444444444444</v>
+      </c>
+      <c r="V34" s="33">
+        <v>144.0925</v>
+      </c>
+      <c r="W34" s="33">
+        <v>190</v>
+      </c>
+      <c r="X34" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z34" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB34" s="33">
+        <f t="shared" si="11"/>
+        <v>629.14666922666675</v>
+      </c>
+      <c r="AC34" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD34" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE34" s="33">
+        <v>240</v>
+      </c>
+      <c r="AF34" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG34" s="33">
+        <f t="shared" si="12"/>
+        <v>765.85377258666676</v>
+      </c>
+      <c r="AH34" s="33">
+        <f t="shared" si="2"/>
+        <v>14715.052304730001</v>
+      </c>
+      <c r="AI34" s="33">
+        <f t="shared" si="3"/>
+        <v>20109.837996463335</v>
+      </c>
+      <c r="AJ34" s="33">
+        <f t="shared" si="5"/>
+        <v>5418.6210897588899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" s="54">
+        <v>45566</v>
+      </c>
+      <c r="B35" s="33">
+        <v>5096.3867557479998</v>
+      </c>
+      <c r="C35" s="33">
+        <v>3397.591170498667</v>
+      </c>
+      <c r="D35" s="33">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="E35" s="33">
+        <f t="shared" si="6"/>
+        <v>17384.95699395167</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="7"/>
+        <v>1987.5908347417201</v>
+      </c>
+      <c r="G35" s="33">
+        <f t="shared" si="8"/>
+        <v>1325.0605564944801</v>
+      </c>
+      <c r="H35" s="33">
+        <f t="shared" si="9"/>
+        <v>889.09790677050023</v>
+      </c>
+      <c r="I35" s="33">
+        <f t="shared" si="0"/>
+        <v>4201.7492980067</v>
+      </c>
+      <c r="J35" s="33">
+        <v>300</v>
+      </c>
+      <c r="K35" s="33">
+        <v>0</v>
+      </c>
+      <c r="L35" s="33">
+        <v>0</v>
+      </c>
+      <c r="M35" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N35" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O35" s="33">
+        <v>530</v>
+      </c>
+      <c r="P35" s="33">
+        <f t="shared" si="4"/>
+        <v>7836</v>
+      </c>
+      <c r="Q35" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R35" s="33">
+        <v>850</v>
+      </c>
+      <c r="S35" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T35" s="33">
+        <v>65</v>
+      </c>
+      <c r="U35" s="33">
+        <v>80</v>
+      </c>
+      <c r="V35" s="33">
+        <v>173.31416666666667</v>
+      </c>
+      <c r="W35" s="33">
+        <v>190</v>
+      </c>
+      <c r="X35" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z35" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA35" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB35" s="33">
+        <f t="shared" si="11"/>
+        <v>355.6391627082001</v>
+      </c>
+      <c r="AC35" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD35" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE35" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF35" s="58">
+        <v>128.53589069444445</v>
+      </c>
+      <c r="AG35" s="33">
+        <f t="shared" si="12"/>
+        <v>521.54870981855004</v>
+      </c>
+      <c r="AH35" s="33">
+        <f t="shared" si="2"/>
+        <v>12837.016957665637</v>
+      </c>
+      <c r="AI35" s="33">
+        <f t="shared" si="3"/>
+        <v>17038.766255672337</v>
+      </c>
+      <c r="AJ35" s="33">
+        <f t="shared" si="5"/>
+        <v>346.19073827933244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" s="54">
+        <v>45597</v>
+      </c>
+      <c r="B36" s="33">
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="C36" s="33">
+        <v>4162.3557555555553</v>
+      </c>
+      <c r="D36" s="33">
+        <v>16792.572597001767</v>
+      </c>
+      <c r="E36" s="33">
+        <f t="shared" si="6"/>
+        <v>27198.461985890655</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="7"/>
+        <v>2434.9781170000001</v>
+      </c>
+      <c r="G36" s="33">
+        <f t="shared" si="8"/>
+        <v>1623.3187446666666</v>
+      </c>
+      <c r="H36" s="33">
+        <f t="shared" si="9"/>
+        <v>1679.2572597001767</v>
+      </c>
+      <c r="I36" s="33">
+        <f t="shared" si="0"/>
+        <v>5737.5541213668439</v>
+      </c>
+      <c r="J36" s="33">
+        <v>400</v>
+      </c>
+      <c r="K36" s="33">
+        <v>0</v>
+      </c>
+      <c r="L36" s="33">
+        <v>0</v>
+      </c>
+      <c r="M36" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N36" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O36" s="33">
+        <v>530</v>
+      </c>
+      <c r="P36" s="33">
+        <f t="shared" si="4"/>
+        <v>7936</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R36" s="33">
+        <v>950</v>
+      </c>
+      <c r="S36" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T36" s="33">
+        <v>75</v>
+      </c>
+      <c r="U36" s="33">
+        <v>51.111111111111114</v>
+      </c>
+      <c r="V36" s="33">
+        <v>55.888888888888886</v>
+      </c>
+      <c r="W36" s="33">
+        <v>190</v>
+      </c>
+      <c r="X36" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="33">
+        <v>180</v>
+      </c>
+      <c r="Z36" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA36" s="33">
+        <v>300</v>
+      </c>
+      <c r="AB36" s="33">
+        <f t="shared" si="11"/>
+        <v>671.70290388007072</v>
+      </c>
+      <c r="AC36" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD36" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE36" s="33">
+        <v>290</v>
+      </c>
+      <c r="AF36" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG36" s="33">
+        <f t="shared" si="12"/>
+        <v>815.95385957671965</v>
+      </c>
+      <c r="AH36" s="33">
+        <f t="shared" si="2"/>
+        <v>13301.17168192901</v>
+      </c>
+      <c r="AI36" s="33">
+        <f t="shared" si="3"/>
+        <v>19038.725803295856</v>
+      </c>
+      <c r="AJ36" s="33">
+        <f t="shared" si="5"/>
+        <v>8159.7361825947992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="54">
+        <v>45627</v>
+      </c>
+      <c r="B37" s="33">
+        <v>8487.1037490196086</v>
+      </c>
+      <c r="C37" s="33">
+        <v>5658.0691660130733</v>
+      </c>
+      <c r="D37" s="33">
+        <v>18063.10012367725</v>
+      </c>
+      <c r="E37" s="33">
+        <f t="shared" si="6"/>
+        <v>32208.273038709933</v>
+      </c>
+      <c r="F37" s="33">
+        <f>B37*39%</f>
+        <v>3309.9704621176475</v>
+      </c>
+      <c r="G37" s="33">
+        <f t="shared" si="8"/>
+        <v>2206.6469747450988</v>
+      </c>
+      <c r="H37" s="33">
+        <f t="shared" si="9"/>
+        <v>1806.310012367725</v>
+      </c>
+      <c r="I37" s="33">
+        <f t="shared" si="0"/>
+        <v>7322.9274492304712</v>
+      </c>
+      <c r="J37" s="33">
+        <v>400</v>
+      </c>
+      <c r="K37" s="33">
+        <v>300</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0</v>
+      </c>
+      <c r="M37" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N37" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O37" s="33">
+        <v>530</v>
+      </c>
+      <c r="P37" s="33">
+        <f t="shared" si="4"/>
+        <v>8236</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>900</v>
+      </c>
+      <c r="R37" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S37" s="58">
+        <v>269.02777777777777</v>
+      </c>
+      <c r="T37" s="33">
+        <v>160</v>
+      </c>
+      <c r="U37" s="33">
+        <v>116.11111111111111</v>
+      </c>
+      <c r="V37" s="33">
+        <v>406.01888888888891</v>
+      </c>
+      <c r="W37" s="33">
+        <v>190</v>
+      </c>
+      <c r="X37" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z37" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA37" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB37" s="33">
+        <f t="shared" si="11"/>
+        <v>722.52400494709002</v>
+      </c>
+      <c r="AC37" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD37" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE37" s="33">
+        <v>300</v>
+      </c>
+      <c r="AF37" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG37" s="33">
+        <f t="shared" si="12"/>
+        <v>966.248191161298</v>
+      </c>
+      <c r="AH37" s="33">
+        <f t="shared" si="2"/>
+        <v>14532.41711458061</v>
+      </c>
+      <c r="AI37" s="33">
+        <f t="shared" si="3"/>
+        <v>21855.344563811082</v>
+      </c>
+      <c r="AJ37" s="33">
+        <f t="shared" si="5"/>
+        <v>10352.92847489885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="54">
+        <v>45658</v>
+      </c>
+      <c r="B38" s="33">
+        <v>10383.889354166664</v>
+      </c>
+      <c r="C38" s="33">
+        <v>6922.5929027777765</v>
+      </c>
+      <c r="D38" s="33">
+        <v>19758.754224965702</v>
+      </c>
+      <c r="E38" s="33">
+        <f t="shared" si="6"/>
+        <v>37065.236481910142</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" si="7"/>
+        <v>4049.7168481249992</v>
+      </c>
+      <c r="G38" s="33">
+        <f t="shared" si="8"/>
+        <v>2699.8112320833329</v>
+      </c>
+      <c r="H38" s="33">
+        <f t="shared" si="9"/>
+        <v>1975.8754224965703</v>
+      </c>
+      <c r="I38" s="33">
+        <f t="shared" si="0"/>
+        <v>8725.4035027049031</v>
+      </c>
+      <c r="J38" s="33">
+        <v>400</v>
+      </c>
+      <c r="K38" s="33">
+        <v>0</v>
+      </c>
+      <c r="L38" s="56">
+        <v>1183.3333333333333</v>
+      </c>
+      <c r="M38" s="33">
+        <f>N38*24%</f>
+        <v>1356</v>
+      </c>
+      <c r="N38" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O38" s="33">
+        <v>530</v>
+      </c>
+      <c r="P38" s="33">
+        <f t="shared" si="4"/>
+        <v>9119.3333333333321</v>
+      </c>
+      <c r="Q38" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R38" s="33">
+        <v>805.55555555555554</v>
+      </c>
+      <c r="S38" s="33">
+        <v>275</v>
+      </c>
+      <c r="T38" s="56">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U38" s="56">
+        <v>118.88888888888889</v>
+      </c>
+      <c r="V38" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W38" s="33">
+        <v>195</v>
+      </c>
+      <c r="X38" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z38" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA38" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB38" s="33">
+        <f t="shared" si="11"/>
+        <v>790.35016899862808</v>
+      </c>
+      <c r="AC38" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD38" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE38" s="56">
+        <v>277.43523555555555</v>
+      </c>
+      <c r="AF38" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG38" s="33">
+        <f t="shared" si="12"/>
+        <v>1111.9570944573043</v>
+      </c>
+      <c r="AH38" s="33">
+        <f t="shared" si="2"/>
+        <v>15290.035195261484</v>
+      </c>
+      <c r="AI38" s="33">
+        <f t="shared" si="3"/>
+        <v>24015.438697966387</v>
+      </c>
+      <c r="AJ38" s="33">
+        <f t="shared" si="5"/>
+        <v>13049.797783943755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="54">
+        <v>45689</v>
+      </c>
+      <c r="B39" s="33">
+        <v>6582.8390241025636</v>
+      </c>
+      <c r="C39" s="33">
+        <v>4388.5593494017094</v>
+      </c>
+      <c r="D39" s="33">
+        <v>17635.622642276423</v>
+      </c>
+      <c r="E39" s="33">
+        <f t="shared" si="6"/>
+        <v>28607.021015780694</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" si="7"/>
+        <v>2567.3072193999997</v>
+      </c>
+      <c r="G39" s="33">
+        <f t="shared" si="8"/>
+        <v>1711.5381462666667</v>
+      </c>
+      <c r="H39" s="33">
+        <f t="shared" si="9"/>
+        <v>1763.5622642276423</v>
+      </c>
+      <c r="I39" s="33">
+        <f t="shared" si="0"/>
+        <v>6042.4076298943082</v>
+      </c>
+      <c r="J39" s="33">
+        <v>400</v>
+      </c>
+      <c r="K39" s="33">
+        <v>0</v>
+      </c>
+      <c r="L39" s="33">
+        <v>0</v>
+      </c>
+      <c r="M39" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N39" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O39" s="33">
+        <v>530</v>
+      </c>
+      <c r="P39" s="33">
+        <f t="shared" si="4"/>
+        <v>7936</v>
+      </c>
+      <c r="Q39" s="33">
+        <v>900</v>
+      </c>
+      <c r="R39" s="33">
+        <v>861.11111111111109</v>
+      </c>
+      <c r="S39" s="33">
+        <v>275</v>
+      </c>
+      <c r="T39" s="33">
+        <v>154.11111111111111</v>
+      </c>
+      <c r="U39" s="33">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="V39" s="33">
+        <v>375.91666666666669</v>
+      </c>
+      <c r="W39" s="33">
+        <v>195</v>
+      </c>
+      <c r="X39" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z39" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA39" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB39" s="33">
+        <f t="shared" si="11"/>
+        <v>705.42490569105689</v>
+      </c>
+      <c r="AC39" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD39" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE39" s="33">
+        <v>583.33333333333337</v>
+      </c>
+      <c r="AF39" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG39" s="33">
+        <f t="shared" si="12"/>
+        <v>858.21063047342079</v>
+      </c>
+      <c r="AH39" s="33">
+        <f t="shared" si="2"/>
+        <v>14001.706010192256</v>
+      </c>
+      <c r="AI39" s="33">
+        <f t="shared" si="3"/>
+        <v>20044.113640086565</v>
+      </c>
+      <c r="AJ39" s="33">
+        <f t="shared" si="5"/>
+        <v>8562.9073756941289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A40" s="54">
+        <v>45717</v>
+      </c>
+      <c r="B40" s="33">
+        <v>7944.4261506547991</v>
+      </c>
+      <c r="C40" s="33">
+        <v>5296.2841004365328</v>
+      </c>
+      <c r="D40" s="33">
+        <v>21306.42336001978</v>
+      </c>
+      <c r="E40" s="33">
+        <f t="shared" si="6"/>
+        <v>34547.133611111116</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="7"/>
+        <v>3098.3261987553719</v>
+      </c>
+      <c r="G40" s="33">
+        <f t="shared" si="8"/>
+        <v>2065.550799170248</v>
+      </c>
+      <c r="H40" s="33">
+        <f t="shared" si="9"/>
+        <v>2130.642336001978</v>
+      </c>
+      <c r="I40" s="33">
+        <f t="shared" si="0"/>
+        <v>7294.5193339275975</v>
+      </c>
+      <c r="J40" s="33">
+        <v>400</v>
+      </c>
+      <c r="K40" s="33">
+        <v>0</v>
+      </c>
+      <c r="L40" s="33">
+        <v>1029.5833333333333</v>
+      </c>
+      <c r="M40" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N40" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O40" s="33">
+        <v>530</v>
+      </c>
+      <c r="P40" s="33">
+        <f t="shared" si="4"/>
+        <v>8965.5833333333321</v>
+      </c>
+      <c r="Q40" s="33">
+        <v>900</v>
+      </c>
+      <c r="R40" s="33">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="S40" s="33">
+        <v>275</v>
+      </c>
+      <c r="T40" s="33">
+        <v>128.83333333333334</v>
+      </c>
+      <c r="U40" s="33">
+        <v>128.47222222222223</v>
+      </c>
+      <c r="V40" s="33">
+        <v>261.44444444444446</v>
+      </c>
+      <c r="W40" s="33">
+        <v>195</v>
+      </c>
+      <c r="X40" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z40" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA40" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB40" s="33">
+        <f t="shared" si="11"/>
+        <v>852.25693440079124</v>
+      </c>
+      <c r="AC40" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD40" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE40" s="33">
+        <v>189.90263766666666</v>
+      </c>
+      <c r="AF40" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG40" s="33">
+        <f t="shared" si="12"/>
+        <v>1036.4140083333334</v>
+      </c>
+      <c r="AH40" s="33">
+        <f t="shared" si="2"/>
+        <v>14832.727387761903</v>
+      </c>
+      <c r="AI40" s="33">
+        <f t="shared" si="3"/>
+        <v>22127.246721689502</v>
+      </c>
+      <c r="AJ40" s="33">
+        <f t="shared" si="5"/>
+        <v>12419.886889421614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A41" s="54">
+        <v>45748</v>
+      </c>
+      <c r="B41" s="33">
+        <v>10182.808791666666</v>
+      </c>
+      <c r="C41" s="33">
+        <v>6788.5391944444455</v>
+      </c>
+      <c r="D41" s="33">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="E41" s="33">
+        <f t="shared" si="6"/>
+        <v>34010.717452777782</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" si="7"/>
+        <v>3971.2954287500002</v>
+      </c>
+      <c r="G41" s="33">
+        <f t="shared" si="8"/>
+        <v>2647.5302858333339</v>
+      </c>
+      <c r="H41" s="33">
+        <f t="shared" si="9"/>
+        <v>1703.9369466666667</v>
+      </c>
+      <c r="I41" s="33">
+        <f t="shared" si="0"/>
+        <v>8322.7626612500007</v>
+      </c>
+      <c r="J41" s="33">
+        <v>400</v>
+      </c>
+      <c r="K41" s="33">
+        <v>0</v>
+      </c>
+      <c r="L41" s="33">
+        <v>0</v>
+      </c>
+      <c r="M41" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N41" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O41" s="33">
+        <v>530</v>
+      </c>
+      <c r="P41" s="33">
+        <f t="shared" si="4"/>
+        <v>7936</v>
+      </c>
+      <c r="Q41" s="33">
+        <v>900</v>
+      </c>
+      <c r="R41" s="33">
+        <v>958.33333333333337</v>
+      </c>
+      <c r="S41" s="33">
+        <v>275</v>
+      </c>
+      <c r="T41" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U41" s="33">
+        <v>127.94444444444444</v>
+      </c>
+      <c r="V41" s="33">
+        <v>193.11111111111111</v>
+      </c>
+      <c r="W41" s="33">
+        <v>195</v>
+      </c>
+      <c r="X41" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA41" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB41" s="33">
+        <f t="shared" si="11"/>
+        <v>681.5747786666667</v>
+      </c>
+      <c r="AC41" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD41" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE41" s="33">
+        <v>339.38964222222216</v>
+      </c>
+      <c r="AF41" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG41" s="33">
+        <f t="shared" si="12"/>
+        <v>1020.3215235833335</v>
+      </c>
+      <c r="AH41" s="33">
+        <f t="shared" si="2"/>
+        <v>13809.717529611113</v>
+      </c>
+      <c r="AI41" s="33">
+        <f t="shared" si="3"/>
+        <v>22132.480190861112</v>
+      </c>
+      <c r="AJ41" s="33">
+        <f t="shared" si="5"/>
+        <v>11878.237261916671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42" s="54">
+        <v>45778</v>
+      </c>
+      <c r="B42" s="33">
+        <v>7573.1841666666669</v>
+      </c>
+      <c r="C42" s="33">
+        <v>5048.7894444444455</v>
+      </c>
+      <c r="D42" s="33">
+        <v>15221.290384516129</v>
+      </c>
+      <c r="E42" s="33">
+        <f t="shared" si="6"/>
+        <v>27843.26399562724</v>
+      </c>
+      <c r="F42" s="33">
+        <f t="shared" si="7"/>
+        <v>2953.5418250000002</v>
+      </c>
+      <c r="G42" s="33">
+        <f>C42*39%</f>
+        <v>1969.0278833333339</v>
+      </c>
+      <c r="H42" s="33">
+        <f t="shared" si="9"/>
+        <v>1522.129038451613</v>
+      </c>
+      <c r="I42" s="33">
+        <f t="shared" si="0"/>
+        <v>6444.6987467849476</v>
+      </c>
+      <c r="J42" s="33">
+        <v>400</v>
+      </c>
+      <c r="K42" s="33">
+        <v>0</v>
+      </c>
+      <c r="L42" s="58">
+        <v>202.22222222222223</v>
+      </c>
+      <c r="M42" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N42" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O42" s="33">
+        <v>530</v>
+      </c>
+      <c r="P42" s="33">
+        <f t="shared" si="4"/>
+        <v>8138.2222222222226</v>
+      </c>
+      <c r="Q42" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R42" s="58">
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="S42" s="33">
+        <v>275</v>
+      </c>
+      <c r="T42" s="58">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U42" s="58">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="V42" s="51">
+        <v>401.14444444444445</v>
+      </c>
+      <c r="W42" s="33">
+        <v>195</v>
+      </c>
+      <c r="X42" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z42" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA42" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB42" s="33">
+        <f t="shared" si="11"/>
+        <v>608.85161538064517</v>
+      </c>
+      <c r="AC42" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD42" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE42" s="58">
+        <v>366.89441874999994</v>
+      </c>
+      <c r="AF42" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG42" s="33">
+        <f t="shared" si="12"/>
+        <v>835.29791986881719</v>
+      </c>
+      <c r="AH42" s="33">
+        <f t="shared" si="2"/>
+        <v>14586.78665024946</v>
+      </c>
+      <c r="AI42" s="33">
+        <f t="shared" si="3"/>
+        <v>21031.485397034408</v>
+      </c>
+      <c r="AJ42" s="33">
+        <f t="shared" si="5"/>
+        <v>6811.7785985928313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43" s="54">
+        <v>45809</v>
+      </c>
+      <c r="B43" s="33">
+        <v>6326.8844999999992</v>
+      </c>
+      <c r="C43" s="33">
+        <v>4217.9229999999998</v>
+      </c>
+      <c r="D43" s="33">
+        <v>14460.225865290322</v>
+      </c>
+      <c r="E43" s="33">
+        <f t="shared" si="6"/>
+        <v>25005.033365290321</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="7"/>
+        <v>2467.4849549999999</v>
+      </c>
+      <c r="G43" s="33">
+        <f t="shared" si="8"/>
+        <v>1644.9899699999999</v>
+      </c>
+      <c r="H43" s="33">
+        <f t="shared" si="9"/>
+        <v>1446.0225865290322</v>
+      </c>
+      <c r="I43" s="33">
+        <f t="shared" si="0"/>
+        <v>5558.4975115290317</v>
+      </c>
+      <c r="J43" s="33">
+        <v>400</v>
+      </c>
+      <c r="K43" s="33">
+        <v>300</v>
+      </c>
+      <c r="L43" s="33">
+        <v>944.44444444444446</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N43" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O43" s="33">
+        <v>530</v>
+      </c>
+      <c r="P43" s="33">
+        <f t="shared" si="4"/>
+        <v>9180.4444444444453</v>
+      </c>
+      <c r="Q43" s="33">
+        <v>1400</v>
+      </c>
+      <c r="R43" s="33">
+        <v>876.66777777777781</v>
+      </c>
+      <c r="S43" s="33">
+        <v>275</v>
+      </c>
+      <c r="T43" s="33">
+        <v>116.55555555555556</v>
+      </c>
+      <c r="U43" s="33">
+        <v>115</v>
+      </c>
+      <c r="V43" s="51">
+        <v>126.44999999999999</v>
+      </c>
+      <c r="W43" s="33">
+        <v>195</v>
+      </c>
+      <c r="X43" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y43" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z43" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA43" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB43" s="33">
+        <f t="shared" si="11"/>
+        <v>578.40903461161292</v>
+      </c>
+      <c r="AC43" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD43" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE43" s="33">
+        <v>289.95980819444441</v>
+      </c>
+      <c r="AF43" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG43" s="33">
+        <f t="shared" si="12"/>
+        <v>750.15100095870957</v>
+      </c>
+      <c r="AH43" s="33">
+        <f t="shared" si="2"/>
+        <v>14970.12476223699</v>
+      </c>
+      <c r="AI43" s="33">
+        <f t="shared" si="3"/>
+        <v>20528.622273766021</v>
+      </c>
+      <c r="AJ43" s="33">
+        <f t="shared" si="5"/>
+        <v>4476.4110915243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A44" s="54">
+        <v>45839</v>
+      </c>
+      <c r="B44" s="33">
+        <v>8235.3511666666654</v>
+      </c>
+      <c r="C44" s="33">
+        <v>5490.2341111111109</v>
+      </c>
+      <c r="D44" s="33">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="E44" s="33">
+        <f t="shared" si="6"/>
+        <v>34472.032222222217</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="7"/>
+        <v>3211.7869549999996</v>
+      </c>
+      <c r="G44" s="33">
+        <f t="shared" si="8"/>
+        <v>2141.1913033333335</v>
+      </c>
+      <c r="H44" s="33">
+        <f t="shared" si="9"/>
+        <v>2074.6446944444447</v>
+      </c>
+      <c r="I44" s="33">
+        <f t="shared" si="0"/>
+        <v>7427.6229527777778</v>
+      </c>
+      <c r="J44" s="33">
+        <v>400</v>
+      </c>
+      <c r="K44" s="33">
+        <v>0</v>
+      </c>
+      <c r="L44" s="33">
+        <v>138.88888888888889</v>
+      </c>
+      <c r="M44" s="33">
+        <f t="shared" si="10"/>
+        <v>1356</v>
+      </c>
+      <c r="N44" s="59">
+        <v>5650</v>
+      </c>
+      <c r="O44" s="33">
+        <v>530</v>
+      </c>
+      <c r="P44" s="33">
+        <f t="shared" si="4"/>
+        <v>8074.8888888888887</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R44" s="33">
+        <v>1049.9158333333335</v>
+      </c>
+      <c r="S44" s="33">
+        <v>275</v>
+      </c>
+      <c r="T44" s="33">
+        <v>159.44444444444446</v>
+      </c>
+      <c r="U44" s="33">
+        <v>170</v>
+      </c>
+      <c r="V44" s="33">
+        <v>78.932500000000005</v>
+      </c>
+      <c r="W44" s="33">
+        <v>195</v>
+      </c>
+      <c r="X44" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y44" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA44" s="33">
+        <v>350</v>
+      </c>
+      <c r="AB44" s="33">
+        <f t="shared" si="11"/>
+        <v>829.85787777777773</v>
+      </c>
+      <c r="AC44" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD44" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE44" s="33">
+        <v>319.48371291666666</v>
+      </c>
+      <c r="AF44" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG44" s="33">
+        <f t="shared" si="12"/>
+        <v>1034.1609666666664</v>
+      </c>
+      <c r="AH44" s="33">
+        <f t="shared" si="2"/>
+        <v>14553.171364722224</v>
+      </c>
+      <c r="AI44" s="33">
+        <f t="shared" si="3"/>
+        <v>21980.794317500004</v>
+      </c>
+      <c r="AJ44" s="33">
+        <f t="shared" si="5"/>
+        <v>12491.237904722213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45" s="54">
+        <v>45870</v>
+      </c>
+      <c r="B45" s="33">
+        <v>6600</v>
+      </c>
+      <c r="C45" s="33">
+        <v>4400</v>
+      </c>
+      <c r="D45" s="33">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="33">
+        <f t="shared" si="6"/>
+        <v>28000</v>
+      </c>
+      <c r="F45" s="33">
+        <f t="shared" si="7"/>
+        <v>2574</v>
+      </c>
+      <c r="G45" s="33">
+        <f t="shared" si="8"/>
+        <v>1716</v>
+      </c>
+      <c r="H45" s="33">
+        <f t="shared" si="9"/>
+        <v>1700</v>
+      </c>
+      <c r="I45" s="33">
+        <f t="shared" si="0"/>
+        <v>5990</v>
+      </c>
+      <c r="J45" s="33">
+        <v>400</v>
+      </c>
+      <c r="K45" s="33">
+        <v>0</v>
+      </c>
+      <c r="L45" s="33">
+        <v>0</v>
+      </c>
+      <c r="M45" s="33">
+        <f t="shared" si="10"/>
+        <v>1392</v>
+      </c>
+      <c r="N45" s="33">
+        <v>5800</v>
+      </c>
+      <c r="O45" s="33">
+        <v>530</v>
+      </c>
+      <c r="P45" s="33">
+        <f t="shared" si="4"/>
+        <v>8122</v>
+      </c>
+      <c r="Q45" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R45" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S45" s="33">
+        <v>275</v>
+      </c>
+      <c r="T45" s="33">
+        <v>159</v>
+      </c>
+      <c r="U45" s="33">
+        <v>90.555555555555557</v>
+      </c>
+      <c r="V45" s="33">
+        <v>70.694444444444443</v>
+      </c>
+      <c r="W45" s="33">
+        <v>195</v>
+      </c>
+      <c r="X45" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA45" s="33">
+        <v>375</v>
+      </c>
+      <c r="AB45" s="33">
+        <f t="shared" si="11"/>
+        <v>680</v>
+      </c>
+      <c r="AC45" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD45" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE45" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF45" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG45" s="33">
+        <f t="shared" si="12"/>
+        <v>840</v>
+      </c>
+      <c r="AH45" s="33">
+        <f t="shared" si="2"/>
+        <v>13923.737140694444</v>
+      </c>
+      <c r="AI45" s="33">
+        <f t="shared" si="3"/>
+        <v>19913.737140694444</v>
+      </c>
+      <c r="AJ45" s="33">
+        <f t="shared" si="5"/>
+        <v>8086.262859305556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="54">
+        <v>45901</v>
+      </c>
+      <c r="B46" s="33">
+        <v>5879.8754133333341</v>
+      </c>
+      <c r="C46" s="33">
+        <v>3919.916942222223</v>
+      </c>
+      <c r="D46" s="33">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="E46" s="33">
+        <f t="shared" si="6"/>
+        <v>25528.459086222225</v>
+      </c>
+      <c r="F46" s="33">
+        <f t="shared" si="7"/>
+        <v>2293.1514112000004</v>
+      </c>
+      <c r="G46" s="33">
+        <f t="shared" si="8"/>
+        <v>1528.767607466667</v>
+      </c>
+      <c r="H46" s="33">
+        <f t="shared" si="9"/>
+        <v>1572.8666730666669</v>
+      </c>
+      <c r="I46" s="33">
+        <f t="shared" si="0"/>
+        <v>5394.7856917333338</v>
+      </c>
+      <c r="J46" s="33">
+        <v>400</v>
+      </c>
+      <c r="K46" s="33">
+        <v>0</v>
+      </c>
+      <c r="L46" s="33">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="33">
+        <f t="shared" si="10"/>
+        <v>1392</v>
+      </c>
+      <c r="N46" s="33">
+        <v>5800</v>
+      </c>
+      <c r="O46" s="33">
+        <v>530</v>
+      </c>
+      <c r="P46" s="33">
+        <f t="shared" si="4"/>
+        <v>9322</v>
+      </c>
+      <c r="Q46" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R46" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S46" s="33">
+        <v>275</v>
+      </c>
+      <c r="T46" s="33">
+        <v>140</v>
+      </c>
+      <c r="U46" s="33">
+        <v>104.44444444444444</v>
+      </c>
+      <c r="V46" s="33">
+        <v>144.0925</v>
+      </c>
+      <c r="W46" s="33">
+        <v>195</v>
+      </c>
+      <c r="X46" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y46" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA46" s="33">
+        <v>375</v>
+      </c>
+      <c r="AB46" s="33">
+        <f t="shared" si="11"/>
+        <v>629.14666922666675</v>
+      </c>
+      <c r="AC46" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD46" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE46" s="33">
+        <v>240</v>
+      </c>
+      <c r="AF46" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG46" s="33">
+        <f t="shared" si="12"/>
+        <v>765.85377258666676</v>
+      </c>
+      <c r="AH46" s="33">
+        <f>SUM(P46:AG46)</f>
+        <v>15107.024526952224</v>
+      </c>
+      <c r="AI46" s="33">
+        <f t="shared" si="3"/>
+        <v>20501.810218685558</v>
+      </c>
+      <c r="AJ46" s="33">
+        <f t="shared" si="5"/>
+        <v>5026.6488675366672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47" s="54">
+        <v>45931</v>
+      </c>
+      <c r="B47" s="33">
+        <v>5096.3867557479998</v>
+      </c>
+      <c r="C47" s="33">
+        <v>3397.591170498667</v>
+      </c>
+      <c r="D47" s="33">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="E47" s="33">
+        <f t="shared" si="6"/>
+        <v>17384.95699395167</v>
+      </c>
+      <c r="F47" s="33">
+        <f t="shared" si="7"/>
+        <v>1987.5908347417201</v>
+      </c>
+      <c r="G47" s="33">
+        <f t="shared" si="8"/>
+        <v>1325.0605564944801</v>
+      </c>
+      <c r="H47" s="33">
+        <f t="shared" si="9"/>
+        <v>889.09790677050023</v>
+      </c>
+      <c r="I47" s="33">
+        <f t="shared" si="0"/>
+        <v>4201.7492980067</v>
+      </c>
+      <c r="J47" s="33">
+        <v>400</v>
+      </c>
+      <c r="K47" s="33">
+        <v>0</v>
+      </c>
+      <c r="L47" s="33">
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
+        <f t="shared" si="10"/>
+        <v>1392</v>
+      </c>
+      <c r="N47" s="33">
+        <v>5800</v>
+      </c>
+      <c r="O47" s="33">
+        <v>530</v>
+      </c>
+      <c r="P47" s="33">
+        <f t="shared" si="4"/>
+        <v>8122</v>
+      </c>
+      <c r="Q47" s="33">
+        <v>1300</v>
+      </c>
+      <c r="R47" s="33">
+        <v>850</v>
+      </c>
+      <c r="S47" s="33">
+        <v>275</v>
+      </c>
+      <c r="T47" s="33">
+        <v>65</v>
+      </c>
+      <c r="U47" s="33">
+        <v>80</v>
+      </c>
+      <c r="V47" s="33">
+        <v>173.31416666666667</v>
+      </c>
+      <c r="W47" s="33">
+        <v>195</v>
+      </c>
+      <c r="X47" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y47" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z47" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA47" s="33">
+        <v>375</v>
+      </c>
+      <c r="AB47" s="33">
+        <f t="shared" si="11"/>
+        <v>355.6391627082001</v>
+      </c>
+      <c r="AC47" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD47" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE47" s="33">
+        <v>200</v>
+      </c>
+      <c r="AF47" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG47" s="33">
+        <f t="shared" si="12"/>
+        <v>521.54870981855004</v>
+      </c>
+      <c r="AH47" s="33">
+        <f t="shared" si="2"/>
+        <v>13228.98917988786</v>
+      </c>
+      <c r="AI47" s="33">
+        <f t="shared" si="3"/>
+        <v>17430.73847789456</v>
+      </c>
+      <c r="AJ47" s="33">
+        <f t="shared" si="5"/>
+        <v>-45.781483942890191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="54">
+        <v>45962</v>
+      </c>
+      <c r="B48" s="33">
+        <v>6243.5336333333335</v>
+      </c>
+      <c r="C48" s="33">
+        <v>4162.3557555555553</v>
+      </c>
+      <c r="D48" s="33">
+        <v>15114.664415098505</v>
+      </c>
+      <c r="E48" s="33">
+        <f t="shared" si="6"/>
+        <v>25520.553803987394</v>
+      </c>
+      <c r="F48" s="33">
+        <f t="shared" si="7"/>
+        <v>2434.9781170000001</v>
+      </c>
+      <c r="G48" s="33">
+        <f t="shared" si="8"/>
+        <v>1623.3187446666666</v>
+      </c>
+      <c r="H48" s="33">
+        <f t="shared" si="9"/>
+        <v>1511.4664415098505</v>
+      </c>
+      <c r="I48" s="33">
+        <f t="shared" si="0"/>
+        <v>5569.7633031765172</v>
+      </c>
+      <c r="J48" s="33">
+        <v>400</v>
+      </c>
+      <c r="K48" s="33">
+        <v>0</v>
+      </c>
+      <c r="L48" s="33">
+        <v>0</v>
+      </c>
+      <c r="M48" s="33">
+        <f t="shared" si="10"/>
+        <v>1392</v>
+      </c>
+      <c r="N48" s="33">
+        <v>5800</v>
+      </c>
+      <c r="O48" s="33">
+        <v>530</v>
+      </c>
+      <c r="P48" s="33">
+        <f t="shared" si="4"/>
+        <v>8122</v>
+      </c>
+      <c r="Q48" s="33">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="33">
+        <v>950</v>
+      </c>
+      <c r="S48" s="33">
+        <v>275</v>
+      </c>
+      <c r="T48" s="33">
+        <v>75</v>
+      </c>
+      <c r="U48" s="33">
+        <v>51.111111111111114</v>
+      </c>
+      <c r="V48" s="33">
+        <v>55.888888888888886</v>
+      </c>
+      <c r="W48" s="33">
+        <v>195</v>
+      </c>
+      <c r="X48" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y48" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA48" s="33">
+        <v>375</v>
+      </c>
+      <c r="AB48" s="33">
+        <f t="shared" si="11"/>
+        <v>604.58657660394022</v>
+      </c>
+      <c r="AC48" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD48" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE48" s="33">
+        <v>290</v>
+      </c>
+      <c r="AF48" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG48" s="33">
+        <f t="shared" si="12"/>
+        <v>765.61661411962177</v>
+      </c>
+      <c r="AH48" s="33">
+        <f t="shared" si="2"/>
+        <v>13475.690331418005</v>
+      </c>
+      <c r="AI48" s="33">
+        <f t="shared" si="3"/>
+        <v>19045.453634594523</v>
+      </c>
+      <c r="AJ48" s="33">
+        <f t="shared" si="5"/>
+        <v>6475.1001693928702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>45992</v>
+      </c>
+      <c r="B49" s="33">
+        <v>9017.5477333333347</v>
+      </c>
+      <c r="C49" s="33">
+        <v>6011.6984888888901</v>
+      </c>
+      <c r="D49" s="33">
+        <v>18693.208267526457</v>
+      </c>
+      <c r="E49" s="33">
+        <f t="shared" si="6"/>
+        <v>33722.454489748678</v>
+      </c>
+      <c r="F49" s="33">
+        <f t="shared" si="7"/>
+        <v>3516.8436160000006</v>
+      </c>
+      <c r="G49" s="33">
+        <f t="shared" si="8"/>
+        <v>2344.5624106666673</v>
+      </c>
+      <c r="H49" s="33">
+        <f>D49*10%</f>
+        <v>1869.3208267526459</v>
+      </c>
+      <c r="I49" s="33">
+        <f t="shared" si="0"/>
+        <v>7730.7268534193136</v>
+      </c>
+      <c r="J49" s="33">
+        <v>400</v>
+      </c>
+      <c r="K49" s="33">
+        <v>300</v>
+      </c>
+      <c r="L49" s="33">
+        <v>0</v>
+      </c>
+      <c r="M49" s="33">
+        <f t="shared" si="10"/>
+        <v>1392</v>
+      </c>
+      <c r="N49" s="33">
+        <v>5800</v>
+      </c>
+      <c r="O49" s="33">
+        <v>530</v>
+      </c>
+      <c r="P49" s="33">
+        <f t="shared" si="4"/>
+        <v>8422</v>
+      </c>
+      <c r="Q49" s="33">
+        <v>900</v>
+      </c>
+      <c r="R49" s="33">
+        <v>1200</v>
+      </c>
+      <c r="S49" s="33">
+        <v>275</v>
+      </c>
+      <c r="T49" s="33">
+        <v>160</v>
+      </c>
+      <c r="U49" s="33">
+        <v>116.11111111111111</v>
+      </c>
+      <c r="V49" s="33">
+        <v>406.01888888888891</v>
+      </c>
+      <c r="W49" s="33">
+        <v>195</v>
+      </c>
+      <c r="X49" s="33">
+        <v>7</v>
+      </c>
+      <c r="Y49" s="33">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="33">
+        <v>230</v>
+      </c>
+      <c r="AA49" s="33">
+        <v>375</v>
+      </c>
+      <c r="AB49" s="33">
+        <f t="shared" si="11"/>
+        <v>747.72833070105833</v>
+      </c>
+      <c r="AC49" s="58">
+        <v>60</v>
+      </c>
+      <c r="AD49" s="58">
+        <v>90.951250000000002</v>
+      </c>
+      <c r="AE49" s="33">
+        <v>300</v>
+      </c>
+      <c r="AF49" s="58">
+        <v>128.53589069444399</v>
+      </c>
+      <c r="AG49" s="33">
+        <f t="shared" si="12"/>
+        <v>1011.6736346924603</v>
+      </c>
+      <c r="AH49" s="33">
+        <f t="shared" si="2"/>
+        <v>14825.019106087964</v>
+      </c>
+      <c r="AI49" s="33">
+        <f t="shared" si="3"/>
+        <v>22555.74595950728</v>
+      </c>
+      <c r="AJ49" s="33">
+        <f t="shared" si="5"/>
+        <v>11166.708530241398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E21 E22:E49 I4:I49" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48F4879-785B-B745-BEA3-7DEBA67E39E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A2BBD-8CBE-4B45-99B8-DBADB291ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2240" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Indirect_Expenses" sheetId="6" r:id="rId6"/>
     <sheet name="F&amp;B Expenses" sheetId="7" r:id="rId7"/>
     <sheet name="Rooms Expenses" sheetId="8" r:id="rId8"/>
+    <sheet name="Ind_expenses" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -377,7 +378,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,6 +528,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -571,7 +579,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -637,6 +645,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -5610,7 +5622,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7874,7 +7886,7 @@
   <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A15" sqref="A15"/>
       <selection pane="topRight" activeCell="AI2" sqref="AI2:AI49"/>
     </sheetView>
@@ -14158,2526 +14170,2228 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD220802-990C-0943-A7BD-ACE19BFC12F7}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="59"/>
-    <col min="2" max="2" width="21.6640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="59" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="59"/>
-    <col min="6" max="6" width="19.6640625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="59" customWidth="1"/>
+    <col min="1" max="3" width="15.83203125" style="59"/>
+    <col min="4" max="4" width="19.6640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="59" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="59" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="59" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="59" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="59" customWidth="1"/>
-    <col min="13" max="14" width="15.83203125" style="59"/>
-    <col min="15" max="15" width="20.6640625" style="59" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" style="59" customWidth="1"/>
-    <col min="17" max="16384" width="15.83203125" style="59"/>
+    <col min="11" max="12" width="15.83203125" style="59"/>
+    <col min="13" max="13" width="20.6640625" style="59" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" style="59" customWidth="1"/>
+    <col min="15" max="16384" width="15.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="G1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
         <v>44562</v>
       </c>
-      <c r="B2" s="37">
-        <v>7771.6388888888887</v>
-      </c>
-      <c r="C2" s="37">
-        <v>3972.5555555555557</v>
-      </c>
-      <c r="D2" s="37">
-        <v>13136.888888888889</v>
-      </c>
-      <c r="E2" s="37">
+      <c r="B2" s="32">
+        <v>24881.693333333336</v>
+      </c>
+      <c r="C2" s="32">
         <v>4982.9055555555551</v>
       </c>
-      <c r="F2" s="37">
+      <c r="D2" s="32">
         <v>552.77777777777783</v>
       </c>
-      <c r="G2" s="37">
+      <c r="E2" s="32">
         <v>153.66666666666666</v>
       </c>
-      <c r="H2" s="37">
+      <c r="F2" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I2" s="37">
+      <c r="G2" s="32">
         <v>778.33333333333337</v>
       </c>
-      <c r="J2" s="37">
+      <c r="H2" s="32">
         <v>145.75</v>
       </c>
-      <c r="K2" s="37">
+      <c r="I2" s="32">
         <v>738.3055555555552</v>
       </c>
-      <c r="L2" s="37">
+      <c r="J2" s="32">
         <v>98.722222222222229</v>
       </c>
-      <c r="M2" s="37">
+      <c r="K2" s="32">
         <v>597.30555555555554</v>
       </c>
-      <c r="N2" s="37">
+      <c r="L2" s="32">
         <v>62.111111111111114</v>
       </c>
-      <c r="O2" s="37">
+      <c r="M2" s="32">
         <v>819</v>
       </c>
-      <c r="P2" s="37">
-        <f>SUM(E2:O2)</f>
+      <c r="N2" s="32">
+        <f>SUM(C2:M2)</f>
         <v>9304.7944444444438</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>44593</v>
       </c>
-      <c r="B3" s="37">
-        <v>5660</v>
-      </c>
-      <c r="C3" s="37">
-        <v>3773.3333333333335</v>
-      </c>
-      <c r="D3" s="37">
-        <v>11430.527777777777</v>
-      </c>
-      <c r="E3" s="37">
+      <c r="B3" s="32">
+        <v>20864.481111111112</v>
+      </c>
+      <c r="C3" s="32">
         <v>4875.0488888888885</v>
       </c>
-      <c r="F3" s="37">
+      <c r="D3" s="32">
         <v>552.77777777777783</v>
       </c>
-      <c r="G3" s="37">
+      <c r="E3" s="32">
         <v>153.66666666666666</v>
       </c>
-      <c r="H3" s="37">
+      <c r="F3" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I3" s="37">
+      <c r="G3" s="32">
         <v>778.33333333333337</v>
       </c>
-      <c r="J3" s="37">
+      <c r="H3" s="32">
         <v>145.75</v>
       </c>
-      <c r="K3" s="37">
+      <c r="I3" s="32">
         <v>738.30555555555566</v>
       </c>
-      <c r="L3" s="37">
+      <c r="J3" s="32">
         <v>98.722222222222229</v>
       </c>
-      <c r="M3" s="37">
+      <c r="K3" s="32">
         <v>117.66666666666667</v>
       </c>
-      <c r="N3" s="37">
+      <c r="L3" s="32">
         <v>62.111111111111114</v>
       </c>
-      <c r="O3" s="37">
+      <c r="M3" s="32">
         <v>519.44444444444446</v>
       </c>
-      <c r="P3" s="37">
-        <f t="shared" ref="P3:P49" si="0">SUM(E3:O3)</f>
+      <c r="N3" s="32">
+        <f t="shared" ref="N3:N49" si="0">SUM(C3:M3)</f>
         <v>8417.7433333333338</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60">
         <v>44621</v>
       </c>
-      <c r="B4" s="37">
-        <v>5299.8611111111113</v>
-      </c>
-      <c r="C4" s="37">
-        <v>3533.2222222222222</v>
-      </c>
-      <c r="D4" s="37">
-        <v>9742.6111111111113</v>
-      </c>
-      <c r="E4" s="37">
+      <c r="B4" s="32">
+        <v>18576.084444444445</v>
+      </c>
+      <c r="C4" s="32">
         <v>4455.028888888889</v>
       </c>
-      <c r="F4" s="37">
+      <c r="D4" s="32">
         <v>1761</v>
       </c>
-      <c r="G4" s="37">
+      <c r="E4" s="32">
         <v>153.66666666666666</v>
       </c>
-      <c r="H4" s="37">
+      <c r="F4" s="32">
         <v>261.44444444444446</v>
       </c>
-      <c r="I4" s="37">
+      <c r="G4" s="32">
         <v>846.75</v>
       </c>
-      <c r="J4" s="37">
+      <c r="H4" s="32">
         <v>202.94444444444446</v>
       </c>
-      <c r="K4" s="37">
+      <c r="I4" s="32">
         <v>740.33333333333337</v>
       </c>
-      <c r="L4" s="37">
+      <c r="J4" s="32">
         <v>209.13888888888889</v>
       </c>
-      <c r="M4" s="37">
+      <c r="K4" s="32">
         <v>627.38888888888891</v>
       </c>
-      <c r="N4" s="37">
+      <c r="L4" s="32">
         <v>99.305555555555557</v>
       </c>
-      <c r="O4" s="37">
+      <c r="M4" s="32">
         <v>370.30555555555554</v>
       </c>
-      <c r="P4" s="37">
+      <c r="N4" s="32">
         <f t="shared" si="0"/>
         <v>9727.3066666666655</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>44652</v>
       </c>
-      <c r="B5" s="37">
-        <v>11300.75</v>
-      </c>
-      <c r="C5" s="37">
-        <v>7533.833333333333</v>
-      </c>
-      <c r="D5" s="37">
-        <v>15043.805555555555</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="B5" s="32">
+        <v>33879.088888888888</v>
+      </c>
+      <c r="C5" s="32">
         <v>5982.2222222222217</v>
       </c>
-      <c r="F5" s="37">
+      <c r="D5" s="32">
         <v>782.02777777777783</v>
       </c>
-      <c r="G5" s="37">
+      <c r="E5" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H5" s="37">
+      <c r="F5" s="32">
         <v>193.11111111111111</v>
       </c>
-      <c r="I5" s="37">
+      <c r="G5" s="32">
         <v>1176.3888888888889</v>
       </c>
-      <c r="J5" s="37">
+      <c r="H5" s="32">
         <v>146.16666666666666</v>
       </c>
-      <c r="K5" s="37">
+      <c r="I5" s="32">
         <v>655.77777777777783</v>
       </c>
-      <c r="L5" s="37">
+      <c r="J5" s="32">
         <v>397.27777777777777</v>
       </c>
-      <c r="M5" s="37">
+      <c r="K5" s="32">
         <v>362.97222222222223</v>
       </c>
-      <c r="N5" s="37">
+      <c r="L5" s="32">
         <v>246.05555555555554</v>
       </c>
-      <c r="O5" s="37">
+      <c r="M5" s="32">
         <v>700</v>
       </c>
-      <c r="P5" s="37">
+      <c r="N5" s="32">
         <f t="shared" si="0"/>
         <v>10911.027777777776</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
         <v>44682</v>
       </c>
-      <c r="B6" s="37">
-        <v>5555.0099999999993</v>
-      </c>
-      <c r="C6" s="37">
-        <v>3703.3399999999997</v>
-      </c>
-      <c r="D6" s="37">
-        <v>8546.1691666666666</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="B6" s="32">
+        <v>17804.989166666666</v>
+      </c>
+      <c r="C6" s="32">
         <v>4734.9733888888886</v>
       </c>
-      <c r="F6" s="37">
+      <c r="D6" s="32">
         <v>878.68775533333326</v>
       </c>
-      <c r="G6" s="37">
+      <c r="E6" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H6" s="37">
+      <c r="F6" s="32">
         <v>401.14444444444445</v>
       </c>
-      <c r="I6" s="37">
+      <c r="G6" s="32">
         <v>1192.5555555555554</v>
       </c>
-      <c r="J6" s="37">
+      <c r="H6" s="32">
         <v>146.16666666666666</v>
       </c>
-      <c r="K6" s="37">
+      <c r="I6" s="32">
         <v>571.23611111111109</v>
       </c>
-      <c r="L6" s="37">
+      <c r="J6" s="32">
         <v>157.16666666666666</v>
       </c>
-      <c r="M6" s="37">
+      <c r="K6" s="32">
         <v>363.98655555555547</v>
       </c>
-      <c r="N6" s="37">
+      <c r="L6" s="32">
         <v>144.92038888888888</v>
       </c>
-      <c r="O6" s="37">
+      <c r="M6" s="32">
         <v>500</v>
       </c>
-      <c r="P6" s="37">
+      <c r="N6" s="32">
         <f t="shared" si="0"/>
         <v>9359.8653108888884</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>44713</v>
       </c>
-      <c r="B7" s="37">
-        <v>2821.9919444444445</v>
-      </c>
-      <c r="C7" s="37">
-        <v>1881.3280555555555</v>
-      </c>
-      <c r="D7" s="37">
-        <v>7171.4191666666666</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="B7" s="32">
+        <v>11875.069166666666</v>
+      </c>
+      <c r="C7" s="32">
         <v>4201.106055555555</v>
       </c>
-      <c r="F7" s="37">
+      <c r="D7" s="32">
         <v>1472.2222222222222</v>
       </c>
-      <c r="G7" s="37">
+      <c r="E7" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H7" s="37">
+      <c r="F7" s="32">
         <v>126.44999999999999</v>
       </c>
-      <c r="I7" s="37">
+      <c r="G7" s="32">
         <v>896.38888888888891</v>
       </c>
-      <c r="J7" s="37">
+      <c r="H7" s="32">
         <v>146.16666666666666</v>
       </c>
-      <c r="K7" s="37">
+      <c r="I7" s="32">
         <v>571.23611111111109</v>
       </c>
-      <c r="L7" s="37">
+      <c r="J7" s="32">
         <v>161.5</v>
       </c>
-      <c r="M7" s="37">
+      <c r="K7" s="32">
         <v>543.11583333333328</v>
       </c>
-      <c r="N7" s="37">
+      <c r="L7" s="32">
         <v>118.45822222222222</v>
       </c>
-      <c r="O7" s="37">
+      <c r="M7" s="32">
         <v>305.55555555555554</v>
       </c>
-      <c r="P7" s="37">
+      <c r="N7" s="32">
         <f t="shared" si="0"/>
         <v>8811.2273333333305</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>44743</v>
       </c>
-      <c r="B8" s="37">
-        <v>6345.9894444444444</v>
-      </c>
-      <c r="C8" s="37">
-        <v>4230.6597222222226</v>
-      </c>
-      <c r="D8" s="37">
-        <v>15864.97388888889</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="B8" s="32">
+        <v>26442.293055555558</v>
+      </c>
+      <c r="C8" s="32">
         <v>4752.3079444444447</v>
       </c>
-      <c r="F8" s="37">
+      <c r="D8" s="32">
         <v>965.23636111111125</v>
       </c>
-      <c r="G8" s="37">
+      <c r="E8" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H8" s="37">
+      <c r="F8" s="32">
         <v>78.932500000000005</v>
       </c>
-      <c r="I8" s="37">
+      <c r="G8" s="32">
         <v>715.27777777777771</v>
       </c>
-      <c r="J8" s="37">
+      <c r="H8" s="32">
         <v>209.78703708333333</v>
       </c>
-      <c r="K8" s="37">
+      <c r="I8" s="32">
         <v>571.85589861111112</v>
       </c>
-      <c r="L8" s="37">
+      <c r="J8" s="32">
         <v>249.66222222222223</v>
       </c>
-      <c r="M8" s="37">
+      <c r="K8" s="32">
         <v>476.29729666666663</v>
       </c>
-      <c r="N8" s="37">
+      <c r="L8" s="32">
         <v>46.761375416666667</v>
       </c>
-      <c r="O8" s="37">
+      <c r="M8" s="32">
         <v>617.97222222222217</v>
       </c>
-      <c r="P8" s="37">
+      <c r="N8" s="32">
         <f t="shared" si="0"/>
         <v>8953.1184133333336</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>44774</v>
       </c>
-      <c r="B9" s="37">
-        <v>5398.0031388888892</v>
-      </c>
-      <c r="C9" s="37">
-        <v>3598.6686111111112</v>
-      </c>
-      <c r="D9" s="37">
-        <v>11925.820833333333</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="B9" s="32">
+        <v>20922.982583333334</v>
+      </c>
+      <c r="C9" s="32">
         <v>4571.350498888889</v>
       </c>
-      <c r="F9" s="37">
+      <c r="D9" s="32">
         <v>952.54250000000013</v>
       </c>
-      <c r="G9" s="37">
+      <c r="E9" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H9" s="37">
+      <c r="F9" s="32">
         <v>70.694444444444443</v>
       </c>
-      <c r="I9" s="37">
+      <c r="G9" s="32">
         <v>982.27777777777783</v>
       </c>
-      <c r="J9" s="37">
+      <c r="H9" s="32">
         <v>147.39846636111113</v>
       </c>
-      <c r="K9" s="37">
+      <c r="I9" s="32">
         <v>553.01263749999998</v>
       </c>
-      <c r="L9" s="37">
+      <c r="J9" s="32">
         <v>151.66666666666666</v>
       </c>
-      <c r="M9" s="37">
+      <c r="K9" s="32">
         <v>239.13883991666665</v>
       </c>
-      <c r="N9" s="37">
+      <c r="L9" s="32">
         <v>149.96791666666667</v>
       </c>
-      <c r="O9" s="37">
+      <c r="M9" s="32">
         <v>527.77777777777783</v>
       </c>
-      <c r="P9" s="37">
+      <c r="N9" s="32">
         <f t="shared" si="0"/>
         <v>8614.8553037777765</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>44805</v>
       </c>
-      <c r="B10" s="37">
-        <v>5495.2106666666668</v>
-      </c>
-      <c r="C10" s="37">
-        <v>3663.4737777777782</v>
-      </c>
-      <c r="D10" s="37">
-        <v>13738.026666666667</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="B10" s="32">
+        <v>22897.22111111111</v>
+      </c>
+      <c r="C10" s="32">
         <v>5522.1486494444453</v>
       </c>
-      <c r="F10" s="37">
+      <c r="D10" s="32">
         <v>1758.9916666666668</v>
       </c>
-      <c r="G10" s="37">
+      <c r="E10" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H10" s="37">
+      <c r="F10" s="32">
         <v>144.0925</v>
       </c>
-      <c r="I10" s="37">
+      <c r="G10" s="32">
         <v>892.62583333333328</v>
       </c>
-      <c r="J10" s="37">
+      <c r="H10" s="32">
         <v>62.873881944444442</v>
       </c>
-      <c r="K10" s="37">
+      <c r="I10" s="32">
         <v>518.45958194444449</v>
       </c>
-      <c r="L10" s="37">
+      <c r="J10" s="32">
         <v>248.05555555555554</v>
       </c>
-      <c r="M10" s="37">
+      <c r="K10" s="32">
         <v>263.16228583333333</v>
       </c>
-      <c r="N10" s="37">
+      <c r="L10" s="32">
         <v>170.24083333333334</v>
       </c>
-      <c r="O10" s="37">
+      <c r="M10" s="32">
         <v>515.02777777777783</v>
       </c>
-      <c r="P10" s="37">
+      <c r="N10" s="32">
         <f t="shared" si="0"/>
         <v>10364.706343611109</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>44835</v>
       </c>
-      <c r="B11" s="37">
-        <v>3969.1485638888894</v>
-      </c>
-      <c r="C11" s="37">
-        <v>2646.0990422222221</v>
-      </c>
-      <c r="D11" s="37">
-        <v>7765.7254499999999</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="B11" s="32">
+        <v>14381.373056111112</v>
+      </c>
+      <c r="C11" s="32">
         <v>4527.2629111111119</v>
       </c>
-      <c r="F11" s="37">
+      <c r="D11" s="32">
         <v>2557.0605555555549</v>
       </c>
-      <c r="G11" s="37">
+      <c r="E11" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H11" s="37">
+      <c r="F11" s="32">
         <v>173.31416666666667</v>
       </c>
-      <c r="I11" s="37">
+      <c r="G11" s="32">
         <v>842.22222222222217</v>
       </c>
-      <c r="J11" s="37">
+      <c r="H11" s="32">
         <v>62.979300694444447</v>
       </c>
-      <c r="K11" s="37">
+      <c r="I11" s="32">
         <v>544.89446752777781</v>
       </c>
-      <c r="L11" s="37">
+      <c r="J11" s="32">
         <v>216.25</v>
       </c>
-      <c r="M11" s="37">
+      <c r="K11" s="32">
         <v>241.34652833333334</v>
       </c>
-      <c r="N11" s="37">
+      <c r="L11" s="32">
         <v>176.07463058333332</v>
       </c>
-      <c r="O11" s="37">
+      <c r="M11" s="32">
         <v>361.11111111111109</v>
       </c>
-      <c r="P11" s="37">
+      <c r="N11" s="32">
         <f t="shared" si="0"/>
         <v>9971.543671583333</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <v>44866</v>
       </c>
-      <c r="B12" s="37">
-        <v>5675.9397222222215</v>
-      </c>
-      <c r="C12" s="37">
-        <v>3783.9597222222219</v>
-      </c>
-      <c r="D12" s="37">
-        <v>14796.252777777778</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="B12" s="32">
+        <v>24256.712222222221</v>
+      </c>
+      <c r="C12" s="32">
         <v>5166.5658748148035</v>
       </c>
-      <c r="F12" s="37">
+      <c r="D12" s="32">
         <v>4642.1928888888888</v>
       </c>
-      <c r="G12" s="37">
+      <c r="E12" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H12" s="37">
+      <c r="F12" s="32">
         <v>55.888888888888886</v>
       </c>
-      <c r="I12" s="37">
+      <c r="G12" s="32">
         <v>939.61111111111109</v>
       </c>
-      <c r="J12" s="37">
+      <c r="H12" s="32">
         <v>433.32751041666666</v>
       </c>
-      <c r="K12" s="37">
+      <c r="I12" s="32">
         <v>547.7570365277777</v>
       </c>
-      <c r="L12" s="37">
+      <c r="J12" s="32">
         <v>329.72222222222223</v>
       </c>
-      <c r="M12" s="37">
+      <c r="K12" s="32">
         <v>183.96718194444441</v>
       </c>
-      <c r="N12" s="37">
+      <c r="L12" s="32">
         <v>176.07463058333332</v>
       </c>
-      <c r="O12" s="37">
+      <c r="M12" s="32">
         <v>541.66666666666663</v>
       </c>
-      <c r="P12" s="37">
+      <c r="N12" s="32">
         <f t="shared" si="0"/>
         <v>13285.801789842579</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>44896</v>
       </c>
-      <c r="B13" s="37">
-        <v>8197.7705555555549</v>
-      </c>
-      <c r="C13" s="37">
-        <v>5465.1805555555557</v>
-      </c>
-      <c r="D13" s="37">
-        <v>16039.116388888888</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="B13" s="32">
+        <v>29702.857499999998</v>
+      </c>
+      <c r="C13" s="32">
         <v>6752.9605555555554</v>
       </c>
-      <c r="F13" s="37">
+      <c r="D13" s="32">
         <v>940.01277777777773</v>
       </c>
-      <c r="G13" s="37">
+      <c r="E13" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H13" s="37">
+      <c r="F13" s="32">
         <v>406.01888888888891</v>
       </c>
-      <c r="I13" s="37">
+      <c r="G13" s="32">
         <v>812.94444444444446</v>
       </c>
-      <c r="J13" s="37">
+      <c r="H13" s="32">
         <v>57.617990277777785</v>
       </c>
-      <c r="K13" s="37">
+      <c r="I13" s="32">
         <v>547.96981430555559</v>
       </c>
-      <c r="L13" s="37">
+      <c r="J13" s="32">
         <v>354.02777777777777</v>
       </c>
-      <c r="M13" s="37">
+      <c r="K13" s="32">
         <v>319.55088372222218</v>
       </c>
-      <c r="N13" s="37">
+      <c r="L13" s="32">
         <v>196.63585922222222</v>
       </c>
-      <c r="O13" s="37">
+      <c r="M13" s="32">
         <v>813.88888888888891</v>
       </c>
-      <c r="P13" s="37">
+      <c r="N13" s="32">
         <f t="shared" si="0"/>
         <v>11470.655658638891</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60">
         <v>44927</v>
       </c>
-      <c r="B14" s="37">
-        <v>11362.223050000001</v>
-      </c>
-      <c r="C14" s="37">
-        <v>4926.2308388888887</v>
-      </c>
-      <c r="D14" s="37">
-        <v>18609.989444444444</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="B14" s="32">
+        <v>34899.253333333334</v>
+      </c>
+      <c r="C14" s="32">
         <v>7960.3306666666658</v>
       </c>
-      <c r="F14" s="37">
+      <c r="D14" s="32">
         <v>1306.2641666666668</v>
       </c>
-      <c r="G14" s="37">
+      <c r="E14" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H14" s="37">
+      <c r="F14" s="32">
         <v>202.78861111111112</v>
       </c>
-      <c r="I14" s="37">
+      <c r="G14" s="32">
         <v>1078.5555555555554</v>
       </c>
-      <c r="J14" s="37">
+      <c r="H14" s="32">
         <v>63.27055277777778</v>
       </c>
-      <c r="K14" s="37">
+      <c r="I14" s="32">
         <v>547.96981430555559</v>
       </c>
-      <c r="L14" s="37">
+      <c r="J14" s="32">
         <v>289.5</v>
       </c>
-      <c r="M14" s="37">
+      <c r="K14" s="32">
         <v>445.77148422222223</v>
       </c>
-      <c r="N14" s="37">
+      <c r="L14" s="32">
         <v>277.43523555555555</v>
       </c>
-      <c r="O14" s="37">
+      <c r="M14" s="32">
         <v>805.55555555555554</v>
       </c>
-      <c r="P14" s="37">
+      <c r="N14" s="32">
         <f t="shared" si="0"/>
         <v>13246.469420194442</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>44958</v>
       </c>
-      <c r="B15" s="37">
-        <v>6112.6362361111114</v>
-      </c>
-      <c r="C15" s="37">
-        <v>4075.0908250000002</v>
-      </c>
-      <c r="D15" s="37">
-        <v>16622.081111111111</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="B15" s="32">
+        <v>26810.628172222223</v>
+      </c>
+      <c r="C15" s="32">
         <v>6478.6360972222228</v>
       </c>
-      <c r="F15" s="37">
+      <c r="D15" s="32">
         <v>916.66666666666663</v>
       </c>
-      <c r="G15" s="37">
+      <c r="E15" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H15" s="37">
+      <c r="F15" s="32">
         <v>325.30555555555554</v>
       </c>
-      <c r="I15" s="37">
+      <c r="G15" s="32">
         <v>1106.3333333333333</v>
       </c>
-      <c r="J15" s="37">
+      <c r="H15" s="32">
         <v>63.27055277777778</v>
       </c>
-      <c r="K15" s="37">
+      <c r="I15" s="32">
         <v>618.79489080555561</v>
       </c>
-      <c r="L15" s="37">
+      <c r="J15" s="32">
         <v>182.5</v>
       </c>
-      <c r="M15" s="37">
+      <c r="K15" s="32">
         <v>894.44444444444446</v>
       </c>
-      <c r="N15" s="37">
+      <c r="L15" s="32">
         <v>583.33333333333337</v>
       </c>
-      <c r="O15" s="37">
+      <c r="M15" s="32">
         <v>777.77777777777783</v>
       </c>
-      <c r="P15" s="37">
+      <c r="N15" s="32">
         <f t="shared" si="0"/>
         <v>12216.090429694446</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>44986</v>
       </c>
-      <c r="B16" s="37">
-        <v>7636.8269341522582</v>
-      </c>
-      <c r="C16" s="37">
-        <v>5603.8833169390737</v>
-      </c>
-      <c r="D16" s="37">
-        <v>21306.423360019777</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="B16" s="32">
+        <v>34547.913611111107</v>
+      </c>
+      <c r="C16" s="32">
         <v>7719.3922000398143</v>
       </c>
-      <c r="F16" s="37">
+      <c r="D16" s="32">
         <v>1444.4444444444443</v>
       </c>
-      <c r="G16" s="37">
+      <c r="E16" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H16" s="37">
+      <c r="F16" s="32">
         <v>712.96624999999995</v>
       </c>
-      <c r="I16" s="37">
+      <c r="G16" s="32">
         <v>1090.6388888888889</v>
       </c>
-      <c r="J16" s="37">
+      <c r="H16" s="32">
         <v>212.23531166666669</v>
       </c>
-      <c r="K16" s="37">
+      <c r="I16" s="32">
         <v>618.79489080555561</v>
       </c>
-      <c r="L16" s="37">
+      <c r="J16" s="32">
         <v>318.13888888888891</v>
       </c>
-      <c r="M16" s="37">
+      <c r="K16" s="32">
         <v>926.89491277777779</v>
       </c>
-      <c r="N16" s="37">
+      <c r="L16" s="32">
         <v>189.90263766666666</v>
       </c>
-      <c r="O16" s="37">
+      <c r="M16" s="32">
         <v>833.33333333333337</v>
       </c>
-      <c r="P16" s="37">
+      <c r="N16" s="32">
         <f t="shared" si="0"/>
         <v>14335.769536289812</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>45017</v>
       </c>
-      <c r="B17" s="37">
-        <v>10182.808819444444</v>
-      </c>
-      <c r="C17" s="37">
-        <v>6788.5391666666665</v>
-      </c>
-      <c r="D17" s="37">
-        <v>17039.369466666667</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="B17" s="32">
+        <v>34011.447452777778</v>
+      </c>
+      <c r="C17" s="32">
         <v>7357.7447836620368</v>
       </c>
-      <c r="F17" s="37">
+      <c r="D17" s="32">
         <v>1418.7798666666665</v>
       </c>
-      <c r="G17" s="37">
+      <c r="E17" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H17" s="37">
+      <c r="F17" s="32">
         <v>210.5</v>
       </c>
-      <c r="I17" s="37">
+      <c r="G17" s="32">
         <v>1202.8333333333333</v>
       </c>
-      <c r="J17" s="37">
+      <c r="H17" s="32">
         <v>212.40887013888889</v>
       </c>
-      <c r="K17" s="37">
+      <c r="I17" s="32">
         <v>672.26695319444445</v>
       </c>
-      <c r="L17" s="37">
+      <c r="J17" s="32">
         <v>323.63888888888891</v>
       </c>
-      <c r="M17" s="37">
+      <c r="K17" s="32">
         <v>840.4097613888888</v>
       </c>
-      <c r="N17" s="37">
+      <c r="L17" s="32">
         <v>339.38964222222216</v>
       </c>
-      <c r="O17" s="37">
+      <c r="M17" s="32">
         <v>861.11111111111109</v>
       </c>
-      <c r="P17" s="37">
+      <c r="N17" s="32">
         <f t="shared" si="0"/>
         <v>13708.110988384258</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60">
         <v>45047</v>
       </c>
-      <c r="B18" s="37">
-        <v>7338.333333333333</v>
-      </c>
-      <c r="C18" s="37">
-        <v>5283.6402777777776</v>
-      </c>
-      <c r="D18" s="37">
-        <v>16731.527777777777</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="B18" s="32">
+        <v>29354.101388888885</v>
+      </c>
+      <c r="C18" s="32">
         <v>7855.7350000000006</v>
       </c>
-      <c r="F18" s="37">
+      <c r="D18" s="32">
         <v>930.55555555555554</v>
       </c>
-      <c r="G18" s="37">
+      <c r="E18" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H18" s="37">
+      <c r="F18" s="32">
         <v>399.33749999999998</v>
       </c>
-      <c r="I18" s="37">
+      <c r="G18" s="32">
         <v>1399.8888888888891</v>
       </c>
-      <c r="J18" s="37">
+      <c r="H18" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K18" s="37">
+      <c r="I18" s="32">
         <v>643.47820875000002</v>
       </c>
-      <c r="L18" s="37">
+      <c r="J18" s="32">
         <v>220.83333333333334</v>
       </c>
-      <c r="M18" s="37">
+      <c r="K18" s="32">
         <v>648.72799499999985</v>
       </c>
-      <c r="N18" s="37">
+      <c r="L18" s="32">
         <v>366.89441874999994</v>
       </c>
-      <c r="O18" s="37">
+      <c r="M18" s="32">
         <v>702.77777777777783</v>
       </c>
-      <c r="P18" s="37">
+      <c r="N18" s="32">
         <f t="shared" si="0"/>
         <v>13649.845137638888</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>45078</v>
       </c>
-      <c r="B19" s="37">
-        <v>6458.8563888888884</v>
-      </c>
-      <c r="C19" s="37">
-        <v>4085.951111111111</v>
-      </c>
-      <c r="D19" s="37">
-        <v>15332.020833333334</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="B19" s="32">
+        <v>25877.348333333335</v>
+      </c>
+      <c r="C19" s="32">
         <v>7914.3113421898142</v>
       </c>
-      <c r="F19" s="37">
+      <c r="D19" s="32">
         <v>698.5430555555555</v>
       </c>
-      <c r="G19" s="37">
+      <c r="E19" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H19" s="37">
+      <c r="F19" s="32">
         <v>128.65333333333331</v>
       </c>
-      <c r="I19" s="37">
+      <c r="G19" s="32">
         <v>1108.2233333333334</v>
       </c>
-      <c r="J19" s="37">
+      <c r="H19" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K19" s="37">
+      <c r="I19" s="32">
         <v>643.47820875000002</v>
       </c>
-      <c r="L19" s="37">
+      <c r="J19" s="32">
         <v>264.80555555555554</v>
       </c>
-      <c r="M19" s="37">
+      <c r="K19" s="32">
         <v>954.57461449999994</v>
       </c>
-      <c r="N19" s="37">
+      <c r="L19" s="32">
         <v>289.95980819444441</v>
       </c>
-      <c r="O19" s="37">
+      <c r="M19" s="32">
         <v>675</v>
       </c>
-      <c r="P19" s="37">
+      <c r="N19" s="32">
         <f t="shared" si="0"/>
         <v>13159.165710995368</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60">
         <v>45108</v>
       </c>
-      <c r="B20" s="37">
-        <v>7797.3772222222224</v>
-      </c>
-      <c r="C20" s="37">
-        <v>5928.2080555555549</v>
-      </c>
-      <c r="D20" s="37">
-        <v>20746.446944444444</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="B20" s="32">
+        <v>34472.862222222218</v>
+      </c>
+      <c r="C20" s="32">
         <v>7660.6802561824079</v>
       </c>
-      <c r="F20" s="37">
+      <c r="D20" s="32">
         <v>1500</v>
       </c>
-      <c r="G20" s="37">
+      <c r="E20" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H20" s="37">
+      <c r="F20" s="32">
         <v>702.27555555555557</v>
       </c>
-      <c r="I20" s="37">
+      <c r="G20" s="32">
         <v>1379.3602777777778</v>
       </c>
-      <c r="J20" s="37">
+      <c r="H20" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K20" s="37">
+      <c r="I20" s="32">
         <v>643.47820875000002</v>
       </c>
-      <c r="L20" s="37">
+      <c r="J20" s="32">
         <v>452.11111111111109</v>
       </c>
-      <c r="M20" s="37">
+      <c r="K20" s="32">
         <v>649.80768499999999</v>
       </c>
-      <c r="N20" s="37">
+      <c r="L20" s="32">
         <v>319.48371291666666</v>
       </c>
-      <c r="O20" s="37">
+      <c r="M20" s="32">
         <v>933.33333333333337</v>
       </c>
-      <c r="P20" s="37">
+      <c r="N20" s="32">
         <f t="shared" si="0"/>
         <v>14722.146600210186</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>45139</v>
       </c>
-      <c r="B21" s="37">
-        <v>6600</v>
-      </c>
-      <c r="C21" s="37">
-        <v>4400</v>
-      </c>
-      <c r="D21" s="37">
-        <v>17000</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="B21" s="32">
+        <v>28000.62</v>
+      </c>
+      <c r="C21" s="32">
         <v>7613.9563509995187</v>
       </c>
-      <c r="F21" s="37">
+      <c r="D21" s="32">
         <v>1200</v>
       </c>
-      <c r="G21" s="37">
+      <c r="E21" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H21" s="37">
+      <c r="F21" s="32">
         <v>70.694444444444443</v>
       </c>
-      <c r="I21" s="37">
+      <c r="G21" s="32">
         <v>1449.5555555555557</v>
       </c>
-      <c r="J21" s="37">
+      <c r="H21" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K21" s="37">
+      <c r="I21" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L21" s="37">
+      <c r="J21" s="32">
         <v>250</v>
       </c>
-      <c r="M21" s="37">
+      <c r="K21" s="32">
         <v>680</v>
       </c>
-      <c r="N21" s="37">
+      <c r="L21" s="32">
         <v>200</v>
       </c>
-      <c r="O21" s="37">
+      <c r="M21" s="32">
         <v>840</v>
       </c>
-      <c r="P21" s="37">
+      <c r="N21" s="32">
         <f t="shared" si="0"/>
         <v>13439.455463777298</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>45170</v>
       </c>
-      <c r="B22" s="37">
-        <v>5879.8754133333341</v>
-      </c>
-      <c r="C22" s="37">
-        <v>3919.916942222223</v>
-      </c>
-      <c r="D22" s="37">
-        <v>14699.688533333334</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="B22" s="32">
+        <v>24500.180888888892</v>
+      </c>
+      <c r="C22" s="32">
         <v>8813.9563509995187</v>
       </c>
-      <c r="F22" s="37">
+      <c r="D22" s="32">
         <v>1200</v>
       </c>
-      <c r="G22" s="37">
+      <c r="E22" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H22" s="37">
+      <c r="F22" s="32">
         <v>144.0925</v>
       </c>
-      <c r="I22" s="37">
+      <c r="G22" s="32">
         <v>1444.4444444444443</v>
       </c>
-      <c r="J22" s="37">
+      <c r="H22" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K22" s="37">
+      <c r="I22" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L22" s="37">
+      <c r="J22" s="32">
         <v>250</v>
       </c>
-      <c r="M22" s="37">
+      <c r="K22" s="32">
         <v>587.98754133333341</v>
       </c>
-      <c r="N22" s="37">
+      <c r="L22" s="32">
         <v>240</v>
       </c>
-      <c r="O22" s="37">
+      <c r="M22" s="32">
         <v>734.98442666666665</v>
       </c>
-      <c r="P22" s="37">
+      <c r="N22" s="32">
         <f t="shared" si="0"/>
         <v>14550.714376221742</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60">
         <v>45200</v>
       </c>
-      <c r="B23" s="37">
-        <v>4246.9889631233336</v>
-      </c>
-      <c r="C23" s="37">
-        <v>2831.3259754155561</v>
-      </c>
-      <c r="D23" s="37">
-        <v>8309.3262315000011</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="B23" s="32">
+        <v>15388.04117003889</v>
+      </c>
+      <c r="C23" s="32">
         <v>7613.9563509995187</v>
       </c>
-      <c r="F23" s="37">
+      <c r="D23" s="32">
         <v>1400</v>
       </c>
-      <c r="G23" s="37">
+      <c r="E23" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H23" s="37">
+      <c r="F23" s="32">
         <v>173.31416666666667</v>
       </c>
-      <c r="I23" s="37">
+      <c r="G23" s="32">
         <v>995</v>
       </c>
-      <c r="J23" s="37">
+      <c r="H23" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K23" s="37">
+      <c r="I23" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L23" s="37">
+      <c r="J23" s="32">
         <v>250</v>
       </c>
-      <c r="M23" s="37">
+      <c r="K23" s="32">
         <v>332.37304926000007</v>
       </c>
-      <c r="N23" s="37">
+      <c r="L23" s="32">
         <v>200</v>
       </c>
-      <c r="O23" s="37">
+      <c r="M23" s="32">
         <v>461.62923510116673</v>
       </c>
-      <c r="P23" s="37">
+      <c r="N23" s="32">
         <f t="shared" si="0"/>
         <v>12561.521914805131</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>45231</v>
       </c>
-      <c r="B24" s="37">
-        <v>6243.5336333333335</v>
-      </c>
-      <c r="C24" s="37">
-        <v>4162.3557555555553</v>
-      </c>
-      <c r="D24" s="37">
-        <v>16275.878055555557</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="B24" s="32">
+        <v>26682.397444444447</v>
+      </c>
+      <c r="C24" s="32">
         <v>7613.9563509995187</v>
       </c>
-      <c r="F24" s="37">
+      <c r="D24" s="32">
         <v>1400</v>
       </c>
-      <c r="G24" s="37">
+      <c r="E24" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H24" s="37">
+      <c r="F24" s="32">
         <v>55.888888888888886</v>
       </c>
-      <c r="I24" s="37">
+      <c r="G24" s="32">
         <v>1076.1111111111111</v>
       </c>
-      <c r="J24" s="37">
+      <c r="H24" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K24" s="37">
+      <c r="I24" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L24" s="37">
+      <c r="J24" s="32">
         <v>275</v>
       </c>
-      <c r="M24" s="37">
+      <c r="K24" s="32">
         <v>651.0351222222223</v>
       </c>
-      <c r="N24" s="37">
+      <c r="L24" s="32">
         <v>290</v>
       </c>
-      <c r="O24" s="37">
+      <c r="M24" s="32">
         <v>800.45302333333336</v>
       </c>
-      <c r="P24" s="37">
+      <c r="N24" s="32">
         <f t="shared" si="0"/>
         <v>13297.693609332851</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60">
         <v>45261</v>
       </c>
-      <c r="B25" s="37">
-        <v>9017.5477333333347</v>
-      </c>
-      <c r="C25" s="37">
-        <v>6011.6984888888901</v>
-      </c>
-      <c r="D25" s="37">
-        <v>17643.028027777778</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="B25" s="32">
+        <v>32673.114250000002</v>
+      </c>
+      <c r="C25" s="32">
         <v>7913.9563509995187</v>
       </c>
-      <c r="F25" s="37">
+      <c r="D25" s="32">
         <v>1300</v>
       </c>
-      <c r="G25" s="37">
+      <c r="E25" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H25" s="37">
+      <c r="F25" s="32">
         <v>406.01888888888891</v>
       </c>
-      <c r="I25" s="37">
+      <c r="G25" s="32">
         <v>1476.1111111111111</v>
       </c>
-      <c r="J25" s="37">
+      <c r="H25" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K25" s="37">
+      <c r="I25" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L25" s="37">
+      <c r="J25" s="32">
         <v>275</v>
       </c>
-      <c r="M25" s="37">
+      <c r="K25" s="32">
         <v>705.72112111111119</v>
       </c>
-      <c r="N25" s="37">
+      <c r="L25" s="32">
         <v>300</v>
       </c>
-      <c r="O25" s="37">
+      <c r="M25" s="32">
         <v>980.16822750000006</v>
       </c>
-      <c r="P25" s="37">
+      <c r="N25" s="32">
         <f t="shared" si="0"/>
         <v>14492.224812388409</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
         <v>45292</v>
       </c>
-      <c r="B26" s="37">
-        <v>10017.399141666665</v>
-      </c>
-      <c r="C26" s="37">
-        <v>6678.2660944444433</v>
-      </c>
-      <c r="D26" s="37">
-        <v>19069.495356652948</v>
-      </c>
-      <c r="E26" s="37">
+      <c r="B26" s="32">
+        <v>35765.990592764058</v>
+      </c>
+      <c r="C26" s="32">
         <v>8797.2896843328526</v>
       </c>
-      <c r="F26" s="37">
+      <c r="D26" s="32">
         <v>1000</v>
       </c>
-      <c r="G26" s="37">
+      <c r="E26" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H26" s="37">
+      <c r="F26" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I26" s="37">
+      <c r="G26" s="32">
         <v>1123</v>
       </c>
-      <c r="J26" s="37">
+      <c r="H26" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K26" s="37">
+      <c r="I26" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L26" s="37">
+      <c r="J26" s="32">
         <v>275</v>
       </c>
-      <c r="M26" s="37">
+      <c r="K26" s="32">
         <v>762.77981426611791</v>
       </c>
-      <c r="N26" s="37">
+      <c r="L26" s="32">
         <v>277.43523555555555</v>
       </c>
-      <c r="O26" s="37">
+      <c r="M26" s="32">
         <v>1072.9548177829217</v>
       </c>
-      <c r="P26" s="37">
+      <c r="N26" s="32">
         <f t="shared" si="0"/>
         <v>14819.625331381891</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60">
         <v>45323</v>
       </c>
-      <c r="B27" s="37">
-        <v>6300.7173516410267</v>
-      </c>
-      <c r="C27" s="37">
-        <v>4200.4782344273508</v>
-      </c>
-      <c r="D27" s="37">
-        <v>17027.497723577235</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="B27" s="32">
+        <v>27529.533309645612</v>
+      </c>
+      <c r="C27" s="32">
         <v>7613.9563509995187</v>
       </c>
-      <c r="F27" s="37">
+      <c r="D27" s="32">
         <v>900</v>
       </c>
-      <c r="G27" s="37">
+      <c r="E27" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H27" s="37">
+      <c r="F27" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I27" s="37">
+      <c r="G27" s="32">
         <v>1115.2222222222222</v>
       </c>
-      <c r="J27" s="37">
+      <c r="H27" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K27" s="37">
+      <c r="I27" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L27" s="37">
+      <c r="J27" s="32">
         <v>275</v>
       </c>
-      <c r="M27" s="37">
+      <c r="K27" s="32">
         <v>681.09990894308942</v>
       </c>
-      <c r="N27" s="37">
+      <c r="L27" s="32">
         <v>583.33333333333337</v>
       </c>
-      <c r="O27" s="37">
+      <c r="M27" s="32">
         <v>825.86079928936829</v>
       </c>
-      <c r="P27" s="37">
+      <c r="N27" s="32">
         <f t="shared" si="0"/>
         <v>13505.638394231977</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60">
         <v>45352</v>
       </c>
-      <c r="B28" s="37">
-        <v>7626.6491046286064</v>
-      </c>
-      <c r="C28" s="37">
-        <v>5084.4327364190722</v>
-      </c>
-      <c r="D28" s="37">
-        <v>20486.945538480555</v>
-      </c>
-      <c r="E28" s="37">
+      <c r="B28" s="32">
+        <v>33198.777379528234</v>
+      </c>
+      <c r="C28" s="32">
         <v>8643.5396843328526</v>
       </c>
-      <c r="F28" s="37">
+      <c r="D28" s="32">
         <v>900</v>
       </c>
-      <c r="G28" s="37">
+      <c r="E28" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H28" s="37">
+      <c r="F28" s="32">
         <v>261.44444444444446</v>
       </c>
-      <c r="I28" s="37">
+      <c r="G28" s="32">
         <v>1117.3055555555557</v>
       </c>
-      <c r="J28" s="37">
+      <c r="H28" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K28" s="37">
+      <c r="I28" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L28" s="37">
+      <c r="J28" s="32">
         <v>300</v>
       </c>
-      <c r="M28" s="37">
+      <c r="K28" s="32">
         <v>819.47782153922219</v>
       </c>
-      <c r="N28" s="37">
+      <c r="L28" s="32">
         <v>189.90263766666666</v>
       </c>
-      <c r="O28" s="37">
+      <c r="M28" s="32">
         <v>995.94082138584702</v>
       </c>
-      <c r="P28" s="37">
+      <c r="N28" s="32">
         <f t="shared" si="0"/>
         <v>14362.860077702366</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>45383</v>
       </c>
-      <c r="B29" s="37">
-        <v>9823.4155401960779</v>
-      </c>
-      <c r="C29" s="37">
-        <v>6548.9436934640526</v>
-      </c>
-      <c r="D29" s="37">
-        <v>17039.369466666667</v>
-      </c>
-      <c r="E29" s="37">
+      <c r="B29" s="32">
+        <v>33412.508700326798</v>
+      </c>
+      <c r="C29" s="32">
         <v>7613.9563509995187</v>
       </c>
-      <c r="F29" s="37">
+      <c r="D29" s="32">
         <v>900</v>
       </c>
-      <c r="G29" s="37">
+      <c r="E29" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H29" s="37">
+      <c r="F29" s="32">
         <v>193.11111111111111</v>
       </c>
-      <c r="I29" s="37">
+      <c r="G29" s="32">
         <v>1244.5</v>
       </c>
-      <c r="J29" s="37">
+      <c r="H29" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K29" s="37">
+      <c r="I29" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L29" s="37">
+      <c r="J29" s="32">
         <v>300</v>
       </c>
-      <c r="M29" s="37">
+      <c r="K29" s="32">
         <v>681.5747786666667</v>
       </c>
-      <c r="N29" s="37">
+      <c r="L29" s="32">
         <v>339.38964222222216</v>
       </c>
-      <c r="O29" s="37">
+      <c r="M29" s="32">
         <v>1002.351861009804</v>
       </c>
-      <c r="P29" s="37">
+      <c r="N29" s="32">
         <f t="shared" si="0"/>
         <v>13410.132856787101</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60">
         <v>45413</v>
       </c>
-      <c r="B30" s="37">
-        <v>6058.547333333333</v>
-      </c>
-      <c r="C30" s="37">
-        <v>4039.0315555555558</v>
-      </c>
-      <c r="D30" s="37">
-        <v>16731.527777777777</v>
-      </c>
-      <c r="E30" s="37">
+      <c r="B30" s="32">
+        <v>26829.706666666665</v>
+      </c>
+      <c r="C30" s="32">
         <v>7816.1785732217413</v>
       </c>
-      <c r="F30" s="37">
+      <c r="D30" s="32">
         <v>1300</v>
       </c>
-      <c r="G30" s="37">
+      <c r="E30" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H30" s="37">
+      <c r="F30" s="32">
         <v>401.14444444444445</v>
       </c>
-      <c r="I30" s="37">
+      <c r="G30" s="32">
         <v>1433.2222222222224</v>
       </c>
-      <c r="J30" s="37">
+      <c r="H30" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K30" s="37">
+      <c r="I30" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L30" s="37">
+      <c r="J30" s="32">
         <v>300</v>
       </c>
-      <c r="M30" s="37">
+      <c r="K30" s="32">
         <v>669.26111111111106</v>
       </c>
-      <c r="N30" s="37">
+      <c r="L30" s="32">
         <v>366.89441874999994</v>
       </c>
-      <c r="O30" s="37">
+      <c r="M30" s="32">
         <v>804.8732</v>
       </c>
-      <c r="P30" s="37">
+      <c r="N30" s="32">
         <f t="shared" si="0"/>
         <v>14226.823082527297</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="60">
         <v>45444</v>
       </c>
-      <c r="B31" s="37">
-        <v>3893.4673846153837</v>
-      </c>
-      <c r="C31" s="37">
-        <v>2595.6449230769231</v>
-      </c>
-      <c r="D31" s="37">
-        <v>15332.020833333334</v>
-      </c>
-      <c r="E31" s="37">
+      <c r="B31" s="32">
+        <v>21821.67314102564</v>
+      </c>
+      <c r="C31" s="32">
         <v>8858.4007954439621</v>
       </c>
-      <c r="F31" s="37">
+      <c r="D31" s="32">
         <v>1400</v>
       </c>
-      <c r="G31" s="37">
+      <c r="E31" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H31" s="37">
+      <c r="F31" s="32">
         <v>126.44999999999999</v>
       </c>
-      <c r="I31" s="37">
+      <c r="G31" s="32">
         <v>1131.5555555555557</v>
       </c>
-      <c r="J31" s="37">
+      <c r="H31" s="32">
         <v>212.58868180555552</v>
       </c>
-      <c r="K31" s="37">
+      <c r="I31" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L31" s="37">
+      <c r="J31" s="32">
         <v>300</v>
       </c>
-      <c r="M31" s="37">
+      <c r="K31" s="32">
         <v>613.28083333333336</v>
       </c>
-      <c r="N31" s="37">
+      <c r="L31" s="32">
         <v>289.95980819444441</v>
       </c>
-      <c r="O31" s="37">
+      <c r="M31" s="32">
         <v>654.63399423076919</v>
       </c>
-      <c r="P31" s="37">
+      <c r="N31" s="32">
         <f t="shared" si="0"/>
         <v>14509.530099535843</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60">
         <v>45474</v>
       </c>
-      <c r="B32" s="37">
-        <v>7058.8724285714279</v>
-      </c>
-      <c r="C32" s="37">
-        <v>4705.9149523809529</v>
-      </c>
-      <c r="D32" s="37">
-        <v>20746.446944444444</v>
-      </c>
-      <c r="E32" s="37">
+      <c r="B32" s="32">
+        <v>32512.064325396826</v>
+      </c>
+      <c r="C32" s="32">
         <v>7752.8452398884074</v>
       </c>
-      <c r="F32" s="37">
+      <c r="D32" s="32">
         <v>1300</v>
       </c>
-      <c r="G32" s="37">
+      <c r="E32" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H32" s="37">
+      <c r="F32" s="32">
         <v>78.932500000000005</v>
       </c>
-      <c r="I32" s="37">
+      <c r="G32" s="32">
         <v>1429.4444444444443</v>
       </c>
-      <c r="J32" s="37">
+      <c r="H32" s="32">
         <v>230</v>
       </c>
-      <c r="K32" s="37">
+      <c r="I32" s="32">
         <v>653.6326531944444</v>
       </c>
-      <c r="L32" s="37">
+      <c r="J32" s="32">
         <v>300</v>
       </c>
-      <c r="M32" s="37">
+      <c r="K32" s="32">
         <v>829.85787777777773</v>
       </c>
-      <c r="N32" s="37">
+      <c r="L32" s="32">
         <v>319.48371291666666</v>
       </c>
-      <c r="O32" s="37">
+      <c r="M32" s="32">
         <v>975.33702976190466</v>
       </c>
-      <c r="P32" s="37">
+      <c r="N32" s="32">
         <f t="shared" si="0"/>
         <v>14138.561235761423</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60">
         <v>45505</v>
       </c>
-      <c r="B33" s="37">
-        <v>9900</v>
-      </c>
-      <c r="C33" s="37">
-        <v>6600</v>
-      </c>
-      <c r="D33" s="37">
-        <v>17000</v>
-      </c>
-      <c r="E33" s="37">
+      <c r="B33" s="32">
+        <v>33500.619999999995</v>
+      </c>
+      <c r="C33" s="32">
         <v>7806</v>
       </c>
-      <c r="F33" s="37">
+      <c r="D33" s="32">
         <v>1000</v>
       </c>
-      <c r="G33" s="37">
+      <c r="E33" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H33" s="37">
+      <c r="F33" s="32">
         <v>70.694444444444443</v>
       </c>
-      <c r="I33" s="37">
+      <c r="G33" s="32">
         <v>1449.5555555555557</v>
       </c>
-      <c r="J33" s="37">
+      <c r="H33" s="32">
         <v>230</v>
       </c>
-      <c r="K33" s="37">
+      <c r="I33" s="32">
         <v>656.48714069444441</v>
       </c>
-      <c r="L33" s="37">
+      <c r="J33" s="32">
         <v>300</v>
       </c>
-      <c r="M33" s="37">
+      <c r="K33" s="32">
         <v>680</v>
       </c>
-      <c r="N33" s="37">
+      <c r="L33" s="32">
         <v>200</v>
       </c>
-      <c r="O33" s="37">
+      <c r="M33" s="32">
         <v>1005</v>
       </c>
-      <c r="P33" s="37">
+      <c r="N33" s="32">
         <f t="shared" si="0"/>
         <v>13666.764918472221</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60">
         <v>45536</v>
       </c>
-      <c r="B34" s="37">
-        <v>5879.8754133333341</v>
-      </c>
-      <c r="C34" s="37">
-        <v>3919.916942222223</v>
-      </c>
-      <c r="D34" s="37">
-        <v>15728.666730666668</v>
-      </c>
-      <c r="E34" s="37">
+      <c r="B34" s="32">
+        <v>25529.159086222226</v>
+      </c>
+      <c r="C34" s="32">
         <v>9036</v>
       </c>
-      <c r="F34" s="37">
+      <c r="D34" s="32">
         <v>1000</v>
       </c>
-      <c r="G34" s="37">
+      <c r="E34" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H34" s="37">
+      <c r="F34" s="32">
         <v>144.0925</v>
       </c>
-      <c r="I34" s="37">
+      <c r="G34" s="32">
         <v>1444.4444444444443</v>
       </c>
-      <c r="J34" s="37">
+      <c r="H34" s="32">
         <v>230</v>
       </c>
-      <c r="K34" s="37">
+      <c r="I34" s="32">
         <v>656.48714069444441</v>
       </c>
-      <c r="L34" s="37">
+      <c r="J34" s="32">
         <v>300</v>
       </c>
-      <c r="M34" s="37">
+      <c r="K34" s="32">
         <v>629.14666922666675</v>
       </c>
-      <c r="N34" s="37">
+      <c r="L34" s="32">
         <v>240</v>
       </c>
-      <c r="O34" s="37">
+      <c r="M34" s="32">
         <v>765.85377258666676</v>
       </c>
-      <c r="P34" s="37">
+      <c r="N34" s="32">
         <f t="shared" si="0"/>
         <v>14715.052304729998</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60">
         <v>45566</v>
       </c>
-      <c r="B35" s="37">
-        <v>5096.3867557479998</v>
-      </c>
-      <c r="C35" s="37">
-        <v>3397.591170498667</v>
-      </c>
-      <c r="D35" s="37">
-        <v>8890.9790677050023</v>
-      </c>
-      <c r="E35" s="37">
+      <c r="B35" s="32">
+        <v>17385.356993951667</v>
+      </c>
+      <c r="C35" s="32">
         <v>7836</v>
       </c>
-      <c r="F35" s="37">
+      <c r="D35" s="32">
         <v>1300</v>
       </c>
-      <c r="G35" s="37">
+      <c r="E35" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H35" s="37">
+      <c r="F35" s="32">
         <v>173.31416666666667</v>
       </c>
-      <c r="I35" s="37">
+      <c r="G35" s="32">
         <v>995</v>
       </c>
-      <c r="J35" s="37">
+      <c r="H35" s="32">
         <v>230</v>
       </c>
-      <c r="K35" s="37">
+      <c r="I35" s="32">
         <v>656.48714069444441</v>
       </c>
-      <c r="L35" s="37">
+      <c r="J35" s="32">
         <v>300</v>
       </c>
-      <c r="M35" s="37">
+      <c r="K35" s="32">
         <v>355.6391627082001</v>
       </c>
-      <c r="N35" s="37">
+      <c r="L35" s="32">
         <v>200</v>
       </c>
-      <c r="O35" s="37">
+      <c r="M35" s="32">
         <v>521.54870981855004</v>
       </c>
-      <c r="P35" s="37">
+      <c r="N35" s="32">
         <f t="shared" si="0"/>
         <v>12837.016957665637</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60">
         <v>45597</v>
       </c>
-      <c r="B36" s="37">
-        <v>6243.5336333333335</v>
-      </c>
-      <c r="C36" s="37">
-        <v>4162.3557555555553</v>
-      </c>
-      <c r="D36" s="37">
-        <v>16792.572597001767</v>
-      </c>
-      <c r="E36" s="37">
+      <c r="B36" s="32">
+        <v>27199.111985890657</v>
+      </c>
+      <c r="C36" s="32">
         <v>7936</v>
       </c>
-      <c r="F36" s="37">
+      <c r="D36" s="32">
         <v>1000</v>
       </c>
-      <c r="G36" s="37">
+      <c r="E36" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H36" s="37">
+      <c r="F36" s="32">
         <v>55.888888888888886</v>
       </c>
-      <c r="I36" s="37">
+      <c r="G36" s="32">
         <v>1076.1111111111111</v>
       </c>
-      <c r="J36" s="37">
+      <c r="H36" s="32">
         <v>230</v>
       </c>
-      <c r="K36" s="37">
+      <c r="I36" s="32">
         <v>656.48714069444395</v>
       </c>
-      <c r="L36" s="37">
+      <c r="J36" s="32">
         <v>300</v>
       </c>
-      <c r="M36" s="37">
+      <c r="K36" s="32">
         <v>671.70290388007072</v>
       </c>
-      <c r="N36" s="37">
+      <c r="L36" s="32">
         <v>290</v>
       </c>
-      <c r="O36" s="37">
+      <c r="M36" s="32">
         <v>815.95385957671965</v>
       </c>
-      <c r="P36" s="37">
+      <c r="N36" s="32">
         <f t="shared" si="0"/>
         <v>13301.17168192901</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60">
         <v>45627</v>
       </c>
-      <c r="B37" s="37">
-        <v>8487.1037490196086</v>
-      </c>
-      <c r="C37" s="37">
-        <v>5658.0691660130733</v>
-      </c>
-      <c r="D37" s="37">
-        <v>18063.10012367725</v>
-      </c>
-      <c r="E37" s="37">
+      <c r="B37" s="32">
+        <v>32209.133038709933</v>
+      </c>
+      <c r="C37" s="32">
         <v>8236</v>
       </c>
-      <c r="F37" s="37">
+      <c r="D37" s="32">
         <v>900</v>
       </c>
-      <c r="G37" s="37">
+      <c r="E37" s="32">
         <v>269.02777777777777</v>
       </c>
-      <c r="H37" s="37">
+      <c r="F37" s="32">
         <v>406.01888888888891</v>
       </c>
-      <c r="I37" s="37">
+      <c r="G37" s="32">
         <v>1476.1111111111111</v>
       </c>
-      <c r="J37" s="37">
+      <c r="H37" s="32">
         <v>230</v>
       </c>
-      <c r="K37" s="37">
+      <c r="I37" s="32">
         <v>676.48714069444395</v>
       </c>
-      <c r="L37" s="37">
+      <c r="J37" s="32">
         <v>350</v>
       </c>
-      <c r="M37" s="37">
+      <c r="K37" s="32">
         <v>722.52400494709002</v>
       </c>
-      <c r="N37" s="37">
+      <c r="L37" s="32">
         <v>300</v>
       </c>
-      <c r="O37" s="37">
+      <c r="M37" s="32">
         <v>966.248191161298</v>
       </c>
-      <c r="P37" s="37">
+      <c r="N37" s="32">
         <f t="shared" si="0"/>
         <v>14532.41711458061</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60">
         <v>45658</v>
       </c>
-      <c r="B38" s="37">
-        <v>10383.889354166664</v>
-      </c>
-      <c r="C38" s="37">
-        <v>6922.5929027777765</v>
-      </c>
-      <c r="D38" s="37">
-        <v>19758.754224965702</v>
-      </c>
-      <c r="E38" s="37">
+      <c r="B38" s="32">
+        <v>37066.096481910143</v>
+      </c>
+      <c r="C38" s="32">
         <v>9119.3333333333321</v>
       </c>
-      <c r="F38" s="37">
+      <c r="D38" s="32">
         <v>1000</v>
       </c>
-      <c r="G38" s="37">
+      <c r="E38" s="32">
         <v>275</v>
       </c>
-      <c r="H38" s="37">
+      <c r="F38" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I38" s="37">
+      <c r="G38" s="32">
         <v>1078.5555555555554</v>
       </c>
-      <c r="J38" s="37">
+      <c r="H38" s="32">
         <v>230</v>
       </c>
-      <c r="K38" s="37">
+      <c r="I38" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L38" s="37">
+      <c r="J38" s="32">
         <v>350</v>
       </c>
-      <c r="M38" s="37">
+      <c r="K38" s="32">
         <v>790.35016899862808</v>
       </c>
-      <c r="N38" s="37">
+      <c r="L38" s="32">
         <v>277.43523555555555</v>
       </c>
-      <c r="O38" s="37">
+      <c r="M38" s="32">
         <v>1111.9570944573043</v>
       </c>
-      <c r="P38" s="37">
+      <c r="N38" s="32">
         <f t="shared" si="0"/>
         <v>15290.035195261484</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60">
         <v>45689</v>
       </c>
-      <c r="B39" s="37">
-        <v>6582.8390241025636</v>
-      </c>
-      <c r="C39" s="37">
-        <v>4388.5593494017094</v>
-      </c>
-      <c r="D39" s="37">
-        <v>17635.622642276423</v>
-      </c>
-      <c r="E39" s="37">
+      <c r="B39" s="32">
+        <v>28607.891015780697</v>
+      </c>
+      <c r="C39" s="32">
         <v>7936</v>
       </c>
-      <c r="F39" s="37">
+      <c r="D39" s="32">
         <v>900</v>
       </c>
-      <c r="G39" s="37">
+      <c r="E39" s="32">
         <v>275</v>
       </c>
-      <c r="H39" s="37">
+      <c r="F39" s="32">
         <v>375.91666666666669</v>
       </c>
-      <c r="I39" s="37">
+      <c r="G39" s="32">
         <v>1106.3333333333333</v>
       </c>
-      <c r="J39" s="37">
+      <c r="H39" s="32">
         <v>230</v>
       </c>
-      <c r="K39" s="37">
+      <c r="I39" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L39" s="37">
+      <c r="J39" s="32">
         <v>350</v>
       </c>
-      <c r="M39" s="37">
+      <c r="K39" s="32">
         <v>705.42490569105689</v>
       </c>
-      <c r="N39" s="37">
+      <c r="L39" s="32">
         <v>583.33333333333337</v>
       </c>
-      <c r="O39" s="37">
+      <c r="M39" s="32">
         <v>858.21063047342079</v>
       </c>
-      <c r="P39" s="37">
+      <c r="N39" s="32">
         <f t="shared" si="0"/>
         <v>14001.706010192256</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60">
         <v>45717</v>
       </c>
-      <c r="B40" s="37">
-        <v>7944.4261506547991</v>
-      </c>
-      <c r="C40" s="37">
-        <v>5296.2841004365328</v>
-      </c>
-      <c r="D40" s="37">
-        <v>21306.42336001978</v>
-      </c>
-      <c r="E40" s="37">
+      <c r="B40" s="32">
+        <v>34547.913611111115</v>
+      </c>
+      <c r="C40" s="32">
         <v>8965.5833333333321</v>
       </c>
-      <c r="F40" s="37">
+      <c r="D40" s="32">
         <v>900</v>
       </c>
-      <c r="G40" s="37">
+      <c r="E40" s="32">
         <v>275</v>
       </c>
-      <c r="H40" s="37">
+      <c r="F40" s="32">
         <v>261.44444444444446</v>
       </c>
-      <c r="I40" s="37">
+      <c r="G40" s="32">
         <v>1090.6388888888889</v>
       </c>
-      <c r="J40" s="37">
+      <c r="H40" s="32">
         <v>230</v>
       </c>
-      <c r="K40" s="37">
+      <c r="I40" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L40" s="37">
+      <c r="J40" s="32">
         <v>350</v>
       </c>
-      <c r="M40" s="37">
+      <c r="K40" s="32">
         <v>852.25693440079124</v>
       </c>
-      <c r="N40" s="37">
+      <c r="L40" s="32">
         <v>189.90263766666666</v>
       </c>
-      <c r="O40" s="37">
+      <c r="M40" s="32">
         <v>1036.4140083333334</v>
       </c>
-      <c r="P40" s="37">
+      <c r="N40" s="32">
         <f t="shared" si="0"/>
         <v>14832.727387761901</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60">
         <v>45748</v>
       </c>
-      <c r="B41" s="37">
-        <v>10182.808791666666</v>
-      </c>
-      <c r="C41" s="37">
-        <v>6788.5391944444455</v>
-      </c>
-      <c r="D41" s="37">
-        <v>17039.369466666667</v>
-      </c>
-      <c r="E41" s="37">
+      <c r="B41" s="32">
+        <v>34011.497452777781</v>
+      </c>
+      <c r="C41" s="32">
         <v>7936</v>
       </c>
-      <c r="F41" s="37">
+      <c r="D41" s="32">
         <v>900</v>
       </c>
-      <c r="G41" s="37">
+      <c r="E41" s="32">
         <v>275</v>
       </c>
-      <c r="H41" s="37">
+      <c r="F41" s="32">
         <v>193.11111111111111</v>
       </c>
-      <c r="I41" s="37">
+      <c r="G41" s="32">
         <v>1202.8333333333333</v>
       </c>
-      <c r="J41" s="37">
+      <c r="H41" s="32">
         <v>230</v>
       </c>
-      <c r="K41" s="37">
+      <c r="I41" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L41" s="37">
+      <c r="J41" s="32">
         <v>350</v>
       </c>
-      <c r="M41" s="37">
+      <c r="K41" s="32">
         <v>681.5747786666667</v>
       </c>
-      <c r="N41" s="37">
+      <c r="L41" s="32">
         <v>339.38964222222216</v>
       </c>
-      <c r="O41" s="37">
+      <c r="M41" s="32">
         <v>1020.3215235833335</v>
       </c>
-      <c r="P41" s="37">
+      <c r="N41" s="32">
         <f t="shared" si="0"/>
         <v>13809.717529611113</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60">
         <v>45778</v>
       </c>
-      <c r="B42" s="37">
-        <v>7573.1841666666669</v>
-      </c>
-      <c r="C42" s="37">
-        <v>5048.7894444444455</v>
-      </c>
-      <c r="D42" s="37">
-        <v>15221.290384516129</v>
-      </c>
-      <c r="E42" s="37">
+      <c r="B42" s="32">
+        <v>27843.863995627242</v>
+      </c>
+      <c r="C42" s="32">
         <v>8138.2222222222226</v>
       </c>
-      <c r="F42" s="37">
+      <c r="D42" s="32">
         <v>1300</v>
       </c>
-      <c r="G42" s="37">
+      <c r="E42" s="32">
         <v>275</v>
       </c>
-      <c r="H42" s="37">
+      <c r="F42" s="32">
         <v>401.14444444444445</v>
       </c>
-      <c r="I42" s="37">
+      <c r="G42" s="32">
         <v>1399.8888888888891</v>
       </c>
-      <c r="J42" s="37">
+      <c r="H42" s="32">
         <v>230</v>
       </c>
-      <c r="K42" s="37">
+      <c r="I42" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L42" s="37">
+      <c r="J42" s="32">
         <v>350</v>
       </c>
-      <c r="M42" s="37">
+      <c r="K42" s="32">
         <v>608.85161538064517</v>
       </c>
-      <c r="N42" s="37">
+      <c r="L42" s="32">
         <v>366.89441874999994</v>
       </c>
-      <c r="O42" s="37">
+      <c r="M42" s="32">
         <v>835.29791986881719</v>
       </c>
-      <c r="P42" s="37">
+      <c r="N42" s="32">
         <f t="shared" si="0"/>
         <v>14586.786650249462</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60">
         <v>45809</v>
       </c>
-      <c r="B43" s="37">
-        <v>6326.8844999999992</v>
-      </c>
-      <c r="C43" s="37">
-        <v>4217.9229999999998</v>
-      </c>
-      <c r="D43" s="37">
-        <v>14460.225865290322</v>
-      </c>
-      <c r="E43" s="37">
+      <c r="B43" s="32">
+        <v>25005.603365290321</v>
+      </c>
+      <c r="C43" s="32">
         <v>9180.4444444444453</v>
       </c>
-      <c r="F43" s="37">
+      <c r="D43" s="32">
         <v>1400</v>
       </c>
-      <c r="G43" s="37">
+      <c r="E43" s="32">
         <v>275</v>
       </c>
-      <c r="H43" s="37">
+      <c r="F43" s="32">
         <v>126.44999999999999</v>
       </c>
-      <c r="I43" s="37">
+      <c r="G43" s="32">
         <v>1108.2233333333334</v>
       </c>
-      <c r="J43" s="37">
+      <c r="H43" s="32">
         <v>230</v>
       </c>
-      <c r="K43" s="37">
+      <c r="I43" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L43" s="37">
+      <c r="J43" s="32">
         <v>350</v>
       </c>
-      <c r="M43" s="37">
+      <c r="K43" s="32">
         <v>578.40903461161292</v>
       </c>
-      <c r="N43" s="37">
+      <c r="L43" s="32">
         <v>289.95980819444441</v>
       </c>
-      <c r="O43" s="37">
+      <c r="M43" s="32">
         <v>750.15100095870957</v>
       </c>
-      <c r="P43" s="37">
+      <c r="N43" s="32">
         <f t="shared" si="0"/>
         <v>14970.12476223699</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60">
         <v>45839</v>
       </c>
-      <c r="B44" s="37">
-        <v>8235.3511666666654</v>
-      </c>
-      <c r="C44" s="37">
-        <v>5490.2341111111109</v>
-      </c>
-      <c r="D44" s="37">
-        <v>20746.446944444444</v>
-      </c>
-      <c r="E44" s="37">
+      <c r="B44" s="32">
+        <v>34472.862222222218</v>
+      </c>
+      <c r="C44" s="32">
         <v>8074.8888888888887</v>
       </c>
-      <c r="F44" s="37">
+      <c r="D44" s="32">
         <v>1300</v>
       </c>
-      <c r="G44" s="37">
+      <c r="E44" s="32">
         <v>275</v>
       </c>
-      <c r="H44" s="37">
+      <c r="F44" s="32">
         <v>78.932500000000005</v>
       </c>
-      <c r="I44" s="37">
+      <c r="G44" s="32">
         <v>1379.3602777777778</v>
       </c>
-      <c r="J44" s="37">
+      <c r="H44" s="32">
         <v>230</v>
       </c>
-      <c r="K44" s="37">
+      <c r="I44" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L44" s="37">
+      <c r="J44" s="32">
         <v>350</v>
       </c>
-      <c r="M44" s="37">
+      <c r="K44" s="32">
         <v>829.85787777777773</v>
       </c>
-      <c r="N44" s="37">
+      <c r="L44" s="32">
         <v>319.48371291666666</v>
       </c>
-      <c r="O44" s="37">
+      <c r="M44" s="32">
         <v>1034.1609666666664</v>
       </c>
-      <c r="P44" s="37">
+      <c r="N44" s="32">
         <f t="shared" si="0"/>
         <v>14553.171364722222</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60">
         <v>45870</v>
       </c>
-      <c r="B45" s="37">
-        <v>6600</v>
-      </c>
-      <c r="C45" s="37">
-        <v>4400</v>
-      </c>
-      <c r="D45" s="37">
-        <v>17000</v>
-      </c>
-      <c r="E45" s="37">
+      <c r="B45" s="32">
+        <v>28000.62</v>
+      </c>
+      <c r="C45" s="32">
         <v>8122</v>
       </c>
-      <c r="F45" s="37">
+      <c r="D45" s="32">
         <v>1000</v>
       </c>
-      <c r="G45" s="37">
+      <c r="E45" s="32">
         <v>275</v>
       </c>
-      <c r="H45" s="37">
+      <c r="F45" s="32">
         <v>70.694444444444443</v>
       </c>
-      <c r="I45" s="37">
+      <c r="G45" s="32">
         <v>1449.5555555555557</v>
       </c>
-      <c r="J45" s="37">
+      <c r="H45" s="32">
         <v>230</v>
       </c>
-      <c r="K45" s="37">
+      <c r="I45" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L45" s="37">
+      <c r="J45" s="32">
         <v>375</v>
       </c>
-      <c r="M45" s="37">
+      <c r="K45" s="32">
         <v>680</v>
       </c>
-      <c r="N45" s="37">
+      <c r="L45" s="32">
         <v>200</v>
       </c>
-      <c r="O45" s="37">
+      <c r="M45" s="32">
         <v>840</v>
       </c>
-      <c r="P45" s="37">
+      <c r="N45" s="32">
         <f t="shared" si="0"/>
         <v>13923.737140694444</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60">
         <v>45901</v>
       </c>
-      <c r="B46" s="37">
-        <v>5879.8754133333341</v>
-      </c>
-      <c r="C46" s="37">
-        <v>3919.916942222223</v>
-      </c>
-      <c r="D46" s="37">
-        <v>15728.666730666668</v>
-      </c>
-      <c r="E46" s="37">
+      <c r="B46" s="32">
+        <v>25529.159086222226</v>
+      </c>
+      <c r="C46" s="32">
         <v>9322</v>
       </c>
-      <c r="F46" s="37">
+      <c r="D46" s="32">
         <v>1000</v>
       </c>
-      <c r="G46" s="37">
+      <c r="E46" s="32">
         <v>275</v>
       </c>
-      <c r="H46" s="37">
+      <c r="F46" s="32">
         <v>144.0925</v>
       </c>
-      <c r="I46" s="37">
+      <c r="G46" s="32">
         <v>1444.4444444444443</v>
       </c>
-      <c r="J46" s="37">
+      <c r="H46" s="32">
         <v>230</v>
       </c>
-      <c r="K46" s="37">
+      <c r="I46" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L46" s="37">
+      <c r="J46" s="32">
         <v>375</v>
       </c>
-      <c r="M46" s="37">
+      <c r="K46" s="32">
         <v>629.14666922666675</v>
       </c>
-      <c r="N46" s="37">
+      <c r="L46" s="32">
         <v>240</v>
       </c>
-      <c r="O46" s="37">
+      <c r="M46" s="32">
         <v>765.85377258666676</v>
       </c>
-      <c r="P46" s="37">
+      <c r="N46" s="32">
         <f t="shared" si="0"/>
         <v>15107.02452695222</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60">
         <v>45931</v>
       </c>
-      <c r="B47" s="37">
-        <v>5096.3867557479998</v>
-      </c>
-      <c r="C47" s="37">
-        <v>3397.591170498667</v>
-      </c>
-      <c r="D47" s="37">
-        <v>8890.9790677050023</v>
-      </c>
-      <c r="E47" s="37">
+      <c r="B47" s="32">
+        <v>17385.356993951667</v>
+      </c>
+      <c r="C47" s="32">
         <v>8122</v>
       </c>
-      <c r="F47" s="37">
+      <c r="D47" s="32">
         <v>1300</v>
       </c>
-      <c r="G47" s="37">
+      <c r="E47" s="32">
         <v>275</v>
       </c>
-      <c r="H47" s="37">
+      <c r="F47" s="32">
         <v>173.31416666666667</v>
       </c>
-      <c r="I47" s="37">
+      <c r="G47" s="32">
         <v>995</v>
       </c>
-      <c r="J47" s="37">
+      <c r="H47" s="32">
         <v>230</v>
       </c>
-      <c r="K47" s="37">
+      <c r="I47" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L47" s="37">
+      <c r="J47" s="32">
         <v>375</v>
       </c>
-      <c r="M47" s="37">
+      <c r="K47" s="32">
         <v>355.6391627082001</v>
       </c>
-      <c r="N47" s="37">
+      <c r="L47" s="32">
         <v>200</v>
       </c>
-      <c r="O47" s="37">
+      <c r="M47" s="32">
         <v>521.54870981855004</v>
       </c>
-      <c r="P47" s="37">
+      <c r="N47" s="32">
         <f t="shared" si="0"/>
         <v>13228.98917988786</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60">
         <v>45962</v>
       </c>
-      <c r="B48" s="37">
-        <v>6243.5336333333335</v>
-      </c>
-      <c r="C48" s="37">
-        <v>4162.3557555555553</v>
-      </c>
-      <c r="D48" s="37">
-        <v>15114.664415098505</v>
-      </c>
-      <c r="E48" s="37">
+      <c r="B48" s="32">
+        <v>25521.233803987394</v>
+      </c>
+      <c r="C48" s="32">
         <v>8122</v>
       </c>
-      <c r="F48" s="37">
+      <c r="D48" s="32">
         <v>1000</v>
       </c>
-      <c r="G48" s="37">
+      <c r="E48" s="32">
         <v>275</v>
       </c>
-      <c r="H48" s="37">
+      <c r="F48" s="32">
         <v>55.888888888888886</v>
       </c>
-      <c r="I48" s="37">
+      <c r="G48" s="32">
         <v>1076.1111111111111</v>
       </c>
-      <c r="J48" s="37">
+      <c r="H48" s="32">
         <v>230</v>
       </c>
-      <c r="K48" s="37">
+      <c r="I48" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L48" s="37">
+      <c r="J48" s="32">
         <v>375</v>
       </c>
-      <c r="M48" s="37">
+      <c r="K48" s="32">
         <v>604.58657660394022</v>
       </c>
-      <c r="N48" s="37">
+      <c r="L48" s="32">
         <v>290</v>
       </c>
-      <c r="O48" s="37">
+      <c r="M48" s="32">
         <v>765.61661411962177</v>
       </c>
-      <c r="P48" s="37">
+      <c r="N48" s="32">
         <f t="shared" si="0"/>
         <v>13475.690331418005</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60">
         <v>45992</v>
       </c>
-      <c r="B49" s="37">
-        <v>9017.5477333333347</v>
-      </c>
-      <c r="C49" s="37">
-        <v>6011.6984888888901</v>
-      </c>
-      <c r="D49" s="37">
-        <v>18693.208267526457</v>
-      </c>
-      <c r="E49" s="37">
+      <c r="B49" s="32">
+        <v>33723.344489748677</v>
+      </c>
+      <c r="C49" s="32">
         <v>8422</v>
       </c>
-      <c r="F49" s="37">
+      <c r="D49" s="32">
         <v>900</v>
       </c>
-      <c r="G49" s="37">
+      <c r="E49" s="32">
         <v>275</v>
       </c>
-      <c r="H49" s="37">
+      <c r="F49" s="32">
         <v>406.01888888888891</v>
       </c>
-      <c r="I49" s="37">
+      <c r="G49" s="32">
         <v>1476.1111111111111</v>
       </c>
-      <c r="J49" s="37">
+      <c r="H49" s="32">
         <v>230</v>
       </c>
-      <c r="K49" s="37">
+      <c r="I49" s="32">
         <v>681.48714069444395</v>
       </c>
-      <c r="L49" s="37">
+      <c r="J49" s="32">
         <v>375</v>
       </c>
-      <c r="M49" s="37">
+      <c r="K49" s="32">
         <v>747.72833070105833</v>
       </c>
-      <c r="N49" s="37">
+      <c r="L49" s="32">
         <v>300</v>
       </c>
-      <c r="O49" s="37">
+      <c r="M49" s="32">
         <v>1011.6736346924603</v>
       </c>
-      <c r="P49" s="37">
+      <c r="N49" s="32">
         <f t="shared" si="0"/>
         <v>14825.019106087964</v>
       </c>
@@ -16693,7 +16407,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C49"/>
+      <selection activeCell="B2" sqref="B2:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -17516,7 +17230,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -18068,4 +17782,1301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5465FCA-039D-104E-B361-2B9F3FC8997B}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="61" customWidth="1"/>
+    <col min="2" max="2" width="23" style="61" customWidth="1"/>
+    <col min="3" max="3" width="32" style="35" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="63" customWidth="1"/>
+    <col min="5" max="5" width="32" style="35" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="63" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="63" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="32">
+        <v>13136.888888888889</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="D2" s="32">
+        <v>11744.194444444445</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0.61</v>
+      </c>
+      <c r="F2" s="32">
+        <f>SUM(B2:D2)</f>
+        <v>24881.693333333336</v>
+      </c>
+      <c r="G2" s="64">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60">
+        <v>44593</v>
+      </c>
+      <c r="B3" s="32">
+        <v>11430.527777777777</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="D3" s="32">
+        <v>9433.3333333333339</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" ref="F3:F49" si="0">SUM(B3:D3)</f>
+        <v>20864.481111111112</v>
+      </c>
+      <c r="G3" s="64">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="32">
+        <v>9742.6111111111113</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.39</v>
+      </c>
+      <c r="D4" s="32">
+        <v>8833.0833333333339</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="0"/>
+        <v>18576.084444444445</v>
+      </c>
+      <c r="G4" s="64">
+        <v>9727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60">
+        <v>44652</v>
+      </c>
+      <c r="B5" s="32">
+        <v>15043.805555555555</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="32">
+        <v>18834.583333333332</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>33879.088888888888</v>
+      </c>
+      <c r="G5" s="64">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>44682</v>
+      </c>
+      <c r="B6" s="32">
+        <v>8546.1691666666666</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.47</v>
+      </c>
+      <c r="D6" s="32">
+        <v>9258.3499999999985</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.47</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>17804.989166666666</v>
+      </c>
+      <c r="G6" s="64">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>44713</v>
+      </c>
+      <c r="B7" s="32">
+        <v>7171.4191666666666</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="32">
+        <v>4703.32</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="0"/>
+        <v>11875.069166666666</v>
+      </c>
+      <c r="G7" s="64">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>44743</v>
+      </c>
+      <c r="B8" s="32">
+        <v>15864.97388888889</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="32">
+        <v>10576.649166666666</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.67</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="0"/>
+        <v>26442.293055555558</v>
+      </c>
+      <c r="G8" s="64">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>44774</v>
+      </c>
+      <c r="B9" s="32">
+        <v>11925.820833333333</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8996.6717500000013</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.49</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>20922.982583333334</v>
+      </c>
+      <c r="G9" s="64">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60">
+        <v>44805</v>
+      </c>
+      <c r="B10" s="32">
+        <v>13738.026666666667</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.51</v>
+      </c>
+      <c r="D10" s="32">
+        <v>9158.684444444445</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.51</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="0"/>
+        <v>22897.22111111111</v>
+      </c>
+      <c r="G10" s="64">
+        <v>10365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="32">
+        <v>7765.7254499999999</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="32">
+        <v>6615.247606111112</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
+        <v>14381.373056111112</v>
+      </c>
+      <c r="G11" s="64">
+        <v>9972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>44866</v>
+      </c>
+      <c r="B12" s="32">
+        <v>14796.252777777778</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12" s="32">
+        <v>9459.8994444444434</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>24256.712222222221</v>
+      </c>
+      <c r="G12" s="64">
+        <v>13286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="32">
+        <v>16039.116388888888</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.79</v>
+      </c>
+      <c r="D13" s="32">
+        <v>13662.95111111111</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.79</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="0"/>
+        <v>29702.857499999998</v>
+      </c>
+      <c r="G13" s="64">
+        <v>11471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>44927</v>
+      </c>
+      <c r="B14" s="32">
+        <v>18609.989444444444</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.81</v>
+      </c>
+      <c r="D14" s="32">
+        <v>16288.453888888889</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.81</v>
+      </c>
+      <c r="F14" s="32">
+        <f t="shared" si="0"/>
+        <v>34899.253333333334</v>
+      </c>
+      <c r="G14" s="64">
+        <v>13246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>44958</v>
+      </c>
+      <c r="B15" s="32">
+        <v>16622.081111111111</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.82</v>
+      </c>
+      <c r="D15" s="32">
+        <v>10187.727061111113</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.82</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" si="0"/>
+        <v>26810.628172222223</v>
+      </c>
+      <c r="G15" s="64">
+        <v>12216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="32">
+        <v>21306.423360019777</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="D16" s="32">
+        <v>13240.710251091332</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="F16" s="32">
+        <f t="shared" si="0"/>
+        <v>34547.913611111107</v>
+      </c>
+      <c r="G16" s="64">
+        <v>14336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>45017</v>
+      </c>
+      <c r="B17" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="D17" s="32">
+        <v>16971.347986111112</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.73</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="0"/>
+        <v>34011.447452777778</v>
+      </c>
+      <c r="G17" s="64">
+        <v>13708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>45047</v>
+      </c>
+      <c r="B18" s="32">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="32">
+        <v>12621.973611111111</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="0"/>
+        <v>29354.101388888885</v>
+      </c>
+      <c r="G18" s="64">
+        <v>13650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>45078</v>
+      </c>
+      <c r="B19" s="32">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="D19" s="32">
+        <v>10544.807499999999</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.52</v>
+      </c>
+      <c r="F19" s="32">
+        <f t="shared" si="0"/>
+        <v>25877.348333333335</v>
+      </c>
+      <c r="G19" s="64">
+        <v>13159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="D20" s="32">
+        <v>13725.585277777776</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="0"/>
+        <v>34472.862222222218</v>
+      </c>
+      <c r="G20" s="64">
+        <v>14722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>45139</v>
+      </c>
+      <c r="B21" s="32">
+        <v>17000</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="D21" s="32">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="0"/>
+        <v>28000.62</v>
+      </c>
+      <c r="G21" s="64">
+        <v>13439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="60">
+        <v>45170</v>
+      </c>
+      <c r="B22" s="32">
+        <v>14699.688533333334</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D22" s="32">
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="0"/>
+        <v>24500.180888888892</v>
+      </c>
+      <c r="G22" s="64">
+        <v>14551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60">
+        <v>45200</v>
+      </c>
+      <c r="B23" s="32">
+        <v>8309.3262315000011</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="32">
+        <v>7078.3149385388897</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="0"/>
+        <v>15388.04117003889</v>
+      </c>
+      <c r="G23" s="64">
+        <v>12562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="60">
+        <v>45231</v>
+      </c>
+      <c r="B24" s="32">
+        <v>16275.878055555557</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.63</v>
+      </c>
+      <c r="D24" s="32">
+        <v>10405.889388888889</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.63</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="0"/>
+        <v>26682.397444444447</v>
+      </c>
+      <c r="G24" s="64">
+        <v>13298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="32">
+        <v>17643.028027777778</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="D25" s="32">
+        <v>15029.246222222224</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="0"/>
+        <v>32673.114250000002</v>
+      </c>
+      <c r="G25" s="64">
+        <v>14492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
+        <v>45292</v>
+      </c>
+      <c r="B26" s="32">
+        <v>19069.495356652948</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="D26" s="32">
+        <v>16695.665236111108</v>
+      </c>
+      <c r="E26" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="0"/>
+        <v>35765.990592764058</v>
+      </c>
+      <c r="G26" s="64">
+        <v>14820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="60">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="32">
+        <v>17027.497723577235</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="D27" s="32">
+        <v>10501.195586068377</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="0"/>
+        <v>27529.533309645612</v>
+      </c>
+      <c r="G27" s="64">
+        <v>13506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60">
+        <v>45352</v>
+      </c>
+      <c r="B28" s="32">
+        <v>20486.945538480555</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="32">
+        <v>12711.081841047679</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="32">
+        <f t="shared" si="0"/>
+        <v>33198.777379528234</v>
+      </c>
+      <c r="G28" s="64">
+        <v>14363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <v>45383</v>
+      </c>
+      <c r="B29" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="C29" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="D29" s="32">
+        <v>16372.35923366013</v>
+      </c>
+      <c r="E29" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" si="0"/>
+        <v>33412.508700326798</v>
+      </c>
+      <c r="G29" s="64">
+        <v>13410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <v>45413</v>
+      </c>
+      <c r="B30" s="32">
+        <v>16731.527777777777</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="32">
+        <v>10097.578888888889</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F30" s="32">
+        <f t="shared" si="0"/>
+        <v>26829.706666666665</v>
+      </c>
+      <c r="G30" s="64">
+        <v>14227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="32">
+        <v>15332.020833333334</v>
+      </c>
+      <c r="C31" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="D31" s="32">
+        <v>6489.1123076923068</v>
+      </c>
+      <c r="E31" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" si="0"/>
+        <v>21821.67314102564</v>
+      </c>
+      <c r="G31" s="64">
+        <v>14510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="60">
+        <v>45474</v>
+      </c>
+      <c r="B32" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="D32" s="32">
+        <v>11764.787380952381</v>
+      </c>
+      <c r="E32" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" si="0"/>
+        <v>32512.064325396826</v>
+      </c>
+      <c r="G32" s="64">
+        <v>14139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60">
+        <v>45505</v>
+      </c>
+      <c r="B33" s="32">
+        <v>17000</v>
+      </c>
+      <c r="C33" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="D33" s="32">
+        <v>16500</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="F33" s="32">
+        <f t="shared" si="0"/>
+        <v>33500.619999999995</v>
+      </c>
+      <c r="G33" s="64">
+        <v>13667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60">
+        <v>45536</v>
+      </c>
+      <c r="B34" s="32">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="C34" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="32">
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" si="0"/>
+        <v>25529.159086222226</v>
+      </c>
+      <c r="G34" s="64">
+        <v>14715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <v>45566</v>
+      </c>
+      <c r="B35" s="32">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="32">
+        <v>8493.9779262466673</v>
+      </c>
+      <c r="E35" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" si="0"/>
+        <v>17385.356993951667</v>
+      </c>
+      <c r="G35" s="64">
+        <v>12837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60">
+        <v>45597</v>
+      </c>
+      <c r="B36" s="32">
+        <v>16792.572597001767</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="D36" s="32">
+        <v>10405.889388888889</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0.65</v>
+      </c>
+      <c r="F36" s="32">
+        <f t="shared" si="0"/>
+        <v>27199.111985890657</v>
+      </c>
+      <c r="G36" s="64">
+        <v>13301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <v>45627</v>
+      </c>
+      <c r="B37" s="32">
+        <v>18063.10012367725</v>
+      </c>
+      <c r="C37" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="D37" s="32">
+        <v>14145.172915032683</v>
+      </c>
+      <c r="E37" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="0"/>
+        <v>32209.133038709933</v>
+      </c>
+      <c r="G37" s="64">
+        <v>14532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60">
+        <v>45658</v>
+      </c>
+      <c r="B38" s="32">
+        <v>19758.754224965702</v>
+      </c>
+      <c r="C38" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="D38" s="32">
+        <v>17306.48225694444</v>
+      </c>
+      <c r="E38" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="F38" s="32">
+        <f t="shared" si="0"/>
+        <v>37066.096481910143</v>
+      </c>
+      <c r="G38" s="64">
+        <v>15290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60">
+        <v>45689</v>
+      </c>
+      <c r="B39" s="32">
+        <v>17635.622642276423</v>
+      </c>
+      <c r="C39" s="36">
+        <v>0.87</v>
+      </c>
+      <c r="D39" s="32">
+        <v>10971.398373504273</v>
+      </c>
+      <c r="E39" s="36">
+        <v>0.87</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="0"/>
+        <v>28607.891015780697</v>
+      </c>
+      <c r="G39" s="64">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60">
+        <v>45717</v>
+      </c>
+      <c r="B40" s="32">
+        <v>21306.42336001978</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="D40" s="32">
+        <v>13240.710251091332</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" si="0"/>
+        <v>34547.913611111115</v>
+      </c>
+      <c r="G40" s="64">
+        <v>14833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60">
+        <v>45748</v>
+      </c>
+      <c r="B41" s="32">
+        <v>17039.369466666667</v>
+      </c>
+      <c r="C41" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="D41" s="32">
+        <v>16971.347986111112</v>
+      </c>
+      <c r="E41" s="36">
+        <v>0.78</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" si="0"/>
+        <v>34011.497452777781</v>
+      </c>
+      <c r="G41" s="64">
+        <v>13810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="60">
+        <v>45778</v>
+      </c>
+      <c r="B42" s="32">
+        <v>15221.290384516129</v>
+      </c>
+      <c r="C42" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="32">
+        <v>12621.973611111112</v>
+      </c>
+      <c r="E42" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="0"/>
+        <v>27843.863995627242</v>
+      </c>
+      <c r="G42" s="64">
+        <v>14587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="60">
+        <v>45809</v>
+      </c>
+      <c r="B43" s="32">
+        <v>14460.225865290322</v>
+      </c>
+      <c r="C43" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D43" s="32">
+        <v>10544.807499999999</v>
+      </c>
+      <c r="E43" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F43" s="32">
+        <f t="shared" si="0"/>
+        <v>25005.603365290321</v>
+      </c>
+      <c r="G43" s="64">
+        <v>14970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60">
+        <v>45839</v>
+      </c>
+      <c r="B44" s="32">
+        <v>20746.446944444444</v>
+      </c>
+      <c r="C44" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="D44" s="32">
+        <v>13725.585277777776</v>
+      </c>
+      <c r="E44" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="F44" s="32">
+        <f t="shared" si="0"/>
+        <v>34472.862222222218</v>
+      </c>
+      <c r="G44" s="64">
+        <v>14553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60">
+        <v>45870</v>
+      </c>
+      <c r="B45" s="32">
+        <v>17000</v>
+      </c>
+      <c r="C45" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="D45" s="32">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="36">
+        <v>0.62</v>
+      </c>
+      <c r="F45" s="32">
+        <f t="shared" si="0"/>
+        <v>28000.62</v>
+      </c>
+      <c r="G45" s="64">
+        <v>13924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60">
+        <v>45901</v>
+      </c>
+      <c r="B46" s="32">
+        <v>15728.666730666668</v>
+      </c>
+      <c r="C46" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D46" s="32">
+        <v>9799.7923555555572</v>
+      </c>
+      <c r="E46" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="F46" s="32">
+        <f t="shared" si="0"/>
+        <v>25529.159086222226</v>
+      </c>
+      <c r="G46" s="64">
+        <v>15107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60">
+        <v>45931</v>
+      </c>
+      <c r="B47" s="32">
+        <v>8890.9790677050023</v>
+      </c>
+      <c r="C47" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D47" s="32">
+        <v>8493.9779262466673</v>
+      </c>
+      <c r="E47" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="32">
+        <f t="shared" si="0"/>
+        <v>17385.356993951667</v>
+      </c>
+      <c r="G47" s="64">
+        <v>13229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60">
+        <v>45962</v>
+      </c>
+      <c r="B48" s="32">
+        <v>15114.664415098505</v>
+      </c>
+      <c r="C48" s="36">
+        <v>0.68</v>
+      </c>
+      <c r="D48" s="32">
+        <v>10405.889388888889</v>
+      </c>
+      <c r="E48" s="36">
+        <v>0.68</v>
+      </c>
+      <c r="F48" s="32">
+        <f t="shared" si="0"/>
+        <v>25521.233803987394</v>
+      </c>
+      <c r="G48" s="64">
+        <v>13476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="60">
+        <v>45992</v>
+      </c>
+      <c r="B49" s="32">
+        <v>18693.208267526457</v>
+      </c>
+      <c r="C49" s="36">
+        <v>0.89</v>
+      </c>
+      <c r="D49" s="32">
+        <v>15029.246222222224</v>
+      </c>
+      <c r="E49" s="36">
+        <v>0.89</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" si="0"/>
+        <v>33723.344489748677</v>
+      </c>
+      <c r="G49" s="64">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="62"/>
+      <c r="F50" s="62"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="62"/>
+      <c r="F51" s="62"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="62"/>
+      <c r="F52" s="62"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="62"/>
+      <c r="F53" s="62"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="62"/>
+      <c r="F54" s="62"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="62"/>
+      <c r="F55" s="62"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="62"/>
+      <c r="F56" s="62"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="62"/>
+      <c r="F57" s="62"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="62"/>
+      <c r="F58" s="62"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="62"/>
+      <c r="F59" s="62"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="62"/>
+      <c r="F60" s="62"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="62"/>
+      <c r="F61" s="62"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="62"/>
+      <c r="F62" s="62"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="62"/>
+      <c r="F63" s="62"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="62"/>
+      <c r="F64" s="62"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="62"/>
+      <c r="F65" s="62"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="62"/>
+      <c r="F66" s="62"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="62"/>
+      <c r="F67" s="62"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="62"/>
+      <c r="F68" s="62"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="62"/>
+      <c r="F69" s="62"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="62"/>
+      <c r="F70" s="62"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="62"/>
+      <c r="F71" s="62"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="62"/>
+      <c r="F72" s="62"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="62"/>
+      <c r="F73" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A2BBD-8CBE-4B45-99B8-DBADB291ED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A77EAA-37EE-F045-83C3-719AB675A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="-2120" yWindow="580" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -14173,7 +14173,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD49"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6975449-B67A-CB45-BF88-5B323F8657BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB635C-840C-1448-AB6E-21DEA0876869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="100" yWindow="640" windowWidth="27480" windowHeight="15840" activeTab="7" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -369,6 +369,18 @@
   <si>
     <t>Total Indirect Costs</t>
   </si>
+  <si>
+    <t>201-10</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>Rooms Cost</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +390,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,6 +539,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -577,7 +610,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -645,6 +678,13 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -3744,8 +3784,8 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3801,7 +3841,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B2" s="34">
         <v>0</v>
@@ -3836,7 +3876,7 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -3871,7 +3911,7 @@
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -5617,8 +5657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3125D8-EE63-4B43-9AC6-51D16219A8B2}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13939,8 +13979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD220802-990C-0943-A7BD-ACE19BFC12F7}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15118,14 +15158,14 @@
         <v>762.77981426611791</v>
       </c>
       <c r="L26" s="28">
-        <v>277.43523555555555</v>
+        <v>277.43523555555601</v>
       </c>
       <c r="M26" s="28">
         <v>1072.9548177829217</v>
       </c>
       <c r="N26" s="59">
         <f t="shared" si="0"/>
-        <v>14819.625331381891</v>
+        <v>14819.625331381892</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -16171,819 +16211,1043 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880BA27-03E5-754E-A602-A8FF5ACB6DE8}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B49"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="55"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="56">
         <v>43831</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="32">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="28">
         <v>11744.194444444445</v>
       </c>
-      <c r="C2" s="28">
+      <c r="D2" s="28">
         <v>5247.9444444444443</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <v>43862</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="28">
         <v>9433.3333333333339</v>
       </c>
-      <c r="C3" s="28">
+      <c r="D3" s="28">
         <v>5794.6388888888887</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <v>43891</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="32">
+        <v>0.39</v>
+      </c>
+      <c r="C4" s="28">
         <v>8833.0833333333339</v>
       </c>
-      <c r="C4" s="28">
+      <c r="D4" s="28">
         <v>4194.4444444444443</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
         <v>43922</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="28">
         <v>18834.583333333332</v>
       </c>
-      <c r="C5" s="28">
+      <c r="D5" s="28">
         <v>7372.1388888888887</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>43952</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="28">
         <v>9258.3499999999985</v>
       </c>
-      <c r="C6" s="28">
+      <c r="D6" s="28">
         <v>3003.0014884777779</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <v>43983</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="28">
         <v>4703.32</v>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="28">
         <v>1722.2222222222222</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>44013</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="32">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="28">
         <v>10576.649166666666</v>
       </c>
-      <c r="C8" s="28">
+      <c r="D8" s="28">
         <v>3995.7875000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <v>44044</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="32">
+        <v>0.49</v>
+      </c>
+      <c r="C9" s="28">
         <v>8996.6717500000013</v>
       </c>
-      <c r="C9" s="28">
+      <c r="D9" s="28">
         <v>3067.4377222209996</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>44075</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="32">
+        <v>0.51</v>
+      </c>
+      <c r="C10" s="28">
         <v>9158.684444444445</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D10" s="28">
         <v>3947.0252281785552</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <v>44105</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="28">
         <v>6615.247606111112</v>
       </c>
-      <c r="C11" s="28">
+      <c r="D11" s="28">
         <v>2060.161106686664</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <v>44136</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12" s="28">
         <v>9459.8994444444434</v>
       </c>
-      <c r="C12" s="28">
+      <c r="D12" s="28">
         <v>3896.0550900333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <v>44166</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="32">
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="28">
         <v>13662.95111111111</v>
       </c>
-      <c r="C13" s="28">
+      <c r="D13" s="28">
         <v>6203.3228744444441</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <v>44197</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="28">
         <v>16288.453888888889</v>
       </c>
-      <c r="C14" s="28">
+      <c r="D14" s="28">
         <v>6396.799722222222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
         <v>44228</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="32">
+        <v>0.82</v>
+      </c>
+      <c r="C15" s="28">
         <v>10187.727061111113</v>
       </c>
-      <c r="C15" s="28">
+      <c r="D15" s="28">
         <v>4136.1069444444447</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <v>44256</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C16" s="28">
         <v>13240.710251091332</v>
       </c>
-      <c r="C16" s="28">
+      <c r="D16" s="28">
         <v>5017.6605555555561</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="56">
         <v>44287</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="32">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="28">
         <v>16971.347986111112</v>
       </c>
-      <c r="C17" s="28">
+      <c r="D17" s="28">
         <v>7282.2305833333339</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="56">
         <v>44317</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="28">
         <v>12621.973611111111</v>
       </c>
-      <c r="C18" s="28">
+      <c r="D18" s="28">
         <v>4708.2878916666668</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>44348</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="32">
+        <v>0.52</v>
+      </c>
+      <c r="C19" s="28">
         <v>10544.807499999999</v>
       </c>
-      <c r="C19" s="28">
+      <c r="D19" s="28">
         <v>4511.0556569444443</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="56">
         <v>44378</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="28">
         <v>13725.585277777776</v>
       </c>
-      <c r="C20" s="28">
+      <c r="D20" s="28">
         <v>5402.806863888889</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
         <v>44409</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="28">
         <v>11000</v>
       </c>
-      <c r="C21" s="28">
+      <c r="D21" s="28">
         <v>4290</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="56">
         <v>44440</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="28">
         <v>9799.7923555555572</v>
       </c>
-      <c r="C22" s="28">
+      <c r="D22" s="28">
         <v>3821.9190186666674</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="56">
         <v>44470</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="28">
         <v>7078.3149385388897</v>
       </c>
-      <c r="C23" s="28">
+      <c r="D23" s="28">
         <v>2760.5428260301669</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="56">
         <v>44501</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="32">
+        <v>0.63</v>
+      </c>
+      <c r="C24" s="28">
         <v>10405.889388888889</v>
       </c>
-      <c r="C24" s="28">
+      <c r="D24" s="28">
         <v>4058.2968616666667</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="56">
         <v>44531</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="32">
+        <v>0.84</v>
+      </c>
+      <c r="C25" s="28">
         <v>15029.246222222224</v>
       </c>
-      <c r="C25" s="28">
+      <c r="D25" s="28">
         <v>5861.4060266666675</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="56">
         <v>44562</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C26" s="28">
         <v>16695.665236111108</v>
       </c>
-      <c r="C26" s="28">
+      <c r="D26" s="28">
         <v>6511.3094420833331</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="56">
         <v>44593</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="32">
+        <v>0.84</v>
+      </c>
+      <c r="C27" s="28">
         <v>10501.195586068377</v>
       </c>
-      <c r="C27" s="28">
+      <c r="D27" s="28">
         <v>4095.4662785666669</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="56">
         <v>44621</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="28">
         <v>12711.081841047679</v>
       </c>
-      <c r="C28" s="28">
+      <c r="D28" s="28">
         <v>4957.3219180085944</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="56">
         <v>44652</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C29" s="28">
         <v>16372.35923366013</v>
       </c>
-      <c r="C29" s="28">
+      <c r="D29" s="28">
         <v>6385.2201011274519</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="56">
         <v>44682</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="28">
         <v>10097.578888888889</v>
       </c>
-      <c r="C30" s="28">
+      <c r="D30" s="28">
         <v>3938.0557666666664</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="56">
         <v>44713</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="32">
+        <v>0.54</v>
+      </c>
+      <c r="C31" s="28">
         <v>6489.1123076923068</v>
       </c>
-      <c r="C31" s="28">
+      <c r="D31" s="28">
         <v>2530.7537999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="56">
         <v>44743</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C32" s="28">
         <v>11764.787380952381</v>
       </c>
-      <c r="C32" s="28">
+      <c r="D32" s="28">
         <v>4588.267078571429</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="56">
         <v>44774</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C33" s="28">
         <v>16500</v>
       </c>
-      <c r="C33" s="28">
+      <c r="D33" s="28">
         <v>6435</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="56">
         <v>44805</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C34" s="28">
         <v>9799.7923555555572</v>
       </c>
-      <c r="C34" s="28">
+      <c r="D34" s="28">
         <v>3821.9190186666674</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="56">
         <v>44835</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="28">
         <v>8493.9779262466673</v>
       </c>
-      <c r="C35" s="28">
+      <c r="D35" s="28">
         <v>3312.6513912362002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="56">
         <v>44866</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="C36" s="28">
         <v>10405.889388888889</v>
       </c>
-      <c r="C36" s="28">
+      <c r="D36" s="28">
         <v>4058.2968616666667</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="56">
         <v>44896</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="C37" s="28">
         <v>14145.172915032683</v>
       </c>
-      <c r="C37" s="28">
+      <c r="D37" s="28">
         <v>5516.6174368627462</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="56">
         <v>44927</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="C38" s="28">
         <v>17306.48225694444</v>
       </c>
-      <c r="C38" s="28">
+      <c r="D38" s="28">
         <v>6749.5280802083325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
         <v>44958</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="C39" s="28">
         <v>10971.398373504273</v>
       </c>
-      <c r="C39" s="28">
+      <c r="D39" s="28">
         <v>4278.8453656666661</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="56">
         <v>44986</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C40" s="28">
         <v>13240.710251091332</v>
       </c>
-      <c r="C40" s="28">
+      <c r="D40" s="28">
         <v>5163.8769979256194</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="56">
         <v>45017</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C41" s="28">
         <v>16971.347986111112</v>
       </c>
-      <c r="C41" s="28">
+      <c r="D41" s="28">
         <v>6618.825714583334</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="56">
         <v>45047</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C42" s="28">
         <v>12621.973611111112</v>
       </c>
-      <c r="C42" s="28">
+      <c r="D42" s="28">
         <v>4922.5697083333343</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="56">
         <v>45078</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C43" s="28">
         <v>10544.807499999999</v>
       </c>
-      <c r="C43" s="28">
+      <c r="D43" s="28">
         <v>4112.4749249999995</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="56">
         <v>45108</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C44" s="28">
         <v>13725.585277777776</v>
       </c>
-      <c r="C44" s="28">
+      <c r="D44" s="28">
         <v>5352.9782583333326</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <v>45139</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C45" s="28">
         <v>11000</v>
       </c>
-      <c r="C45" s="28">
+      <c r="D45" s="28">
         <v>4290</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="56">
         <v>45170</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C46" s="28">
         <v>9799.7923555555572</v>
       </c>
-      <c r="C46" s="28">
+      <c r="D46" s="28">
         <v>3821.9190186666674</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="56">
         <v>45200</v>
       </c>
-      <c r="B47" s="28">
-        <v>8493.9779262466673</v>
+      <c r="B47" s="32">
+        <v>0.4</v>
       </c>
       <c r="C47" s="28">
-        <v>3312.6513912362002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6500</v>
+      </c>
+      <c r="D47" s="28">
+        <f>C47*39%</f>
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="56">
         <v>45231</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="32">
+        <v>0.68</v>
+      </c>
+      <c r="C48" s="28">
         <v>10405.889388888889</v>
       </c>
-      <c r="C48" s="28">
+      <c r="D48" s="28">
         <v>4058.2968616666667</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="56">
         <v>45261</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="C49" s="28">
         <v>15029.246222222224</v>
       </c>
-      <c r="C49" s="28">
+      <c r="D49" s="28">
         <v>5861.4060266666675</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="56">
         <v>45292</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="C50" s="28">
         <v>16695.665236111108</v>
       </c>
-      <c r="C50" s="28">
+      <c r="D50" s="28">
         <v>6511.3094420833331</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="56">
         <v>45323</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="C51" s="28">
         <v>10501.195586068377</v>
       </c>
-      <c r="C51" s="28">
+      <c r="D51" s="28">
         <v>4095.4662785666669</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="56">
         <v>45352</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C52" s="28">
         <v>12711.081841047679</v>
       </c>
-      <c r="C52" s="28">
+      <c r="D52" s="28">
         <v>4957.3219180085944</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="56">
         <v>45383</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C53" s="28">
         <v>16372.35923366013</v>
       </c>
-      <c r="C53" s="28">
+      <c r="D53" s="28">
         <v>6385.2201011274519</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="56">
         <v>45413</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C54" s="28">
         <v>10097.578888888889</v>
       </c>
-      <c r="C54" s="28">
+      <c r="D54" s="28">
         <v>3938.0557666666664</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="56">
         <v>45444</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C55" s="28">
         <v>6489.1123076923068</v>
       </c>
-      <c r="C55" s="28">
+      <c r="D55" s="28">
         <v>2530.7537999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="56">
         <v>45474</v>
       </c>
-      <c r="B56" s="28">
+      <c r="B56" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C56" s="28">
         <v>11764.787380952381</v>
       </c>
-      <c r="C56" s="28">
+      <c r="D56" s="28">
         <v>4588.267078571429</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" s="63"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="56">
         <v>45505</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C57" s="28">
         <v>16500</v>
       </c>
-      <c r="C57" s="28">
+      <c r="D57" s="28">
         <v>6435</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="56">
         <v>45536</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C58" s="28">
         <v>9799.7923555555572</v>
       </c>
-      <c r="C58" s="28">
+      <c r="D58" s="28">
         <v>3821.9190186666674</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="56">
         <v>45566</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="C59" s="28">
         <v>8493.9779262466673</v>
       </c>
-      <c r="C59" s="28">
+      <c r="D59" s="28">
         <v>3312.6513912362002</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="56">
         <v>45597</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="32">
+        <v>0.68</v>
+      </c>
+      <c r="C60" s="28">
         <v>10405.889388888889</v>
       </c>
-      <c r="C60" s="28">
+      <c r="D60" s="28">
         <v>4058.2968616666667</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="56">
         <v>45627</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="C61" s="28">
         <v>14145.172915032683</v>
       </c>
-      <c r="C61" s="28">
+      <c r="D61" s="28">
         <v>5516.6174368627462</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="56">
         <v>45658</v>
       </c>
-      <c r="B62" s="28">
+      <c r="B62" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="C62" s="28">
         <v>17306.48225694444</v>
       </c>
-      <c r="C62" s="28">
+      <c r="D62" s="28">
         <v>6749.5280802083325</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="56">
         <v>45689</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="32">
+        <v>0.87</v>
+      </c>
+      <c r="C63" s="28">
         <v>10971.398373504273</v>
       </c>
-      <c r="C63" s="28">
+      <c r="D63" s="28">
         <v>4278.8453656666661</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="56">
         <v>45717</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C64" s="28">
         <v>13240.710251091332</v>
       </c>
-      <c r="C64" s="28">
+      <c r="D64" s="28">
         <v>5163.8769979256194</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="56">
         <v>45748</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="C65" s="28">
         <v>16971.347986111112</v>
       </c>
-      <c r="C65" s="28">
+      <c r="D65" s="28">
         <v>6618.825714583334</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="56">
         <v>45778</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C66" s="28">
         <v>12621.973611111112</v>
       </c>
-      <c r="C66" s="28">
+      <c r="D66" s="28">
         <v>4922.5697083333343</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="56">
         <v>45809</v>
       </c>
-      <c r="B67" s="28">
-        <v>10544.807499999999</v>
+      <c r="B67" s="32">
+        <v>0.56999999999999995</v>
       </c>
       <c r="C67" s="28">
+        <v>8000</v>
+      </c>
+      <c r="D67" s="28">
         <v>4112.4749249999995</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="56">
         <v>45839</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68" s="32">
+        <v>0.83</v>
+      </c>
+      <c r="C68" s="28">
         <v>13725.585277777776</v>
       </c>
-      <c r="C68" s="28">
+      <c r="D68" s="28">
         <v>5352.9782583333326</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="63"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="56">
         <v>45870</v>
       </c>
-      <c r="B69" s="28">
+      <c r="B69" s="32">
+        <v>0.62</v>
+      </c>
+      <c r="C69" s="28">
         <v>11000</v>
       </c>
-      <c r="C69" s="28">
+      <c r="D69" s="28">
         <v>4290</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="56">
         <v>45901</v>
       </c>
-      <c r="B70" s="28">
+      <c r="B70" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="C70" s="28">
         <v>9799.7923555555572</v>
       </c>
-      <c r="C70" s="28">
+      <c r="D70" s="28">
         <v>3821.9190186666674</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="56">
         <v>45931</v>
       </c>
-      <c r="B71" s="28">
-        <v>8493.9779262466673</v>
+      <c r="B71" s="32">
+        <v>0.4</v>
       </c>
       <c r="C71" s="28">
-        <v>3312.6513912362002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7000</v>
+      </c>
+      <c r="D71" s="28">
+        <f>C71*39%</f>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="56">
         <v>45962</v>
       </c>
-      <c r="B72" s="28">
+      <c r="B72" s="32">
+        <v>0.68</v>
+      </c>
+      <c r="C72" s="28">
         <v>10405.889388888889</v>
       </c>
-      <c r="C72" s="28">
+      <c r="D72" s="28">
         <v>4058.2968616666667</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="56">
         <v>45992</v>
       </c>
-      <c r="B73" s="28">
+      <c r="B73" s="32">
+        <v>0.89</v>
+      </c>
+      <c r="C73" s="28">
         <v>15029.246222222224</v>
       </c>
-      <c r="C73" s="28">
+      <c r="D73" s="28">
         <v>5861.4060266666675</v>
       </c>
     </row>
@@ -16994,555 +17258,703 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FDAEC-D40F-7442-9EF7-1FD49F660D8C}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="55"/>
-    <col min="2" max="2" width="23" style="55" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="55"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="D1" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="64">
         <v>44562</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="67">
+        <v>0.61</v>
+      </c>
+      <c r="C2" s="65">
         <v>13136.888888888889</v>
       </c>
-      <c r="C2" s="28">
+      <c r="D2" s="65">
         <v>1471</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
+    <row r="3" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
         <v>44593</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="67">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="65">
         <v>11430.527777777777</v>
       </c>
-      <c r="C3" s="28">
+      <c r="D3" s="65">
         <v>935.38888888888891</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+    <row r="4" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
         <v>44621</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="67">
+        <v>0.39</v>
+      </c>
+      <c r="C4" s="65">
         <v>9742.6111111111113</v>
       </c>
-      <c r="C4" s="28">
+      <c r="D4" s="65">
         <v>1150.5555555555557</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+    <row r="5" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
         <v>44652</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="65">
         <v>15043.805555555555</v>
       </c>
-      <c r="C5" s="28">
+      <c r="D5" s="65">
         <v>2108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+    <row r="6" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>44682</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="67">
+        <v>0.47</v>
+      </c>
+      <c r="C6" s="65">
         <v>8546.1691666666666</v>
       </c>
-      <c r="C6" s="28">
+      <c r="D6" s="65">
         <v>861.11111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+    <row r="7" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
         <v>44713</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="C7" s="65">
         <v>7171.4191666666666</v>
       </c>
-      <c r="C7" s="28">
+      <c r="D7" s="65">
         <v>972.22222222222217</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+    <row r="8" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
         <v>44743</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="67">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="65">
         <v>15864.97388888889</v>
       </c>
-      <c r="C8" s="28">
+      <c r="D8" s="65">
         <v>2219.1705555555554</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+    <row r="9" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
         <v>44774</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="67">
+        <v>0.49</v>
+      </c>
+      <c r="C9" s="65">
         <v>11925.820833333333</v>
       </c>
-      <c r="C9" s="28">
+      <c r="D9" s="65">
         <v>1249.3127776333333</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+    <row r="10" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
         <v>44805</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="67">
+        <v>0.51</v>
+      </c>
+      <c r="C10" s="65">
         <v>13738.026666666667</v>
       </c>
-      <c r="C10" s="28">
+      <c r="D10" s="65">
         <v>431.60242055555557</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+    <row r="11" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
         <v>44835</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="65">
         <v>7765.7254499999999</v>
       </c>
-      <c r="C11" s="28">
+      <c r="D11" s="65">
         <v>619.92006944444449</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+    <row r="12" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
         <v>44866</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="67">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C12" s="65">
         <v>14796.252777777778</v>
       </c>
-      <c r="C12" s="28">
+      <c r="D12" s="65">
         <v>787.54525466666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+    <row r="13" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
         <v>44896</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="67">
+        <v>0.79</v>
+      </c>
+      <c r="C13" s="65">
         <v>16039.116388888888</v>
       </c>
-      <c r="C13" s="28">
+      <c r="D13" s="65">
         <v>525.37747777777497</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+    <row r="14" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
         <v>44927</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="67">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="65">
         <v>18609.989444444444</v>
       </c>
-      <c r="C14" s="28">
+      <c r="D14" s="65">
         <v>2203.6549999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+    <row r="15" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
         <v>44958</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="67">
+        <v>0.82</v>
+      </c>
+      <c r="C15" s="65">
         <v>16622.081111111111</v>
       </c>
-      <c r="C15" s="28">
+      <c r="D15" s="65">
         <v>1691.2816666666668</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+    <row r="16" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
         <v>44986</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="67">
+        <v>0.78</v>
+      </c>
+      <c r="C16" s="65">
         <v>21306.423360019777</v>
       </c>
-      <c r="C16" s="28">
+      <c r="D16" s="65">
         <v>1902.1211111111106</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+    <row r="17" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
         <v>45017</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="67">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="65">
         <v>17039.369466666667</v>
       </c>
-      <c r="C17" s="28">
+      <c r="D17" s="65">
         <v>2049.2951111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+    <row r="18" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
         <v>45047</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="65">
         <v>16731.527777777777</v>
       </c>
-      <c r="C18" s="28">
+      <c r="D18" s="65">
         <v>1519.95955</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+    <row r="19" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
         <v>45078</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="67">
+        <v>0.52</v>
+      </c>
+      <c r="C19" s="65">
         <v>15332.020833333334</v>
       </c>
-      <c r="C19" s="28">
+      <c r="D19" s="65">
         <v>1344.8148138888889</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+    <row r="20" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
         <v>45108</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="65">
         <v>20746.446944444444</v>
       </c>
-      <c r="C20" s="28">
+      <c r="D20" s="65">
         <v>1833.3412722222222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+    <row r="21" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>45139</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="67">
+        <v>0.62</v>
+      </c>
+      <c r="C21" s="65">
         <v>17000</v>
       </c>
-      <c r="C21" s="28">
+      <c r="D21" s="65">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+    <row r="22" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
         <v>45170</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="65">
         <v>14699.688533333334</v>
       </c>
-      <c r="C22" s="28">
+      <c r="D22" s="65">
         <v>1469.9688533333335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+    <row r="23" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>45200</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="C23" s="65">
         <v>8309.3262315000011</v>
       </c>
-      <c r="C23" s="28">
+      <c r="D23" s="65">
         <v>830.93262315000015</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+    <row r="24" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
         <v>45231</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="68">
+        <v>0.63</v>
+      </c>
+      <c r="C24" s="65">
         <v>16275.878055555557</v>
       </c>
-      <c r="C24" s="28">
+      <c r="D24" s="65">
         <v>1627.5878055555559</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+    <row r="25" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
         <v>45261</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="68">
+        <v>0.84</v>
+      </c>
+      <c r="C25" s="65">
         <v>17643.028027777778</v>
       </c>
-      <c r="C25" s="28">
+      <c r="D25" s="65">
         <v>1764.302802777778</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+    <row r="26" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
         <v>45292</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="C26" s="65">
         <v>19069.495356652948</v>
       </c>
-      <c r="C26" s="28">
+      <c r="D26" s="65">
         <v>1906.9495356652949</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+    <row r="27" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>45323</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="67">
+        <v>0.84</v>
+      </c>
+      <c r="C27" s="65">
         <v>17027.497723577235</v>
       </c>
-      <c r="C27" s="28">
+      <c r="D27" s="65">
         <v>1702.7497723577235</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="56">
+    <row r="28" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
         <v>45352</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="65">
         <v>20486.945538480555</v>
       </c>
-      <c r="C28" s="28">
+      <c r="D28" s="65">
         <v>2048.6945538480554</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+    <row r="29" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
         <v>45383</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="67">
+        <v>0.78</v>
+      </c>
+      <c r="C29" s="65">
         <v>17039.369466666667</v>
       </c>
-      <c r="C29" s="28">
+      <c r="D29" s="65">
         <v>1703.9369466666667</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+    <row r="30" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
         <v>45413</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="65">
         <v>16731.527777777777</v>
       </c>
-      <c r="C30" s="28">
+      <c r="D30" s="65">
         <v>1673.1527777777778</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+    <row r="31" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
         <v>45444</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="67">
+        <v>0.54</v>
+      </c>
+      <c r="C31" s="65">
         <v>15332.020833333334</v>
       </c>
-      <c r="C31" s="28">
+      <c r="D31" s="65">
         <v>1533.2020833333336</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="56">
+    <row r="32" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
         <v>45474</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="C32" s="65">
         <v>20746.446944444444</v>
       </c>
-      <c r="C32" s="28">
+      <c r="D32" s="65">
         <v>2074.6446944444447</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+    <row r="33" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
         <v>45505</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="67">
+        <v>0.62</v>
+      </c>
+      <c r="C33" s="65">
         <v>17000</v>
       </c>
-      <c r="C33" s="28">
+      <c r="D33" s="65">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
+    <row r="34" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
         <v>45536</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="C34" s="65">
         <v>15728.666730666668</v>
       </c>
-      <c r="C34" s="28">
+      <c r="D34" s="65">
         <v>1572.8666730666669</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
+    <row r="35" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
         <v>45566</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="65">
         <v>8890.9790677050023</v>
       </c>
-      <c r="C35" s="28">
+      <c r="D35" s="65">
         <v>889.09790677050023</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
+    <row r="36" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
         <v>45597</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="68">
+        <v>0.65</v>
+      </c>
+      <c r="C36" s="65">
         <v>16792.572597001767</v>
       </c>
-      <c r="C36" s="28">
+      <c r="D36" s="65">
         <v>1679.2572597001767</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+    <row r="37" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
         <v>45627</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="68">
+        <v>0.86</v>
+      </c>
+      <c r="C37" s="65">
         <v>18063.10012367725</v>
       </c>
-      <c r="C37" s="28">
+      <c r="D37" s="65">
         <v>1806.310012367725</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
+    <row r="38" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
         <v>45658</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="67">
+        <v>0.86</v>
+      </c>
+      <c r="C38" s="65">
         <v>19758.754224965702</v>
       </c>
-      <c r="C38" s="28">
+      <c r="D38" s="65">
         <v>1975.8754224965703</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+    <row r="39" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
         <v>45689</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="67">
+        <v>0.87</v>
+      </c>
+      <c r="C39" s="65">
         <v>17635.622642276423</v>
       </c>
-      <c r="C39" s="28">
+      <c r="D39" s="65">
         <v>1763.5622642276423</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
+    <row r="40" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
         <v>45717</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="67">
+        <v>0.78</v>
+      </c>
+      <c r="C40" s="65">
         <v>21306.42336001978</v>
       </c>
-      <c r="C40" s="28">
+      <c r="D40" s="65">
         <v>2130.642336001978</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
+    <row r="41" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
         <v>45748</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="67">
+        <v>0.78</v>
+      </c>
+      <c r="C41" s="65">
         <v>17039.369466666667</v>
       </c>
-      <c r="C41" s="28">
+      <c r="D41" s="65">
         <v>1703.9369466666667</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="56">
+    <row r="42" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
         <v>45778</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="C42" s="65">
         <v>15221.290384516129</v>
       </c>
-      <c r="C42" s="28">
+      <c r="D42" s="65">
         <v>1522.129038451613</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+    <row r="43" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
         <v>45809</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="67">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C43" s="65">
         <v>14460.225865290322</v>
       </c>
-      <c r="C43" s="28">
+      <c r="D43" s="65">
         <v>1446.0225865290322</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="56">
+    <row r="44" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="64">
         <v>45839</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="67">
+        <v>0.83</v>
+      </c>
+      <c r="C44" s="65">
         <v>20746.446944444444</v>
       </c>
-      <c r="C44" s="28">
+      <c r="D44" s="65">
         <v>2074.6446944444447</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
+    <row r="45" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="64">
         <v>45870</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="67">
+        <v>0.62</v>
+      </c>
+      <c r="C45" s="65">
         <v>17000</v>
       </c>
-      <c r="C45" s="28">
+      <c r="D45" s="65">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
+    <row r="46" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="64">
         <v>45901</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="69">
+        <v>0.7</v>
+      </c>
+      <c r="C46" s="65">
         <v>15728.666730666668</v>
       </c>
-      <c r="C46" s="28">
+      <c r="D46" s="65">
         <v>1572.8666730666669</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
+    <row r="47" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="64">
         <v>45931</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="69">
+        <v>0.4</v>
+      </c>
+      <c r="C47" s="65">
         <v>8890.9790677050023</v>
       </c>
-      <c r="C47" s="28">
+      <c r="D47" s="65">
         <v>889.09790677050023</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="56">
+    <row r="48" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="64">
         <v>45962</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="69">
+        <v>0.68</v>
+      </c>
+      <c r="C48" s="65">
         <v>15114.664415098505</v>
       </c>
-      <c r="C48" s="28">
+      <c r="D48" s="65">
         <v>1511.4664415098505</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="56">
+    <row r="49" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
         <v>45992</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="69">
+        <v>0.89</v>
+      </c>
+      <c r="C49" s="65">
         <v>18693.208267526457</v>
       </c>
-      <c r="C49" s="28">
+      <c r="D49" s="65">
         <v>1869.3208267526459</v>
       </c>
     </row>

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB635C-840C-1448-AB6E-21DEA0876869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED9143F-1E4D-A843-BF56-1060F76DD448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="640" windowWidth="27480" windowHeight="15840" activeTab="7" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="100" yWindow="640" windowWidth="25020" windowHeight="15840" activeTab="2" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Total Indirect Costs</t>
   </si>
   <si>
-    <t>201-10</t>
-  </si>
-  <si>
     <t>2021-11</t>
   </si>
   <si>
@@ -380,6 +377,12 @@
   </si>
   <si>
     <t>Rooms Cost</t>
+  </si>
+  <si>
+    <t>Continue Model at expenses and start integration of a whole pipeline</t>
+  </si>
+  <si>
+    <t>2021-10</t>
   </si>
 </sst>
 </file>
@@ -3783,9 +3786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B52"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="34">
         <v>0</v>
@@ -3876,7 +3879,7 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -17258,10 +17261,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FDAEC-D40F-7442-9EF7-1FD49F660D8C}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -17272,7 +17275,7 @@
     <col min="4" max="4" width="21.33203125" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -17283,10 +17286,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44562</v>
       </c>
@@ -17300,7 +17303,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>44593</v>
       </c>
@@ -17314,7 +17317,7 @@
         <v>935.38888888888891</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>44621</v>
       </c>
@@ -17328,7 +17331,7 @@
         <v>1150.5555555555557</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44652</v>
       </c>
@@ -17342,7 +17345,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>44682</v>
       </c>
@@ -17356,7 +17359,7 @@
         <v>861.11111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>44713</v>
       </c>
@@ -17370,7 +17373,7 @@
         <v>972.22222222222217</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>44743</v>
       </c>
@@ -17384,7 +17387,7 @@
         <v>2219.1705555555554</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>44774</v>
       </c>
@@ -17397,8 +17400,11 @@
       <c r="D9" s="65">
         <v>1249.3127776333333</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="G9" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>44805</v>
       </c>
@@ -17412,7 +17418,7 @@
         <v>431.60242055555557</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>44835</v>
       </c>
@@ -17426,7 +17432,7 @@
         <v>619.92006944444449</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>44866</v>
       </c>
@@ -17440,7 +17446,7 @@
         <v>787.54525466666666</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>44896</v>
       </c>
@@ -17454,7 +17460,7 @@
         <v>525.37747777777497</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>44927</v>
       </c>
@@ -17468,7 +17474,7 @@
         <v>2203.6549999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>44958</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>1691.2816666666668</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="66" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>44986</v>
       </c>
@@ -17960,6 +17966,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED76ABC0-06F3-F242-8A12-56941A439290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7DEB32-F9C4-DD4E-A805-970277900EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="600" windowWidth="25020" windowHeight="15840" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -4715,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="K26" s="16">
-        <f>(((B26*K14)/B14)*(1+(I26-I14)/I14))</f>
+        <f t="shared" ref="K26:K36" si="0">(((B26*K14)/B14)*(1+(I26-I14)/I14))</f>
         <v>8471.7004909090901</v>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="K27" s="16">
-        <f>(((B27*K15)/B15)*(1+(I27-I15)/I15))</f>
+        <f t="shared" si="0"/>
         <v>16948.435000000001</v>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="16">
-        <f>(((B28*K16)/B16)*(1+(I28-I16)/I16))</f>
+        <f t="shared" si="0"/>
         <v>18604.636731875715</v>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="16">
-        <f>(((B29*K17)/B17)*(1+(I29-I17)/I17))</f>
+        <f t="shared" si="0"/>
         <v>20261.338816443757</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
         <v>9</v>
       </c>
       <c r="K30" s="16">
-        <f>(((B30*K18)/B18)*(1+(I30-I18)/I18))</f>
+        <f t="shared" si="0"/>
         <v>18091.716331300813</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="K31" s="16">
-        <f>(((B31*K19)/B19)*(1+(I31-I19)/I19))</f>
+        <f t="shared" si="0"/>
         <v>20980.606876757196</v>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
         <v>9</v>
       </c>
       <c r="K32" s="16">
-        <f>(((B32*K20)/B20)*(1+(I32-I20)/I20))</f>
+        <f t="shared" si="0"/>
         <v>19344.352665068498</v>
       </c>
     </row>
@@ -4967,7 +4967,7 @@
         <v>9</v>
       </c>
       <c r="K33" s="16">
-        <f>(((B33*K21)/B21)*(1+(I33-I21)/I21))</f>
+        <f t="shared" si="0"/>
         <v>17777.248263888887</v>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>9</v>
       </c>
       <c r="K34" s="16">
-        <f>(((B34*K22)/B22)*(1+(I34-I22)/I22))</f>
+        <f t="shared" si="0"/>
         <v>16916.821063701922</v>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="16">
-        <f>(((B35*K23)/B23)*(1+(I35-I23)/I23))</f>
+        <f t="shared" si="0"/>
         <v>22043.099878472221</v>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
         <v>9</v>
       </c>
       <c r="K36" s="16">
-        <f>(((B36*K24)/B24)*(1+(I36-I24)/I24))</f>
+        <f t="shared" si="0"/>
         <v>17202.38095238095</v>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="16">
-        <f t="shared" ref="K37:K52" si="0">(((B37*K25)/B25)*(1+(I37-I25)/I25))</f>
+        <f t="shared" ref="K37:K52" si="1">(((B37*K25)/B25)*(1+(I37-I25)/I25))</f>
         <v>19080.684583934581</v>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9644.1233267045445</v>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="K39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17902.825330687832</v>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
         <v>9</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19501.11866056587</v>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21240.660791838131</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
         <v>9</v>
       </c>
       <c r="K42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18958.294340447155</v>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
         <v>9</v>
       </c>
       <c r="K43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22076.535047731333</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19571.933284657538</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17986.392361111109</v>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18066.722626201918</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22302.430465277776</v>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
         <v>9</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17404.761904761901</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="K49" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19305.163226098517</v>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
         <v>9</v>
       </c>
       <c r="K50" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8673.4076454545429</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>9</v>
       </c>
       <c r="K51" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18946.889920634923</v>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
         <v>9</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20416.057570140823</v>
       </c>
     </row>
@@ -5665,8 +5665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3125D8-EE63-4B43-9AC6-51D16219A8B2}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="139" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6566,10 +6566,10 @@
         <v>59</v>
       </c>
       <c r="B24" s="28">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C24" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>50</v>
@@ -6581,13 +6581,13 @@
         <v>46</v>
       </c>
       <c r="G24" s="24">
-        <v>319.48371291666666</v>
+        <v>300</v>
       </c>
       <c r="H24" s="24">
         <v>9</v>
       </c>
       <c r="I24" s="24">
-        <v>17000</v>
+        <v>16965</v>
       </c>
       <c r="J24" s="33">
         <v>0.4</v>
@@ -6596,7 +6596,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="18">
-        <v>11000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="L36" s="19">
         <f t="shared" si="1"/>
-        <v>16500</v>
+        <v>18750</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="L48" s="19">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.25">

--- a/budgetusd.xlsx
+++ b/budgetusd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielporras/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7DEB32-F9C4-DD4E-A805-970277900EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E651C-86FE-2048-886A-3948A3BD5A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{26BE6A92-8F4C-F74C-A2D9-BBF367B42B22}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Rooms Cost</t>
   </si>
   <si>
-    <t>Continue Model at expenses and start integration of a whole pipeline</t>
-  </si>
-  <si>
     <t>2021-10</t>
   </si>
 </sst>
@@ -616,7 +613,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -688,6 +685,7 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1006,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AB7571-518D-374C-8FD9-00C835832375}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2508,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE46400-3D03-3941-9442-654DF1291CF8}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3474,7 +3472,7 @@
         <v>59</v>
       </c>
       <c r="B21" s="2">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C21" s="2">
         <v>0.4</v>
@@ -3495,7 +3493,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="8">
-        <v>319.48371291666666</v>
+        <v>300</v>
       </c>
       <c r="J21" s="8">
         <v>20</v>
@@ -3506,14 +3504,15 @@
       <c r="L21" s="8">
         <v>9</v>
       </c>
-      <c r="M21" s="3">
-        <v>17000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>11000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>28000</v>
+      <c r="M21" s="67">
+        <v>16965</v>
+      </c>
+      <c r="N21" s="18">
+        <v>12500</v>
+      </c>
+      <c r="O21" s="8">
+        <f>SUM(M21:N21)</f>
+        <v>29465</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -3786,9 +3785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CE32-5E8E-1543-83EC-5C6420665334}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+    <sheetView zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,7 +3843,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="65">
         <v>0</v>
@@ -4617,13 +4616,13 @@
         <v>59</v>
       </c>
       <c r="B24" s="66">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="C24" s="17">
         <v>2</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E24" s="17">
         <v>10</v>
@@ -4635,7 +4634,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="16">
-        <v>319.48371291666666</v>
+        <v>300</v>
       </c>
       <c r="I24" s="16">
         <v>84</v>
@@ -4643,8 +4642,8 @@
       <c r="J24" s="16">
         <v>9</v>
       </c>
-      <c r="K24" s="17">
-        <v>17000</v>
+      <c r="K24" s="67">
+        <v>16965</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5054,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E36" s="17">
         <v>10</v>
@@ -5076,7 +5075,7 @@
       </c>
       <c r="K36" s="16">
         <f t="shared" si="0"/>
-        <v>17202.38095238095</v>
+        <v>18039.8607748184</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5486,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E48" s="17">
         <v>10</v>
@@ -5508,7 +5507,7 @@
       </c>
       <c r="K48" s="16">
         <f t="shared" si="1"/>
-        <v>17404.761904761901</v>
+        <v>18252.094430992733</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -5665,8 +5664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3125D8-EE63-4B43-9AC6-51D16219A8B2}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="67" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6572,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E24" s="24">
         <v>10</v>
@@ -7035,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E36" s="24">
         <v>10</v>
@@ -7503,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E48" s="24">
         <v>10</v>
@@ -7698,7 +7697,7 @@
   <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A15" sqref="A15"/>
       <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
@@ -13987,7 +13986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD220802-990C-0943-A7BD-ACE19BFC12F7}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -17266,10 +17265,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8FDAEC-D40F-7442-9EF7-1FD49F660D8C}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -17280,7 +17279,7 @@
     <col min="4" max="4" width="21.33203125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>44562</v>
       </c>
@@ -17308,7 +17307,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>44593</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>935.38888888888891</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
         <v>44621</v>
       </c>
@@ -17336,7 +17335,7 @@
         <v>1150.5555555555557</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
         <v>44652</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>44682</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>861.11111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>44713</v>
       </c>
@@ -17378,7 +17377,7 @@
         <v>972.22222222222217</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>44743</v>
       </c>
@@ -17392,7 +17391,7 @@
         <v>2219.1705555555554</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>44774</v>
       </c>
@@ -17405,11 +17404,8 @@
       <c r="D9" s="60">
         <v>1249.3127776333333</v>
       </c>
-      <c r="G9" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>44805</v>
       </c>
@@ -17423,7 +17419,7 @@
         <v>431.60242055555557</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>44835</v>
       </c>
@@ -17437,7 +17433,7 @@
         <v>619.92006944444449</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>44866</v>
       </c>
@@ -17451,7 +17447,7 @@
         <v>787.54525466666666</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>44896</v>
       </c>
@@ -17465,7 +17461,7 @@
         <v>525.37747777777497</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>44927</v>
       </c>
@@ -17479,7 +17475,7 @@
         <v>2203.6549999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>44958</v>
       </c>
@@ -17493,7 +17489,7 @@
         <v>1691.2816666666668</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>44986</v>
       </c>
@@ -17563,15 +17559,15 @@
         <v>1833.3412722222222</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="61" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>45139</v>
       </c>
       <c r="B21" s="62">
-        <v>0.62</v>
-      </c>
-      <c r="C21" s="60">
-        <v>17000</v>
+        <v>0.59</v>
+      </c>
+      <c r="C21" s="67">
+        <v>16965</v>
       </c>
       <c r="D21" s="60">
         <v>1700</v>
@@ -17980,7 +17976,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F49"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -18487,7 +18483,7 @@
         <v>11000</v>
       </c>
       <c r="E21" s="28">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F21" s="24">
         <f t="shared" si="0"/>
